--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -802,7 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -810,7 +804,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -818,7 +811,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -994,168 +986,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1252,7 +1235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,35 +1446,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="23" style="37" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="47" customWidth="1"/>
     <col min="9" max="9" width="11" style="47" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="37" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="37" customWidth="1"/>
-    <col min="15" max="15" width="53" style="47" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="16" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="47" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="47" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
-    <col min="18" max="18" width="12" style="37" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="37" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="37" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="37" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="37"/>
+    <col min="18" max="18" width="12" style="16" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="16" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1558,26 +1541,26 @@
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="24" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
       <c r="S2" s="13"/>
@@ -1585,413 +1568,413 @@
       <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:190" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="39" t="s">
+      <c r="N3" s="37"/>
+      <c r="O3" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="38">
         <v>6</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="32">
         <v>2</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="38">
         <v>6</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="35" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="32">
         <v>3</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="38">
         <v>6</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="35" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="32">
         <v>4</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="38">
         <v>6</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="52" t="s">
+      <c r="U6" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="32">
         <v>5</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="36" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="39" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="43">
         <v>9</v>
       </c>
-      <c r="R7" s="56" t="s">
+      <c r="R7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="U7" s="55" t="s">
+      <c r="U7" s="43" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="32">
         <v>6</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="39" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="38">
         <v>6</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="R8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="54" t="s">
+      <c r="T8" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="U8" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:190" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <v>7</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34" t="s">
+      <c r="M9" s="37"/>
+      <c r="N9" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="38">
         <v>6</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="54" t="s">
+      <c r="T9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="52" t="s">
+      <c r="U9" s="38" t="s">
         <v>228</v>
       </c>
       <c r="V9" s="47"/>
@@ -2165,1665 +2148,1668 @@
       <c r="GH9" s="47"/>
     </row>
     <row r="10" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="35" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="32">
         <v>8</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="39" t="s">
+      <c r="N10" s="37"/>
+      <c r="O10" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="38">
         <v>6</v>
       </c>
-      <c r="R10" s="53" t="s">
+      <c r="R10" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="T10" s="54" t="s">
+      <c r="T10" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="U10" s="52" t="s">
+      <c r="U10" s="38" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="35" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="32">
         <v>9</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="38">
         <v>6</v>
       </c>
-      <c r="R11" s="53" t="s">
+      <c r="R11" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="54" t="s">
+      <c r="T11" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="U11" s="52" t="s">
+      <c r="U11" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="35" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="32">
         <v>10</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="37"/>
+      <c r="N12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="Q12" s="38">
         <v>6</v>
       </c>
-      <c r="R12" s="53" t="s">
+      <c r="R12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="52" t="s">
+      <c r="S12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="54" t="s">
+      <c r="T12" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="52" t="s">
+      <c r="U12" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="35" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="32">
         <v>11</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="39" t="s">
+      <c r="N13" s="37"/>
+      <c r="O13" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="38">
         <v>6</v>
       </c>
-      <c r="R13" s="53" t="s">
+      <c r="R13" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="52" t="s">
+      <c r="S13" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="T13" s="54" t="s">
+      <c r="T13" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="U13" s="52" t="s">
+      <c r="U13" s="38" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="35" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="32">
         <v>12</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34" t="s">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="38">
         <v>6</v>
       </c>
-      <c r="R14" s="53" t="s">
+      <c r="R14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="54" t="s">
+      <c r="T14" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="U14" s="52" t="s">
+      <c r="U14" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="35" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="32">
         <v>13</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34" t="s">
+      <c r="M15" s="37"/>
+      <c r="N15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="38">
         <v>6</v>
       </c>
-      <c r="R15" s="53" t="s">
+      <c r="R15" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="54" t="s">
+      <c r="T15" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="U15" s="52" t="s">
+      <c r="U15" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="35" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="32">
         <v>14</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34" t="s">
+      <c r="M16" s="37"/>
+      <c r="N16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="Q16" s="38">
         <v>6</v>
       </c>
-      <c r="R16" s="53" t="s">
+      <c r="R16" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="52" t="s">
+      <c r="S16" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="52" t="s">
+      <c r="U16" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="35" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="32">
         <v>15</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="38">
         <v>6</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="R17" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="54" t="s">
+      <c r="T17" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="52" t="s">
+      <c r="U17" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="35" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="32">
         <v>16</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34" t="s">
+      <c r="M18" s="37"/>
+      <c r="N18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="38">
         <v>6</v>
       </c>
-      <c r="R18" s="53" t="s">
+      <c r="R18" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="52" t="s">
+      <c r="S18" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="54" t="s">
+      <c r="T18" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U18" s="52" t="s">
+      <c r="U18" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="32">
         <v>17</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34" t="s">
+      <c r="M19" s="37"/>
+      <c r="N19" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="52">
+      <c r="Q19" s="38">
         <v>6</v>
       </c>
-      <c r="R19" s="53" t="s">
+      <c r="R19" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="52" t="s">
+      <c r="S19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="54" t="s">
+      <c r="T19" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="U19" s="52" t="s">
+      <c r="U19" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="35" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="32">
         <v>18</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34" t="s">
+      <c r="M20" s="37"/>
+      <c r="N20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="52">
+      <c r="Q20" s="38">
         <v>6</v>
       </c>
-      <c r="R20" s="53" t="s">
+      <c r="R20" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="52" t="s">
+      <c r="S20" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="54" t="s">
+      <c r="T20" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="U20" s="52" t="s">
+      <c r="U20" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="35" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="32">
         <v>19</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34" t="s">
+      <c r="M21" s="37"/>
+      <c r="N21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="52">
+      <c r="Q21" s="38">
         <v>6</v>
       </c>
-      <c r="R21" s="53" t="s">
+      <c r="R21" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="52" t="s">
+      <c r="S21" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="54" t="s">
+      <c r="T21" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="52" t="s">
+      <c r="U21" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="35" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="32">
         <v>20</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34" t="s">
+      <c r="M22" s="37"/>
+      <c r="N22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="52">
+      <c r="Q22" s="38">
         <v>6</v>
       </c>
-      <c r="R22" s="53" t="s">
+      <c r="R22" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="52" t="s">
+      <c r="S22" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="54" t="s">
+      <c r="T22" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="52" t="s">
+      <c r="U22" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="35" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="32">
         <v>21</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34" t="s">
+      <c r="M23" s="37"/>
+      <c r="N23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="52">
+      <c r="Q23" s="38">
         <v>6</v>
       </c>
-      <c r="R23" s="53" t="s">
+      <c r="R23" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="52" t="s">
+      <c r="S23" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="54" t="s">
+      <c r="T23" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="U23" s="52" t="s">
+      <c r="U23" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="35" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="32">
         <v>22</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34" t="s">
+      <c r="M24" s="37"/>
+      <c r="N24" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="52">
+      <c r="Q24" s="38">
         <v>6</v>
       </c>
-      <c r="R24" s="53" t="s">
+      <c r="R24" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="52" t="s">
+      <c r="S24" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="54" t="s">
+      <c r="T24" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="U24" s="52" t="s">
+      <c r="U24" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="35" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="32">
         <v>23</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="39" t="s">
+      <c r="N25" s="37"/>
+      <c r="O25" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="52">
+      <c r="Q25" s="38">
         <v>6</v>
       </c>
-      <c r="R25" s="53" t="s">
+      <c r="R25" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="52" t="s">
+      <c r="S25" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="T25" s="54" t="s">
+      <c r="T25" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="U25" s="52" t="s">
+      <c r="U25" s="38" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="35" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="32">
         <v>24</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34" t="s">
+      <c r="M26" s="37"/>
+      <c r="N26" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="52">
+      <c r="Q26" s="38">
         <v>6</v>
       </c>
-      <c r="R26" s="53" t="s">
+      <c r="R26" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="52" t="s">
+      <c r="S26" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="54" t="s">
+      <c r="T26" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="52" t="s">
+      <c r="U26" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="35" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="32">
         <v>25</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34" t="s">
+      <c r="M27" s="37"/>
+      <c r="N27" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="52">
+      <c r="Q27" s="38">
         <v>6</v>
       </c>
-      <c r="R27" s="53" t="s">
+      <c r="R27" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="52" t="s">
+      <c r="S27" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="54" t="s">
+      <c r="T27" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="U27" s="52" t="s">
+      <c r="U27" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="35" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="32">
         <v>26</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34" t="s">
+      <c r="M28" s="37"/>
+      <c r="N28" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="P28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="52">
+      <c r="Q28" s="38">
         <v>6</v>
       </c>
-      <c r="R28" s="53" t="s">
+      <c r="R28" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="52" t="s">
+      <c r="S28" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="54" t="s">
+      <c r="T28" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="U28" s="52" t="s">
+      <c r="U28" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="35" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="32">
         <v>27</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="31" t="s">
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="43"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="49"/>
     </row>
     <row r="30" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="35" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="32">
         <v>28</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="P30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="38">
         <v>6</v>
       </c>
-      <c r="R30" s="53" t="s">
+      <c r="R30" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="52" t="s">
+      <c r="S30" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="54" t="s">
+      <c r="T30" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="52" t="s">
+      <c r="U30" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="35" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="32">
         <v>29</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="36" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34" t="s">
+      <c r="M31" s="37"/>
+      <c r="N31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="31" t="s">
+      <c r="O31" s="32"/>
+      <c r="P31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="52">
+      <c r="Q31" s="38">
         <v>6</v>
       </c>
-      <c r="R31" s="53" t="s">
+      <c r="R31" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="52" t="s">
+      <c r="S31" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="54" t="s">
+      <c r="T31" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="52" t="s">
+      <c r="U31" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="32"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="43"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="49"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="32"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="43"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="49"/>
     </row>
     <row r="34" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="32"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="43"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="49"/>
     </row>
     <row r="35" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="32"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="43"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="49"/>
     </row>
     <row r="36" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="32"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="43"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="49"/>
     </row>
     <row r="37" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="32"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="33"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="43"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="49"/>
     </row>
     <row r="38" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="32"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="43"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="49"/>
     </row>
     <row r="39" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="32"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="33"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="43"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="49"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="16" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3838,12 +3824,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion09\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -990,76 +995,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,6 +1079,72 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,7 +1205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1235,7 +1240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,2370 +1451,2364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="11" style="47" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="47" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="47" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
-    <col min="18" max="18" width="12" style="16" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="16" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="18.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="11" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="25" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="12" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="25" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:190" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="32" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="16">
         <v>6</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="41" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="16">
         <v>6</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="U4" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="41" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="10">
         <v>3</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="16">
         <v>6</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="41" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="10">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="16">
         <v>6</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="41" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="32" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="21">
         <v>9</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="T7" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="U7" s="43" t="s">
+      <c r="U7" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="41" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="32" t="s">
+      <c r="N8" s="15"/>
+      <c r="O8" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="16">
         <v>6</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="T8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:190" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:190" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="41" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="10">
         <v>7</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="16">
         <v>6</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="47"/>
-      <c r="BA9" s="47"/>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="47"/>
-      <c r="BD9" s="47"/>
-      <c r="BE9" s="47"/>
-      <c r="BF9" s="47"/>
-      <c r="BG9" s="47"/>
-      <c r="BH9" s="47"/>
-      <c r="BI9" s="47"/>
-      <c r="BJ9" s="47"/>
-      <c r="BK9" s="47"/>
-      <c r="BL9" s="47"/>
-      <c r="BM9" s="47"/>
-      <c r="BN9" s="47"/>
-      <c r="BO9" s="47"/>
-      <c r="BP9" s="47"/>
-      <c r="BQ9" s="47"/>
-      <c r="BR9" s="47"/>
-      <c r="BS9" s="47"/>
-      <c r="BT9" s="47"/>
-      <c r="BU9" s="47"/>
-      <c r="BV9" s="47"/>
-      <c r="BW9" s="47"/>
-      <c r="BX9" s="47"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="47"/>
-      <c r="CA9" s="47"/>
-      <c r="CB9" s="47"/>
-      <c r="CC9" s="47"/>
-      <c r="CD9" s="47"/>
-      <c r="CE9" s="47"/>
-      <c r="CF9" s="47"/>
-      <c r="CG9" s="47"/>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="47"/>
-      <c r="CJ9" s="47"/>
-      <c r="CK9" s="47"/>
-      <c r="CL9" s="47"/>
-      <c r="CM9" s="47"/>
-      <c r="CN9" s="47"/>
-      <c r="CO9" s="47"/>
-      <c r="CP9" s="47"/>
-      <c r="CQ9" s="47"/>
-      <c r="CR9" s="47"/>
-      <c r="CS9" s="47"/>
-      <c r="CT9" s="47"/>
-      <c r="CU9" s="47"/>
-      <c r="CV9" s="47"/>
-      <c r="CW9" s="47"/>
-      <c r="CX9" s="47"/>
-      <c r="CY9" s="47"/>
-      <c r="CZ9" s="47"/>
-      <c r="DA9" s="47"/>
-      <c r="DB9" s="47"/>
-      <c r="DC9" s="47"/>
-      <c r="DD9" s="47"/>
-      <c r="DE9" s="47"/>
-      <c r="DF9" s="47"/>
-      <c r="DG9" s="47"/>
-      <c r="DH9" s="47"/>
-      <c r="DI9" s="47"/>
-      <c r="DJ9" s="47"/>
-      <c r="DK9" s="47"/>
-      <c r="DL9" s="47"/>
-      <c r="DM9" s="47"/>
-      <c r="DN9" s="47"/>
-      <c r="DO9" s="47"/>
-      <c r="DP9" s="47"/>
-      <c r="DQ9" s="47"/>
-      <c r="DR9" s="47"/>
-      <c r="DS9" s="47"/>
-      <c r="DT9" s="47"/>
-      <c r="DU9" s="47"/>
-      <c r="DV9" s="47"/>
-      <c r="DW9" s="47"/>
-      <c r="DX9" s="47"/>
-      <c r="DY9" s="47"/>
-      <c r="DZ9" s="47"/>
-      <c r="EA9" s="47"/>
-      <c r="EB9" s="47"/>
-      <c r="EC9" s="47"/>
-      <c r="ED9" s="47"/>
-      <c r="EE9" s="47"/>
-      <c r="EF9" s="47"/>
-      <c r="EG9" s="47"/>
-      <c r="EH9" s="47"/>
-      <c r="EI9" s="47"/>
-      <c r="EJ9" s="47"/>
-      <c r="EK9" s="47"/>
-      <c r="EL9" s="47"/>
-      <c r="EM9" s="47"/>
-      <c r="EN9" s="47"/>
-      <c r="EO9" s="47"/>
-      <c r="EP9" s="47"/>
-      <c r="EQ9" s="47"/>
-      <c r="ER9" s="47"/>
-      <c r="ES9" s="47"/>
-      <c r="ET9" s="47"/>
-      <c r="EU9" s="47"/>
-      <c r="EV9" s="47"/>
-      <c r="EW9" s="47"/>
-      <c r="EX9" s="47"/>
-      <c r="EY9" s="47"/>
-      <c r="EZ9" s="47"/>
-      <c r="FA9" s="47"/>
-      <c r="FB9" s="47"/>
-      <c r="FC9" s="47"/>
-      <c r="FD9" s="47"/>
-      <c r="FE9" s="47"/>
-      <c r="FF9" s="47"/>
-      <c r="FG9" s="47"/>
-      <c r="FH9" s="47"/>
-      <c r="FI9" s="47"/>
-      <c r="FJ9" s="47"/>
-      <c r="FK9" s="47"/>
-      <c r="FL9" s="47"/>
-      <c r="FM9" s="47"/>
-      <c r="FN9" s="47"/>
-      <c r="FO9" s="47"/>
-      <c r="FP9" s="47"/>
-      <c r="FQ9" s="47"/>
-      <c r="FR9" s="47"/>
-      <c r="FS9" s="47"/>
-      <c r="FT9" s="47"/>
-      <c r="FU9" s="47"/>
-      <c r="FV9" s="47"/>
-      <c r="FW9" s="47"/>
-      <c r="FX9" s="47"/>
-      <c r="FY9" s="47"/>
-      <c r="FZ9" s="47"/>
-      <c r="GA9" s="47"/>
-      <c r="GB9" s="47"/>
-      <c r="GC9" s="47"/>
-      <c r="GD9" s="47"/>
-      <c r="GE9" s="47"/>
-      <c r="GF9" s="47"/>
-      <c r="GG9" s="47"/>
-      <c r="GH9" s="47"/>
-    </row>
-    <row r="10" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25"/>
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25"/>
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25"/>
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="25"/>
+      <c r="CM9" s="25"/>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="25"/>
+      <c r="CP9" s="25"/>
+      <c r="CQ9" s="25"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="25"/>
+      <c r="CT9" s="25"/>
+      <c r="CU9" s="25"/>
+      <c r="CV9" s="25"/>
+      <c r="CW9" s="25"/>
+      <c r="CX9" s="25"/>
+      <c r="CY9" s="25"/>
+      <c r="CZ9" s="25"/>
+      <c r="DA9" s="25"/>
+      <c r="DB9" s="25"/>
+      <c r="DC9" s="25"/>
+      <c r="DD9" s="25"/>
+      <c r="DE9" s="25"/>
+      <c r="DF9" s="25"/>
+      <c r="DG9" s="25"/>
+      <c r="DH9" s="25"/>
+      <c r="DI9" s="25"/>
+      <c r="DJ9" s="25"/>
+      <c r="DK9" s="25"/>
+      <c r="DL9" s="25"/>
+      <c r="DM9" s="25"/>
+      <c r="DN9" s="25"/>
+      <c r="DO9" s="25"/>
+      <c r="DP9" s="25"/>
+      <c r="DQ9" s="25"/>
+      <c r="DR9" s="25"/>
+      <c r="DS9" s="25"/>
+      <c r="DT9" s="25"/>
+      <c r="DU9" s="25"/>
+      <c r="DV9" s="25"/>
+      <c r="DW9" s="25"/>
+      <c r="DX9" s="25"/>
+      <c r="DY9" s="25"/>
+      <c r="DZ9" s="25"/>
+      <c r="EA9" s="25"/>
+      <c r="EB9" s="25"/>
+      <c r="EC9" s="25"/>
+      <c r="ED9" s="25"/>
+      <c r="EE9" s="25"/>
+      <c r="EF9" s="25"/>
+      <c r="EG9" s="25"/>
+      <c r="EH9" s="25"/>
+      <c r="EI9" s="25"/>
+      <c r="EJ9" s="25"/>
+      <c r="EK9" s="25"/>
+      <c r="EL9" s="25"/>
+      <c r="EM9" s="25"/>
+      <c r="EN9" s="25"/>
+      <c r="EO9" s="25"/>
+      <c r="EP9" s="25"/>
+      <c r="EQ9" s="25"/>
+      <c r="ER9" s="25"/>
+      <c r="ES9" s="25"/>
+      <c r="ET9" s="25"/>
+      <c r="EU9" s="25"/>
+      <c r="EV9" s="25"/>
+      <c r="EW9" s="25"/>
+      <c r="EX9" s="25"/>
+      <c r="EY9" s="25"/>
+      <c r="EZ9" s="25"/>
+      <c r="FA9" s="25"/>
+      <c r="FB9" s="25"/>
+      <c r="FC9" s="25"/>
+      <c r="FD9" s="25"/>
+      <c r="FE9" s="25"/>
+      <c r="FF9" s="25"/>
+      <c r="FG9" s="25"/>
+      <c r="FH9" s="25"/>
+      <c r="FI9" s="25"/>
+      <c r="FJ9" s="25"/>
+      <c r="FK9" s="25"/>
+      <c r="FL9" s="25"/>
+      <c r="FM9" s="25"/>
+      <c r="FN9" s="25"/>
+      <c r="FO9" s="25"/>
+      <c r="FP9" s="25"/>
+      <c r="FQ9" s="25"/>
+      <c r="FR9" s="25"/>
+      <c r="FS9" s="25"/>
+      <c r="FT9" s="25"/>
+      <c r="FU9" s="25"/>
+      <c r="FV9" s="25"/>
+      <c r="FW9" s="25"/>
+      <c r="FX9" s="25"/>
+      <c r="FY9" s="25"/>
+      <c r="FZ9" s="25"/>
+      <c r="GA9" s="25"/>
+      <c r="GB9" s="25"/>
+      <c r="GC9" s="25"/>
+      <c r="GD9" s="25"/>
+      <c r="GE9" s="25"/>
+      <c r="GF9" s="25"/>
+      <c r="GG9" s="25"/>
+      <c r="GH9" s="25"/>
+    </row>
+    <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="41" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="10">
         <v>8</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="32" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="16">
         <v>6</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="41" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="16">
         <v>6</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="S11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="40" t="s">
+      <c r="T11" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="41" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="10">
         <v>10</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="16">
         <v>6</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="41" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="10">
         <v>11</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="32" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="16">
         <v>6</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="T13" s="40" t="s">
+      <c r="T13" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="U13" s="38" t="s">
+      <c r="U13" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="41" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="16">
         <v>6</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="T14" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="41" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="16">
         <v>6</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="T15" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="41" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="10">
         <v>14</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="16">
         <v>6</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="40" t="s">
+      <c r="T16" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="38" t="s">
+      <c r="U16" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="41" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="10">
         <v>15</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="16">
         <v>6</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="40" t="s">
+      <c r="T17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="41" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="10">
         <v>16</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="16">
         <v>6</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="40" t="s">
+      <c r="T18" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="U18" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="41" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="10">
         <v>17</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="16">
         <v>6</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="38" t="s">
+      <c r="S19" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="40" t="s">
+      <c r="T19" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="U19" s="38" t="s">
+      <c r="U19" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="41" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="10">
         <v>18</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="16">
         <v>6</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="38" t="s">
+      <c r="S20" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="40" t="s">
+      <c r="T20" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U20" s="38" t="s">
+      <c r="U20" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="41" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="10">
         <v>19</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="16">
         <v>6</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="38" t="s">
+      <c r="S21" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="40" t="s">
+      <c r="T21" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="38" t="s">
+      <c r="U21" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="41" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="10">
         <v>20</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37" t="s">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="16">
         <v>6</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="40" t="s">
+      <c r="T22" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="41" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="10">
         <v>21</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="32" t="s">
+      <c r="O23" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="16">
         <v>6</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="38" t="s">
+      <c r="S23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="40" t="s">
+      <c r="T23" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="U23" s="38" t="s">
+      <c r="U23" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="41" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="10">
         <v>22</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="33" t="s">
+      <c r="L24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37" t="s">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="16">
         <v>6</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="38" t="s">
+      <c r="S24" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="40" t="s">
+      <c r="T24" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="U24" s="38" t="s">
+      <c r="U24" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="41" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="10">
         <v>23</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="32" t="s">
+      <c r="N25" s="15"/>
+      <c r="O25" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="16">
         <v>6</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="38" t="s">
+      <c r="S25" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="T25" s="40" t="s">
+      <c r="T25" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="U25" s="38" t="s">
+      <c r="U25" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="41" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="10">
         <v>24</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37" t="s">
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="16">
         <v>6</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="38" t="s">
+      <c r="S26" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="T26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="38" t="s">
+      <c r="U26" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="41" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="10">
         <v>25</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="16">
         <v>6</v>
       </c>
-      <c r="R27" s="39" t="s">
+      <c r="R27" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="38" t="s">
+      <c r="S27" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="40" t="s">
+      <c r="T27" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="U27" s="38" t="s">
+      <c r="U27" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="41" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="10">
         <v>26</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37" t="s">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="16">
         <v>6</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="38" t="s">
+      <c r="S28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="40" t="s">
+      <c r="T28" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="U28" s="38" t="s">
+      <c r="U28" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="41" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="10">
         <v>27</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32" t="s">
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="49"/>
-    </row>
-    <row r="30" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="27"/>
+    </row>
+    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="41" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="10">
         <v>28</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37" t="s">
+      <c r="M30" s="15"/>
+      <c r="N30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="32" t="s">
+      <c r="O30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="16">
         <v>6</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="38" t="s">
+      <c r="S30" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="40" t="s">
+      <c r="T30" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="38" t="s">
+      <c r="U30" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="41" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="10">
         <v>29</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="33" t="s">
+      <c r="L31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37" t="s">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32" t="s">
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="16">
         <v>6</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="38" t="s">
+      <c r="S31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="40" t="s">
+      <c r="T31" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="38" t="s">
+      <c r="U31" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="49"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="27"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="49"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="27"/>
     </row>
     <row r="34" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="49"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="27"/>
     </row>
     <row r="35" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="49"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="27"/>
     </row>
     <row r="36" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="49"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="27"/>
     </row>
     <row r="37" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="49"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="27"/>
     </row>
     <row r="38" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="49"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="27"/>
     </row>
     <row r="39" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="49"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="27"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3824,6 +3823,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="252">
   <si>
     <t>Asignatura</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>MT_09_07</t>
+  </si>
+  <si>
+    <t>Josué</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,8 +899,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -987,11 +996,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1001,65 +1021,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1067,31 +1033,10 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,6 +1049,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1095,96 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,9 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="A9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1463,18 +1504,18 @@
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="11" style="25" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
     <col min="10" max="10" width="37.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="7" customWidth="1"/>
     <col min="18" max="18" width="12" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
@@ -1483,151 +1524,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="35">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="P3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="36">
         <v>6</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="36" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1635,58 +1676,58 @@
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="35">
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="36">
         <v>6</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1694,58 +1735,58 @@
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="35">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="36">
         <v>6</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1753,58 +1794,58 @@
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="19" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="35">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="36">
         <v>6</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1812,402 +1853,405 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="35">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="38">
         <v>9</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="38" t="s">
         <v>250</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="35">
         <v>6</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="10" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="36">
         <v>6</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:190" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="43">
         <v>7</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="58">
         <v>6</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25"/>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25"/>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25"/>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="25"/>
-      <c r="CM9" s="25"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
-      <c r="CP9" s="25"/>
-      <c r="CQ9" s="25"/>
-      <c r="CR9" s="25"/>
-      <c r="CS9" s="25"/>
-      <c r="CT9" s="25"/>
-      <c r="CU9" s="25"/>
-      <c r="CV9" s="25"/>
-      <c r="CW9" s="25"/>
-      <c r="CX9" s="25"/>
-      <c r="CY9" s="25"/>
-      <c r="CZ9" s="25"/>
-      <c r="DA9" s="25"/>
-      <c r="DB9" s="25"/>
-      <c r="DC9" s="25"/>
-      <c r="DD9" s="25"/>
-      <c r="DE9" s="25"/>
-      <c r="DF9" s="25"/>
-      <c r="DG9" s="25"/>
-      <c r="DH9" s="25"/>
-      <c r="DI9" s="25"/>
-      <c r="DJ9" s="25"/>
-      <c r="DK9" s="25"/>
-      <c r="DL9" s="25"/>
-      <c r="DM9" s="25"/>
-      <c r="DN9" s="25"/>
-      <c r="DO9" s="25"/>
-      <c r="DP9" s="25"/>
-      <c r="DQ9" s="25"/>
-      <c r="DR9" s="25"/>
-      <c r="DS9" s="25"/>
-      <c r="DT9" s="25"/>
-      <c r="DU9" s="25"/>
-      <c r="DV9" s="25"/>
-      <c r="DW9" s="25"/>
-      <c r="DX9" s="25"/>
-      <c r="DY9" s="25"/>
-      <c r="DZ9" s="25"/>
-      <c r="EA9" s="25"/>
-      <c r="EB9" s="25"/>
-      <c r="EC9" s="25"/>
-      <c r="ED9" s="25"/>
-      <c r="EE9" s="25"/>
-      <c r="EF9" s="25"/>
-      <c r="EG9" s="25"/>
-      <c r="EH9" s="25"/>
-      <c r="EI9" s="25"/>
-      <c r="EJ9" s="25"/>
-      <c r="EK9" s="25"/>
-      <c r="EL9" s="25"/>
-      <c r="EM9" s="25"/>
-      <c r="EN9" s="25"/>
-      <c r="EO9" s="25"/>
-      <c r="EP9" s="25"/>
-      <c r="EQ9" s="25"/>
-      <c r="ER9" s="25"/>
-      <c r="ES9" s="25"/>
-      <c r="ET9" s="25"/>
-      <c r="EU9" s="25"/>
-      <c r="EV9" s="25"/>
-      <c r="EW9" s="25"/>
-      <c r="EX9" s="25"/>
-      <c r="EY9" s="25"/>
-      <c r="EZ9" s="25"/>
-      <c r="FA9" s="25"/>
-      <c r="FB9" s="25"/>
-      <c r="FC9" s="25"/>
-      <c r="FD9" s="25"/>
-      <c r="FE9" s="25"/>
-      <c r="FF9" s="25"/>
-      <c r="FG9" s="25"/>
-      <c r="FH9" s="25"/>
-      <c r="FI9" s="25"/>
-      <c r="FJ9" s="25"/>
-      <c r="FK9" s="25"/>
-      <c r="FL9" s="25"/>
-      <c r="FM9" s="25"/>
-      <c r="FN9" s="25"/>
-      <c r="FO9" s="25"/>
-      <c r="FP9" s="25"/>
-      <c r="FQ9" s="25"/>
-      <c r="FR9" s="25"/>
-      <c r="FS9" s="25"/>
-      <c r="FT9" s="25"/>
-      <c r="FU9" s="25"/>
-      <c r="FV9" s="25"/>
-      <c r="FW9" s="25"/>
-      <c r="FX9" s="25"/>
-      <c r="FY9" s="25"/>
-      <c r="FZ9" s="25"/>
-      <c r="GA9" s="25"/>
-      <c r="GB9" s="25"/>
-      <c r="GC9" s="25"/>
-      <c r="GD9" s="25"/>
-      <c r="GE9" s="25"/>
-      <c r="GF9" s="25"/>
-      <c r="GG9" s="25"/>
-      <c r="GH9" s="25"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="7"/>
+      <c r="BU9" s="7"/>
+      <c r="BV9" s="7"/>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="7"/>
+      <c r="BY9" s="7"/>
+      <c r="BZ9" s="7"/>
+      <c r="CA9" s="7"/>
+      <c r="CB9" s="7"/>
+      <c r="CC9" s="7"/>
+      <c r="CD9" s="7"/>
+      <c r="CE9" s="7"/>
+      <c r="CF9" s="7"/>
+      <c r="CG9" s="7"/>
+      <c r="CH9" s="7"/>
+      <c r="CI9" s="7"/>
+      <c r="CJ9" s="7"/>
+      <c r="CK9" s="7"/>
+      <c r="CL9" s="7"/>
+      <c r="CM9" s="7"/>
+      <c r="CN9" s="7"/>
+      <c r="CO9" s="7"/>
+      <c r="CP9" s="7"/>
+      <c r="CQ9" s="7"/>
+      <c r="CR9" s="7"/>
+      <c r="CS9" s="7"/>
+      <c r="CT9" s="7"/>
+      <c r="CU9" s="7"/>
+      <c r="CV9" s="7"/>
+      <c r="CW9" s="7"/>
+      <c r="CX9" s="7"/>
+      <c r="CY9" s="7"/>
+      <c r="CZ9" s="7"/>
+      <c r="DA9" s="7"/>
+      <c r="DB9" s="7"/>
+      <c r="DC9" s="7"/>
+      <c r="DD9" s="7"/>
+      <c r="DE9" s="7"/>
+      <c r="DF9" s="7"/>
+      <c r="DG9" s="7"/>
+      <c r="DH9" s="7"/>
+      <c r="DI9" s="7"/>
+      <c r="DJ9" s="7"/>
+      <c r="DK9" s="7"/>
+      <c r="DL9" s="7"/>
+      <c r="DM9" s="7"/>
+      <c r="DN9" s="7"/>
+      <c r="DO9" s="7"/>
+      <c r="DP9" s="7"/>
+      <c r="DQ9" s="7"/>
+      <c r="DR9" s="7"/>
+      <c r="DS9" s="7"/>
+      <c r="DT9" s="7"/>
+      <c r="DU9" s="7"/>
+      <c r="DV9" s="7"/>
+      <c r="DW9" s="7"/>
+      <c r="DX9" s="7"/>
+      <c r="DY9" s="7"/>
+      <c r="DZ9" s="7"/>
+      <c r="EA9" s="7"/>
+      <c r="EB9" s="7"/>
+      <c r="EC9" s="7"/>
+      <c r="ED9" s="7"/>
+      <c r="EE9" s="7"/>
+      <c r="EF9" s="7"/>
+      <c r="EG9" s="7"/>
+      <c r="EH9" s="7"/>
+      <c r="EI9" s="7"/>
+      <c r="EJ9" s="7"/>
+      <c r="EK9" s="7"/>
+      <c r="EL9" s="7"/>
+      <c r="EM9" s="7"/>
+      <c r="EN9" s="7"/>
+      <c r="EO9" s="7"/>
+      <c r="EP9" s="7"/>
+      <c r="EQ9" s="7"/>
+      <c r="ER9" s="7"/>
+      <c r="ES9" s="7"/>
+      <c r="ET9" s="7"/>
+      <c r="EU9" s="7"/>
+      <c r="EV9" s="7"/>
+      <c r="EW9" s="7"/>
+      <c r="EX9" s="7"/>
+      <c r="EY9" s="7"/>
+      <c r="EZ9" s="7"/>
+      <c r="FA9" s="7"/>
+      <c r="FB9" s="7"/>
+      <c r="FC9" s="7"/>
+      <c r="FD9" s="7"/>
+      <c r="FE9" s="7"/>
+      <c r="FF9" s="7"/>
+      <c r="FG9" s="7"/>
+      <c r="FH9" s="7"/>
+      <c r="FI9" s="7"/>
+      <c r="FJ9" s="7"/>
+      <c r="FK9" s="7"/>
+      <c r="FL9" s="7"/>
+      <c r="FM9" s="7"/>
+      <c r="FN9" s="7"/>
+      <c r="FO9" s="7"/>
+      <c r="FP9" s="7"/>
+      <c r="FQ9" s="7"/>
+      <c r="FR9" s="7"/>
+      <c r="FS9" s="7"/>
+      <c r="FT9" s="7"/>
+      <c r="FU9" s="7"/>
+      <c r="FV9" s="7"/>
+      <c r="FW9" s="7"/>
+      <c r="FX9" s="7"/>
+      <c r="FY9" s="7"/>
+      <c r="FZ9" s="7"/>
+      <c r="GA9" s="7"/>
+      <c r="GB9" s="7"/>
+      <c r="GC9" s="7"/>
+      <c r="GD9" s="7"/>
+      <c r="GE9" s="7"/>
+      <c r="GF9" s="7"/>
+      <c r="GG9" s="7"/>
+      <c r="GH9" s="7"/>
     </row>
     <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="19" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="35">
         <v>8</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="10" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="36">
         <v>6</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="U10" s="36" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2215,58 +2259,58 @@
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="35">
         <v>9</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15" t="s">
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="36">
         <v>6</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2274,58 +2318,58 @@
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="35">
         <v>10</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15" t="s">
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="36">
         <v>6</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2333,58 +2377,58 @@
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="19" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="35">
         <v>11</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="10" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="36">
         <v>6</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="U13" s="36" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2392,58 +2436,58 @@
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="35">
         <v>12</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15" t="s">
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="36">
         <v>6</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="R14" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="U14" s="16" t="s">
+      <c r="U14" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2451,58 +2495,58 @@
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="35">
         <v>13</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15" t="s">
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="36">
         <v>6</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="R15" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="S15" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="U15" s="16" t="s">
+      <c r="U15" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2510,58 +2554,58 @@
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="35">
         <v>14</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15" t="s">
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="36">
         <v>6</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="S16" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="T16" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="16" t="s">
+      <c r="U16" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2569,58 +2613,58 @@
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="35">
         <v>15</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="36">
         <v>6</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="U17" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2628,58 +2672,58 @@
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="35">
         <v>16</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15" t="s">
+      <c r="M18" s="10"/>
+      <c r="N18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="36">
         <v>6</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2687,940 +2731,971 @@
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="35">
         <v>17</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15" t="s">
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="36">
         <v>6</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="18" t="s">
+      <c r="T19" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="U19" s="16" t="s">
+      <c r="U19" s="36" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>18</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15" t="s">
+      <c r="M20" s="34"/>
+      <c r="N20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="6">
         <v>6</v>
       </c>
-      <c r="R20" s="17" t="s">
+      <c r="R20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="S20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="T20" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="U20" s="16" t="s">
+      <c r="U20" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>19</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15" t="s">
+      <c r="M21" s="34"/>
+      <c r="N21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="6">
         <v>6</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="18" t="s">
+      <c r="T21" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="16" t="s">
+      <c r="U21" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>20</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
+      <c r="M22" s="34"/>
+      <c r="N22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="6">
         <v>6</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="16" t="s">
+      <c r="U22" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>21</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15" t="s">
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="6">
         <v>6</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="S23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="T23" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="U23" s="16" t="s">
+      <c r="U23" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="19" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>22</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15" t="s">
+      <c r="M24" s="34"/>
+      <c r="N24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="P24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="6">
         <v>6</v>
       </c>
-      <c r="R24" s="17" t="s">
+      <c r="R24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="18" t="s">
+      <c r="T24" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="U24" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="19" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>23</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="10" t="s">
+      <c r="N25" s="34"/>
+      <c r="O25" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="6">
         <v>6</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="16" t="s">
+      <c r="S25" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="T25" s="18" t="s">
+      <c r="T25" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="U25" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="19" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>24</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15" t="s">
+      <c r="M26" s="34"/>
+      <c r="N26" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="6">
         <v>6</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="18" t="s">
+      <c r="T26" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="U26" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="19" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="53">
         <v>25</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15" t="s">
+      <c r="M27" s="54"/>
+      <c r="N27" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="55">
         <v>6</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R27" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="18" t="s">
+      <c r="T27" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="U27" s="55" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="19" t="s">
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="53">
         <v>26</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15" t="s">
+      <c r="M28" s="54"/>
+      <c r="N28" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="55">
         <v>6</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R28" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="S28" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="18" t="s">
+      <c r="T28" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="U28" s="16" t="s">
+      <c r="U28" s="55" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="19" t="s">
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="53">
         <v>27</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10" t="s">
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="27"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="53"/>
     </row>
     <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="19" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="53">
         <v>28</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15" t="s">
+      <c r="M30" s="54"/>
+      <c r="N30" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="55">
         <v>6</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R30" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="T30" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="U30" s="55" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="19" t="s">
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="53">
         <v>29</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15" t="s">
+      <c r="M31" s="54"/>
+      <c r="N31" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
+      <c r="O31" s="53"/>
+      <c r="P31" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="55">
         <v>6</v>
       </c>
-      <c r="R31" s="17" t="s">
+      <c r="R31" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="S31" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="U31" s="16" t="s">
+      <c r="U31" s="55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="27"/>
-    </row>
-    <row r="33" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="27"/>
-    </row>
-    <row r="34" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="27"/>
-    </row>
-    <row r="35" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="27"/>
-    </row>
-    <row r="36" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="27"/>
-    </row>
-    <row r="37" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="27"/>
-    </row>
-    <row r="38" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="27"/>
-    </row>
-    <row r="39" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="27"/>
+    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+    </row>
+    <row r="33" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="50"/>
+    </row>
+    <row r="34" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="50"/>
+    </row>
+    <row r="35" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="50"/>
+    </row>
+    <row r="36" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="50"/>
+    </row>
+    <row r="37" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+    </row>
+    <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="50"/>
+    </row>
+    <row r="39" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="50"/>
+    </row>
+    <row r="40" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -3809,6 +3884,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3823,12 +3904,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -455,9 +455,6 @@
     <t>Los triángulos</t>
   </si>
   <si>
-    <t>¿Qué sabes de los triangulos y de los cuadriláteros?</t>
-  </si>
-  <si>
     <t>Identifica elementos de ángulos y triángulos</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t xml:space="preserve">Construye triángulos </t>
   </si>
   <si>
-    <t>La construcción de líneas y puntos notables de un triángulo con regla y compás</t>
-  </si>
-  <si>
     <t>Reconoce las características de la líneas notables de un triángulo</t>
   </si>
   <si>
@@ -491,12 +485,6 @@
     <t xml:space="preserve">Completa la demostración de congruencia de triángulos </t>
   </si>
   <si>
-    <t xml:space="preserve">Ordena los pasos que justifican una demostración congruencia de triángulos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completando afirmaciones y justificaciones en la demostración de congruencia de triángulos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Analiza demostraciones </t>
   </si>
   <si>
@@ -506,15 +494,9 @@
     <t>Refuerza tu aprendizaje: Los triángulos</t>
   </si>
   <si>
-    <t>Identifica propiedades de los cuadrilateros</t>
-  </si>
-  <si>
     <t>Relaciona cuadriláteros con sus definiciones</t>
   </si>
   <si>
-    <t>Clasificando cuadriláteros</t>
-  </si>
-  <si>
     <t>Determina el valor de verdad de una afirmación</t>
   </si>
   <si>
@@ -527,82 +509,28 @@
     <t>Refuerza tu aprendizaje: Los cuadriláteros</t>
   </si>
   <si>
-    <t>Competencias: el plegado de papel en la construcción de líneas notables de un triángulo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Competencias: demuestra propiedades de los cuadriláteros </t>
   </si>
   <si>
-    <t>Recurso que permite indagar por saberes previos sobre los triángulos y cuadriláteros</t>
-  </si>
-  <si>
     <t>Actividad que permite identificar los elementos de un triángulo</t>
   </si>
   <si>
-    <t>Actividad que permite a partir del uso de las propiedades determinar  ángulos internos en un tríangulo</t>
-  </si>
-  <si>
     <t>Actividad para determinar la medida de los ángulos externos de un triángulo</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para analizar y clasificar triángulos a partir de la propiedad de desigualdad triangular </t>
-  </si>
-  <si>
-    <t>Recurso para abordar la construcción con regla y compás de triángulos</t>
-  </si>
-  <si>
     <t>Actividad para afianzar la construcción de triángulos con regla y compás</t>
   </si>
   <si>
-    <t>Recurso para abordar la construcción con regla y compás de las líneas y puntos notables en un triángulo</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar las características de las líneas y puntos notables en un triángulo</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer entre parejas de triángulos elementos correspondientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurso para identificar los criterios de congruencia en parejas de triángulos </t>
-  </si>
-  <si>
-    <t>Actividad para asociar justificaciones en la demostración de congruencia de triángulos</t>
-  </si>
-  <si>
-    <t>Actividad para asociar afirmaciones en la demostración de congruencia de triángulos</t>
-  </si>
-  <si>
-    <t>Actividad para asociar afirmaciones y justificaciones en la demostración de congruencia de triángulos</t>
-  </si>
-  <si>
     <t>Actividad para validar tesis a partir de hipótesis dadas</t>
   </si>
   <si>
-    <t>Actividad para determinar el triángulo congruente a un triángulo rectángulo dado</t>
-  </si>
-  <si>
     <t>Actividades sobre Los triángulos</t>
   </si>
   <si>
-    <t>Actividad para identificar palabras clave en conceptos propios de los cuadriláteros</t>
-  </si>
-  <si>
     <t>Actividad para asociar cuadriláteros y sus definiciones</t>
   </si>
   <si>
-    <t>Actividad para clasificar cuadriláteros en paralelogramos, trapecios y trapezoides</t>
-  </si>
-  <si>
-    <t>Actividad para poner en práctica los conceptos sobre cuadriláteros y determinar el valor de verdad de una afirmación</t>
-  </si>
-  <si>
     <t>Actividad para afianzar las propiedades de los cuadriláteros</t>
-  </si>
-  <si>
-    <t>Recurso para abordar la construcción con regla y compás de cuadriláteros</t>
-  </si>
-  <si>
-    <t>Mapa conceptual sobre el tema Los trángulos y los cuadriláteros</t>
   </si>
   <si>
     <t>Evalúa tus conocimientos sobre el tema Los triángulos y los cuadriláteros</t>
@@ -697,9 +625,6 @@
     <t>Actividad para determinar la líneas notables de un triángulo a partir del plegado de papel</t>
   </si>
   <si>
-    <t>Actividad mediante la cual se demuestran las propiedades de los cuadriláteros a partir del trabajo con papel</t>
-  </si>
-  <si>
     <t>Actividades sobre Los cuadriláteros</t>
   </si>
   <si>
@@ -783,13 +708,88 @@
   </si>
   <si>
     <t>Josué</t>
+  </si>
+  <si>
+    <t>¿Qué sabes de los triángulos y de los cuadriláteros?</t>
+  </si>
+  <si>
+    <t>Interactivo que permite indagar por saberes previos sobre los triángulos y cuadriláteros</t>
+  </si>
+  <si>
+    <t>Actividad que permite determinar ángulos internos en un triángulo</t>
+  </si>
+  <si>
+    <t>Actividad para analizar y clasificar triángulos</t>
+  </si>
+  <si>
+    <t>Interactivo para abordar la construcción con regla y compás de triángulos</t>
+  </si>
+  <si>
+    <t>La construcción de líneas y puntos notables de un triángulo</t>
+  </si>
+  <si>
+    <t>Interactivo para estudiar la construcción de las líneas y puntos notables en un triángulo</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las características de las líneas y puntos notables en un triángulo</t>
+  </si>
+  <si>
+    <t>Actividad para identificar elementos congruentes</t>
+  </si>
+  <si>
+    <t>Interactivo para identificar los criterios de congruencia en triángulos</t>
+  </si>
+  <si>
+    <t>Actividad para asociar justificaciones en la demostración de congruencia</t>
+  </si>
+  <si>
+    <t>Ordena la demostración de congruencia</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar la demostración de congruencia</t>
+  </si>
+  <si>
+    <t>Completando la demostración de congruencia</t>
+  </si>
+  <si>
+    <t>Actividad para completar la demostración de congruencia</t>
+  </si>
+  <si>
+    <t>Actividad para asociar parejas de triángulos rectángulos congruentes</t>
+  </si>
+  <si>
+    <t>Identifica propiedades de los cuadriláteros</t>
+  </si>
+  <si>
+    <t>Actividad para identificar propiedades de los cuadriláteros</t>
+  </si>
+  <si>
+    <t>Clasifica cuadriláteros</t>
+  </si>
+  <si>
+    <t>Actividad para clasificar cuadriláteros</t>
+  </si>
+  <si>
+    <t>Actividad para practicar los conceptos sobre cuadriláteros</t>
+  </si>
+  <si>
+    <t>Interactivo abordar la construcción con regla y compás de cuadriláteros</t>
+  </si>
+  <si>
+    <t>Competencias: la construcción de líneas notables de un triángulo</t>
+  </si>
+  <si>
+    <t>Actividad parar demostrar las propiedades de los cuadriláteros a partir del trabajo con papel</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre el tema Los triángulos y los cuadriláteros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +821,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1011,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1037,72 +1053,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1135,81 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,9 +1517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="A9:U9"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1505,18 +1530,18 @@
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="82.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="53" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="3" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="12" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
     <col min="21" max="21" width="15.5703125" style="3" customWidth="1"/>
@@ -1524,94 +1549,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="30"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1623,22 +1648,22 @@
       <c r="C3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="35">
+        <v>227</v>
+      </c>
+      <c r="H3" s="13">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>20</v>
@@ -1650,26 +1675,26 @@
         <v>53</v>
       </c>
       <c r="N3" s="10"/>
-      <c r="O3" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="14">
         <v>6</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>227</v>
+      <c r="T3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1682,22 +1707,22 @@
       <c r="C4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="35">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="13">
         <v>2</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>170</v>
+      <c r="J4" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>20</v>
@@ -1709,26 +1734,26 @@
       <c r="N4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="14">
         <v>6</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T4" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="36" t="s">
-        <v>228</v>
+      <c r="U4" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1741,22 +1766,22 @@
       <c r="C5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="35">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="13">
         <v>3</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>171</v>
+      <c r="J5" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>20</v>
@@ -1768,26 +1793,26 @@
       <c r="N5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="P5" s="35" t="s">
+      <c r="O5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="14">
         <v>6</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>228</v>
+      <c r="T5" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,22 +1825,22 @@
       <c r="C6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="13">
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="35" t="s">
-        <v>172</v>
+      <c r="J6" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -1827,26 +1852,26 @@
       <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="P6" s="35" t="s">
+      <c r="O6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="14">
         <v>6</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="36" t="s">
-        <v>228</v>
+      <c r="U6" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,24 +1884,24 @@
       <c r="C7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="35">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="13">
         <v>5</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="60" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -1884,29 +1909,29 @@
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="35" t="s">
+      <c r="O7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="16">
         <v>9</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="T7" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>250</v>
+      <c r="S7" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,22 +1944,22 @@
       <c r="C8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="35">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="13">
         <v>6</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>174</v>
+      <c r="J8" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>20</v>
@@ -1946,85 +1971,85 @@
         <v>54</v>
       </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="P8" s="35" t="s">
+      <c r="O8" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="14">
         <v>6</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="36" t="s">
-        <v>227</v>
+      <c r="U8" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="43">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="21">
         <v>7</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="J9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" s="43" t="s">
+      <c r="O9" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="36">
         <v>6</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="58" t="s">
-        <v>228</v>
+      <c r="U9" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -2206,22 +2231,22 @@
       <c r="C10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="35">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="13">
         <v>8</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>176</v>
+      <c r="J10" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>20</v>
@@ -2233,26 +2258,26 @@
         <v>117</v>
       </c>
       <c r="N10" s="10"/>
-      <c r="O10" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="P10" s="35" t="s">
+      <c r="O10" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="14">
         <v>6</v>
       </c>
-      <c r="R10" s="36" t="s">
+      <c r="R10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="T10" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>234</v>
+      <c r="S10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,22 +2290,22 @@
       <c r="C11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="35">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="13">
         <v>9</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>177</v>
+      <c r="J11" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>20</v>
@@ -2292,26 +2317,26 @@
       <c r="N11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="P11" s="35" t="s">
+      <c r="O11" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="14">
         <v>6</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="R11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="36" t="s">
+      <c r="S11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>228</v>
+      <c r="T11" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2324,22 +2349,22 @@
       <c r="C12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="13">
         <v>10</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>178</v>
+      <c r="J12" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>20</v>
@@ -2351,26 +2376,26 @@
       <c r="N12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="P12" s="35" t="s">
+      <c r="O12" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="14">
         <v>6</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="37" t="s">
+      <c r="T12" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="36" t="s">
-        <v>228</v>
+      <c r="U12" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2383,22 +2408,22 @@
       <c r="C13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="35">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="13">
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>179</v>
+      <c r="J13" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>20</v>
@@ -2410,26 +2435,26 @@
         <v>117</v>
       </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="P13" s="35" t="s">
+      <c r="O13" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="14">
         <v>6</v>
       </c>
-      <c r="R13" s="36" t="s">
+      <c r="R13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="T13" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>234</v>
+      <c r="S13" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2442,22 +2467,22 @@
       <c r="C14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="35">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="13">
         <v>12</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>180</v>
+      <c r="J14" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>20</v>
@@ -2469,26 +2494,26 @@
       <c r="N14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="P14" s="35" t="s">
+      <c r="O14" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="14">
         <v>6</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>228</v>
+      <c r="T14" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2501,22 +2526,22 @@
       <c r="C15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="13">
         <v>13</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>181</v>
+      <c r="J15" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2528,26 +2553,26 @@
       <c r="N15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="P15" s="35" t="s">
+      <c r="O15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="14">
         <v>6</v>
       </c>
-      <c r="R15" s="36" t="s">
+      <c r="R15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="U15" s="36" t="s">
-        <v>228</v>
+      <c r="T15" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2560,22 +2585,22 @@
       <c r="C16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="35">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="13">
         <v>14</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="35" t="s">
-        <v>182</v>
+      <c r="J16" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -2587,26 +2612,26 @@
       <c r="N16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16" s="35" t="s">
+      <c r="O16" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="14">
         <v>6</v>
       </c>
-      <c r="R16" s="36" t="s">
+      <c r="R16" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="36" t="s">
+      <c r="S16" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="37" t="s">
+      <c r="T16" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="36" t="s">
-        <v>228</v>
+      <c r="U16" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,38 +2644,38 @@
       <c r="C17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="35">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="21">
         <v>15</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="P17" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="P17" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="Q17" s="36">
         <v>6</v>
@@ -2665,7 +2690,7 @@
         <v>125</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,22 +2703,22 @@
       <c r="C18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="35">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="13">
         <v>16</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="35" t="s">
-        <v>184</v>
+      <c r="J18" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>20</v>
@@ -2705,26 +2730,26 @@
       <c r="N18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="P18" s="35" t="s">
+      <c r="O18" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="14">
         <v>6</v>
       </c>
-      <c r="R18" s="36" t="s">
+      <c r="R18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="U18" s="36" t="s">
-        <v>228</v>
+      <c r="T18" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,24 +2762,24 @@
       <c r="C19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="13">
         <v>17</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="35" t="s">
-        <v>185</v>
+      <c r="J19" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>20</v>
@@ -2766,67 +2791,67 @@
       <c r="N19" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="P19" s="35" t="s">
+      <c r="O19" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="14">
         <v>6</v>
       </c>
-      <c r="R19" s="36" t="s">
+      <c r="R19" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="36" t="s">
+      <c r="S19" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="U19" s="36" t="s">
-        <v>228</v>
+      <c r="T19" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2840,52 +2865,52 @@
       <c r="S20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="40" t="s">
-        <v>238</v>
+      <c r="T20" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2899,52 +2924,52 @@
       <c r="S21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="40" t="s">
+      <c r="T21" s="18" t="s">
         <v>133</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2958,52 +2983,52 @@
       <c r="S22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="40" t="s">
-        <v>229</v>
+      <c r="T22" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -3017,52 +3042,52 @@
       <c r="S23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="40" t="s">
-        <v>242</v>
+      <c r="T23" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -3076,52 +3101,52 @@
       <c r="S24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="40" t="s">
-        <v>230</v>
+      <c r="T24" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -3133,56 +3158,56 @@
         <v>123</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="T25" s="40" t="s">
-        <v>236</v>
+        <v>207</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3196,506 +3221,506 @@
       <c r="S26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="T26" s="18" t="s">
         <v>136</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" s="53">
+      <c r="D27" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27" s="31">
         <v>25</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>6</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="U27" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="31">
+        <v>26</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>6</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="U28" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="31">
+        <v>27</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="31">
+        <v>28</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="33">
+        <v>6</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="U30" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="K27" s="54" t="s">
+      <c r="H31" s="31">
+        <v>29</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="54" t="s">
+      <c r="J31" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="P27" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="55">
+      <c r="M31" s="32"/>
+      <c r="N31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="33">
         <v>6</v>
       </c>
-      <c r="R27" s="55" t="s">
+      <c r="R31" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="55" t="s">
+      <c r="S31" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="U27" s="55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="53">
-        <v>26</v>
-      </c>
-      <c r="I28" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="K28" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="P28" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="55">
-        <v>6</v>
-      </c>
-      <c r="R28" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="S28" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="T28" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="U28" s="55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="53">
-        <v>27</v>
-      </c>
-      <c r="I29" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="K29" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="53"/>
-    </row>
-    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="53">
-        <v>28</v>
-      </c>
-      <c r="I30" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="P30" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="55">
-        <v>6</v>
-      </c>
-      <c r="R30" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="S30" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="T30" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="U30" s="55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" s="53">
-        <v>29</v>
-      </c>
-      <c r="I31" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="K31" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="55">
-        <v>6</v>
-      </c>
-      <c r="R31" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="T31" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="U31" s="55" t="s">
-        <v>228</v>
+      <c r="T31" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="U31" s="33" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
     </row>
     <row r="33" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="50"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="28"/>
     </row>
     <row r="34" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="50"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="28"/>
     </row>
     <row r="35" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="50"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="28"/>
     </row>
     <row r="36" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="50"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="28"/>
     </row>
     <row r="37" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="28"/>
     </row>
     <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="50"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="28"/>
     </row>
     <row r="39" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="50"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="28"/>
     </row>
     <row r="40" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -3884,12 +3909,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3904,6 +3923,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -455,9 +455,6 @@
     <t>Los triángulos</t>
   </si>
   <si>
-    <t>Identifica elementos de ángulos y triángulos</t>
-  </si>
-  <si>
     <t>Reconoce propiedades de los triángulos</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Mapa conceptual sobre el tema Los triángulos y los cuadriláteros</t>
+  </si>
+  <si>
+    <t>Identifica elementos de los y triángulos</t>
   </si>
 </sst>
 </file>
@@ -1136,20 +1136,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1161,6 +1155,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,14 +1202,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,9 +1517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1564,16 +1564,16 @@
       <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
       <c r="J1" s="55" t="s">
@@ -1589,25 +1589,25 @@
         <v>21</v>
       </c>
       <c r="N1" s="57"/>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1617,10 +1617,10 @@
       <c r="C2" s="59"/>
       <c r="D2" s="50"/>
       <c r="E2" s="48"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="52"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="56"/>
       <c r="K2" s="54"/>
       <c r="L2" s="52"/>
@@ -1630,13 +1630,13 @@
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1654,7 +1654,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>20</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -1691,10 +1691,10 @@
         <v>131</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,7 +1713,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>20</v>
@@ -1735,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -1753,7 +1753,7 @@
         <v>134</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
@@ -1781,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>20</v>
@@ -1794,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
@@ -1809,10 +1809,10 @@
         <v>124</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="13">
         <v>4</v>
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -1853,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
@@ -1871,7 +1871,7 @@
         <v>135</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,8 +1889,8 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="61" t="s">
-        <v>146</v>
+      <c r="G7" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="H7" s="13">
         <v>5</v>
@@ -1899,9 +1899,9 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -1910,7 +1910,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
@@ -1922,16 +1922,16 @@
         <v>128</v>
       </c>
       <c r="S7" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="T7" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="U7" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
@@ -1959,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>20</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -1990,7 +1990,7 @@
         <v>132</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,7 +2009,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -2018,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>20</v>
@@ -2031,7 +2031,7 @@
         <v>120</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>20</v>
@@ -2049,7 +2049,7 @@
         <v>125</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -2237,7 +2237,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="13">
         <v>8</v>
@@ -2246,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>20</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>123</v>
       </c>
       <c r="S10" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="U10" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2296,7 +2296,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="13">
         <v>9</v>
@@ -2305,7 +2305,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>20</v>
@@ -2317,8 +2317,8 @@
       <c r="N11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="62" t="s">
-        <v>221</v>
+      <c r="O11" s="40" t="s">
+        <v>220</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>19</v>
@@ -2333,10 +2333,10 @@
         <v>124</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" s="13">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>20</v>
@@ -2377,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>19</v>
@@ -2395,7 +2395,7 @@
         <v>126</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13" s="13">
         <v>11</v>
@@ -2423,7 +2423,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>20</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>19</v>
@@ -2448,13 +2448,13 @@
         <v>123</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2473,7 +2473,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H14" s="13">
         <v>12</v>
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>20</v>
@@ -2495,7 +2495,7 @@
         <v>42</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>19</v>
@@ -2510,10 +2510,10 @@
         <v>124</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
@@ -2541,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2554,7 +2554,7 @@
         <v>48</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>19</v>
@@ -2569,10 +2569,10 @@
         <v>124</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H16" s="13">
         <v>14</v>
@@ -2600,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -2613,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>19</v>
@@ -2631,7 +2631,7 @@
         <v>138</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,7 +2650,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
@@ -2659,7 +2659,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>20</v>
@@ -2672,7 +2672,7 @@
         <v>120</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>20</v>
@@ -2690,7 +2690,7 @@
         <v>125</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
@@ -2718,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>20</v>
@@ -2731,7 +2731,7 @@
         <v>39</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>19</v>
@@ -2746,10 +2746,10 @@
         <v>124</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="13">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>20</v>
@@ -2792,7 +2792,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>19</v>
@@ -2807,10 +2807,10 @@
         <v>124</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2824,12 +2824,12 @@
         <v>141</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2838,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>20</v>
@@ -2851,7 +2851,7 @@
         <v>27</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2866,10 +2866,10 @@
         <v>124</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,12 +2883,12 @@
         <v>141</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2897,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>20</v>
@@ -2910,7 +2910,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2928,7 +2928,7 @@
         <v>133</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2942,12 +2942,12 @@
         <v>141</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2956,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>20</v>
@@ -2969,7 +2969,7 @@
         <v>29</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2984,10 +2984,10 @@
         <v>124</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,12 +3001,12 @@
         <v>141</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -3015,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>20</v>
@@ -3028,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -3043,10 +3043,10 @@
         <v>124</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3060,12 +3060,12 @@
         <v>141</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>20</v>
@@ -3087,7 +3087,7 @@
         <v>29</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -3102,10 +3102,10 @@
         <v>124</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,12 +3119,12 @@
         <v>141</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3133,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>20</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -3158,13 +3158,13 @@
         <v>123</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3178,14 +3178,14 @@
         <v>141</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3194,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         <v>121</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3225,7 +3225,7 @@
         <v>136</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3239,12 +3239,12 @@
         <v>141</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H27" s="31">
         <v>25</v>
@@ -3253,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>20</v>
@@ -3266,7 +3266,7 @@
         <v>120</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>19</v>
@@ -3281,10 +3281,10 @@
         <v>124</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U27" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,12 +3298,12 @@
         <v>141</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="31">
         <v>26</v>
@@ -3312,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>20</v>
@@ -3325,7 +3325,7 @@
         <v>120</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>19</v>
@@ -3340,10 +3340,10 @@
         <v>124</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U28" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3371,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>20</v>
@@ -3416,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         <v>137</v>
       </c>
       <c r="U30" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3461,12 +3461,12 @@
         <v>141</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H31" s="31">
         <v>29</v>
@@ -3475,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>20</v>
@@ -3501,10 +3501,10 @@
         <v>124</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U31" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,6 +3909,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3923,12 +3929,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -497,9 +497,6 @@
     <t>Determina el valor de verdad de una afirmación</t>
   </si>
   <si>
-    <t>Halla medidas en cuadriláteros</t>
-  </si>
-  <si>
     <t>La construcción de cuadriláteros con regla y compás</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>Actividad para practicar los conceptos sobre cuadriláteros</t>
   </si>
   <si>
-    <t>Interactivo abordar la construcción con regla y compás de cuadriláteros</t>
-  </si>
-  <si>
     <t>Competencias: la construcción de líneas notables de un triángulo</t>
   </si>
   <si>
@@ -783,6 +777,12 @@
   </si>
   <si>
     <t>Identifica elementos de los y triángulos</t>
+  </si>
+  <si>
+    <t>Halla medidas en los cuadriláteros</t>
+  </si>
+  <si>
+    <t>Interactivo para abordar la construcción de cuadriláteros con regla y compás</t>
   </si>
 </sst>
 </file>
@@ -1145,6 +1145,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1155,12 +1170,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,15 +1209,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,9 +1517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1549,94 +1549,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1654,7 +1654,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>20</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -1691,10 +1691,10 @@
         <v>131</v>
       </c>
       <c r="T3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,7 +1713,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>20</v>
@@ -1735,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -1753,7 +1753,7 @@
         <v>134</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>20</v>
@@ -1794,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
@@ -1809,10 +1809,10 @@
         <v>124</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -1853,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
@@ -1871,7 +1871,7 @@
         <v>135</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K7" s="38" t="s">
         <v>19</v>
@@ -1910,7 +1910,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
@@ -1922,16 +1922,16 @@
         <v>128</v>
       </c>
       <c r="S7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="T7" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="U7" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>20</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -1990,7 +1990,7 @@
         <v>132</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>20</v>
@@ -2031,7 +2031,7 @@
         <v>120</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>20</v>
@@ -2049,7 +2049,7 @@
         <v>125</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -2237,7 +2237,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="13">
         <v>8</v>
@@ -2246,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>20</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>123</v>
       </c>
       <c r="S10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="T10" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="U10" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>20</v>
@@ -2318,7 +2318,7 @@
         <v>27</v>
       </c>
       <c r="O11" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>19</v>
@@ -2333,10 +2333,10 @@
         <v>124</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>20</v>
@@ -2377,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>19</v>
@@ -2395,7 +2395,7 @@
         <v>126</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,7 +2423,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>20</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>19</v>
@@ -2448,13 +2448,13 @@
         <v>123</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>20</v>
@@ -2495,7 +2495,7 @@
         <v>42</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>19</v>
@@ -2510,10 +2510,10 @@
         <v>124</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
@@ -2541,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2554,7 +2554,7 @@
         <v>48</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>19</v>
@@ -2569,10 +2569,10 @@
         <v>124</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H16" s="13">
         <v>14</v>
@@ -2600,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -2613,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>19</v>
@@ -2631,7 +2631,7 @@
         <v>138</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>20</v>
@@ -2672,7 +2672,7 @@
         <v>120</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>20</v>
@@ -2690,7 +2690,7 @@
         <v>125</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>20</v>
@@ -2731,7 +2731,7 @@
         <v>39</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>19</v>
@@ -2746,10 +2746,10 @@
         <v>124</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>20</v>
@@ -2792,7 +2792,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>19</v>
@@ -2807,10 +2807,10 @@
         <v>124</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2824,12 +2824,12 @@
         <v>141</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2838,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>20</v>
@@ -2851,7 +2851,7 @@
         <v>27</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2866,10 +2866,10 @@
         <v>124</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,7 +2883,7 @@
         <v>141</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2897,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>20</v>
@@ -2910,7 +2910,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2928,7 +2928,7 @@
         <v>133</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2942,12 +2942,12 @@
         <v>141</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2956,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>20</v>
@@ -2969,7 +2969,7 @@
         <v>29</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2984,10 +2984,10 @@
         <v>124</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,7 +3001,7 @@
         <v>141</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -3015,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>20</v>
@@ -3028,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -3043,10 +3043,10 @@
         <v>124</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3060,12 +3060,12 @@
         <v>141</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>20</v>
@@ -3087,7 +3087,7 @@
         <v>29</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -3102,10 +3102,10 @@
         <v>124</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,12 +3119,12 @@
         <v>141</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3133,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>20</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -3158,13 +3158,13 @@
         <v>123</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3178,14 +3178,14 @@
         <v>141</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3194,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         <v>121</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3225,7 +3225,7 @@
         <v>136</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3239,12 +3239,12 @@
         <v>141</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H27" s="31">
         <v>25</v>
@@ -3253,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>20</v>
@@ -3266,7 +3266,7 @@
         <v>120</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>19</v>
@@ -3281,10 +3281,10 @@
         <v>124</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U27" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,12 +3298,12 @@
         <v>141</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H28" s="31">
         <v>26</v>
@@ -3312,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>20</v>
@@ -3325,7 +3325,7 @@
         <v>120</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>19</v>
@@ -3340,10 +3340,10 @@
         <v>124</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U28" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3371,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>20</v>
@@ -3416,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         <v>137</v>
       </c>
       <c r="U30" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3461,12 +3461,12 @@
         <v>141</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" s="31">
         <v>29</v>
@@ -3475,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>20</v>
@@ -3501,10 +3501,10 @@
         <v>124</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U31" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,12 +3909,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3929,6 +3923,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="256">
   <si>
     <t>Asignatura</t>
   </si>
@@ -783,6 +783,18 @@
   </si>
   <si>
     <t>Interactivo para abordar la construcción de cuadriláteros con regla y compás</t>
+  </si>
+  <si>
+    <t>Jeimmy</t>
+  </si>
+  <si>
+    <t>Diana Suárez</t>
+  </si>
+  <si>
+    <t>Adriana Lasprilla</t>
+  </si>
+  <si>
+    <t>Johanna Vera</t>
   </si>
 </sst>
 </file>
@@ -1145,21 +1157,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,6 +1167,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,6 +1212,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,9 +1529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1549,94 +1561,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1696,6 +1708,9 @@
       <c r="U3" s="14" t="s">
         <v>200</v>
       </c>
+      <c r="V3" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1755,6 +1770,9 @@
       <c r="U4" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V4" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1814,6 +1832,9 @@
       <c r="U5" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V5" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1873,6 +1894,9 @@
       <c r="U6" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V6" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1992,6 +2016,9 @@
       <c r="U8" s="14" t="s">
         <v>200</v>
       </c>
+      <c r="V8" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
@@ -2051,7 +2078,9 @@
       <c r="U9" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="V9" s="7"/>
+      <c r="V9" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -2279,6 +2308,9 @@
       <c r="U10" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="V10" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2338,6 +2370,9 @@
       <c r="U11" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V11" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2397,6 +2432,9 @@
       <c r="U12" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V12" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -2456,6 +2494,9 @@
       <c r="U13" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="V13" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -2515,6 +2556,9 @@
       <c r="U14" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V14" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -2574,6 +2618,9 @@
       <c r="U15" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V15" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -2633,8 +2680,11 @@
       <c r="U16" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2692,8 +2742,11 @@
       <c r="U17" s="36" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2751,8 +2804,11 @@
       <c r="U18" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -2812,8 +2868,11 @@
       <c r="U19" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -2871,8 +2930,11 @@
       <c r="U20" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -2930,8 +2992,11 @@
       <c r="U21" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2989,8 +3054,11 @@
       <c r="U22" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
@@ -3048,8 +3116,11 @@
       <c r="U23" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -3107,8 +3178,11 @@
       <c r="U24" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -3166,8 +3240,11 @@
       <c r="U25" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
@@ -3227,8 +3304,11 @@
       <c r="U26" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>15</v>
       </c>
@@ -3286,8 +3366,11 @@
       <c r="U27" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
@@ -3345,8 +3428,11 @@
       <c r="U28" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>15</v>
       </c>
@@ -3391,7 +3477,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="31"/>
     </row>
-    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>15</v>
       </c>
@@ -3449,8 +3535,11 @@
       <c r="U30" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>15</v>
       </c>
@@ -3506,8 +3595,11 @@
       <c r="U31" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V31" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3909,6 +4001,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3923,12 +4021,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="257">
   <si>
     <t>Asignatura</t>
   </si>
@@ -794,7 +794,10 @@
     <t>Adriana Lasprilla</t>
   </si>
   <si>
-    <t>Johanna Vera</t>
+    <t>Julián Martínez</t>
+  </si>
+  <si>
+    <t>Julián Martíne</t>
   </si>
 </sst>
 </file>
@@ -1157,6 +1160,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1167,12 +1185,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,15 +1224,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,9 +1532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1561,94 +1564,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2495,7 +2498,7 @@
         <v>207</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3241,7 +3244,7 @@
         <v>207</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,12 +4004,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4021,6 +4018,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="256">
   <si>
     <t>Asignatura</t>
   </si>
@@ -783,6 +783,18 @@
   </si>
   <si>
     <t>Interactivo para abordar la construcción de cuadriláteros con regla y compás</t>
+  </si>
+  <si>
+    <t>Jeimmy</t>
+  </si>
+  <si>
+    <t>entrega 17 de febrero</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Adriana</t>
   </si>
 </sst>
 </file>
@@ -1145,21 +1157,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,6 +1167,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,6 +1212,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,9 +1529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1549,94 +1561,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1696,6 +1711,9 @@
       <c r="U3" s="14" t="s">
         <v>200</v>
       </c>
+      <c r="V3" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1755,6 +1773,9 @@
       <c r="U4" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V4" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1814,6 +1835,9 @@
       <c r="U5" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V5" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1873,6 +1897,9 @@
       <c r="U6" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V6" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1992,6 +2019,9 @@
       <c r="U8" s="14" t="s">
         <v>200</v>
       </c>
+      <c r="V8" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
@@ -2051,7 +2081,9 @@
       <c r="U9" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="V9" s="7"/>
+      <c r="V9" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -2338,6 +2370,9 @@
       <c r="U11" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V11" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2397,6 +2432,9 @@
       <c r="U12" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V12" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -2515,6 +2553,9 @@
       <c r="U14" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V14" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -2574,6 +2615,9 @@
       <c r="U15" s="14" t="s">
         <v>201</v>
       </c>
+      <c r="V15" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -2633,8 +2677,11 @@
       <c r="U16" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2692,8 +2739,11 @@
       <c r="U17" s="36" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2751,8 +2801,11 @@
       <c r="U18" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -2812,8 +2865,11 @@
       <c r="U19" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -2871,8 +2927,11 @@
       <c r="U20" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -2930,8 +2989,11 @@
       <c r="U21" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2989,8 +3051,11 @@
       <c r="U22" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
@@ -3048,8 +3113,11 @@
       <c r="U23" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -3107,8 +3175,11 @@
       <c r="U24" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3238,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
@@ -3227,8 +3298,11 @@
       <c r="U26" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>15</v>
       </c>
@@ -3286,8 +3360,11 @@
       <c r="U27" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
@@ -3345,8 +3422,11 @@
       <c r="U28" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>15</v>
       </c>
@@ -3391,7 +3471,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="31"/>
     </row>
-    <row r="30" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>15</v>
       </c>
@@ -3449,8 +3529,11 @@
       <c r="U30" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>15</v>
       </c>
@@ -3506,8 +3589,11 @@
       <c r="U31" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V31" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3909,6 +3995,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3923,12 +4015,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="259">
   <si>
     <t>Asignatura</t>
   </si>
@@ -798,6 +798,12 @@
   </si>
   <si>
     <t>Julián Martíne</t>
+  </si>
+  <si>
+    <t>Revisar solicitud gráfica e icono de recurso</t>
+  </si>
+  <si>
+    <t>Revisar soicitud gráfica</t>
   </si>
 </sst>
 </file>
@@ -1160,21 +1166,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1185,6 +1176,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,6 +1221,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1532,9 +1538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1564,94 +1570,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1776,6 +1782,9 @@
       <c r="V4" s="3" t="s">
         <v>252</v>
       </c>
+      <c r="W4" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1899,6 +1908,9 @@
       </c>
       <c r="V6" s="3" t="s">
         <v>252</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4004,6 +4016,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4018,12 +4036,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="264">
   <si>
     <t>Asignatura</t>
   </si>
@@ -800,10 +800,25 @@
     <t>Julián Martíne</t>
   </si>
   <si>
-    <t>Revisar solicitud gráfica e icono de recurso</t>
-  </si>
-  <si>
-    <t>Revisar soicitud gráfica</t>
+    <t>Autor-editor</t>
+  </si>
+  <si>
+    <t>Corrección de estilo</t>
+  </si>
+  <si>
+    <t>Imágenes</t>
+  </si>
+  <si>
+    <t>Duda sobre si se puede debido al tamaño</t>
+  </si>
+  <si>
+    <t>En proceso 3</t>
+  </si>
+  <si>
+    <t>No necesita</t>
+  </si>
+  <si>
+    <t>Listos 4</t>
   </si>
 </sst>
 </file>
@@ -863,7 +878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,8 +957,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1008,19 +1047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1044,20 +1070,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1073,9 +1229,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1094,13 +1247,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,7 +1265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,9 +1301,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1160,76 +1310,247 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,9 +1859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1550,2284 +1871,2362 @@
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8" style="7" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8" style="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
     <col min="10" max="10" width="53" style="3" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="11" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="6" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
     <col min="21" max="21" width="15.5703125" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="3"/>
+    <col min="22" max="22" width="14.85546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="111" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="4" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="50">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="52">
         <v>6</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="67" t="s">
         <v>254</v>
       </c>
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="42">
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="44">
         <v>6</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>257</v>
+      <c r="W4" s="63"/>
+      <c r="X4" s="69">
+        <v>42416</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="42">
         <v>3</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="43"/>
+      <c r="N5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="44">
         <v>6</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="64" t="s">
         <v>253</v>
       </c>
+      <c r="W5" s="33"/>
+      <c r="X5" s="69">
+        <v>42416</v>
+      </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="42">
         <v>4</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="43"/>
+      <c r="N6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="44">
         <v>6</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>258</v>
+      <c r="W6" s="33"/>
+      <c r="X6" s="69">
+        <v>42416</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="39" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <v>9</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="65" t="s">
         <v>224</v>
       </c>
+      <c r="W7" s="63"/>
+      <c r="X7" s="70"/>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="13" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="12">
         <v>6</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="63" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="9" spans="1:190" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="W8" s="63"/>
+      <c r="X8" s="70"/>
+    </row>
+    <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>7</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22" t="s">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="33">
         <v>6</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="36" t="s">
+      <c r="U9" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
-      <c r="BP9" s="7"/>
-      <c r="BQ9" s="7"/>
-      <c r="BR9" s="7"/>
-      <c r="BS9" s="7"/>
-      <c r="BT9" s="7"/>
-      <c r="BU9" s="7"/>
-      <c r="BV9" s="7"/>
-      <c r="BW9" s="7"/>
-      <c r="BX9" s="7"/>
-      <c r="BY9" s="7"/>
-      <c r="BZ9" s="7"/>
-      <c r="CA9" s="7"/>
-      <c r="CB9" s="7"/>
-      <c r="CC9" s="7"/>
-      <c r="CD9" s="7"/>
-      <c r="CE9" s="7"/>
-      <c r="CF9" s="7"/>
-      <c r="CG9" s="7"/>
-      <c r="CH9" s="7"/>
-      <c r="CI9" s="7"/>
-      <c r="CJ9" s="7"/>
-      <c r="CK9" s="7"/>
-      <c r="CL9" s="7"/>
-      <c r="CM9" s="7"/>
-      <c r="CN9" s="7"/>
-      <c r="CO9" s="7"/>
-      <c r="CP9" s="7"/>
-      <c r="CQ9" s="7"/>
-      <c r="CR9" s="7"/>
-      <c r="CS9" s="7"/>
-      <c r="CT9" s="7"/>
-      <c r="CU9" s="7"/>
-      <c r="CV9" s="7"/>
-      <c r="CW9" s="7"/>
-      <c r="CX9" s="7"/>
-      <c r="CY9" s="7"/>
-      <c r="CZ9" s="7"/>
-      <c r="DA9" s="7"/>
-      <c r="DB9" s="7"/>
-      <c r="DC9" s="7"/>
-      <c r="DD9" s="7"/>
-      <c r="DE9" s="7"/>
-      <c r="DF9" s="7"/>
-      <c r="DG9" s="7"/>
-      <c r="DH9" s="7"/>
-      <c r="DI9" s="7"/>
-      <c r="DJ9" s="7"/>
-      <c r="DK9" s="7"/>
-      <c r="DL9" s="7"/>
-      <c r="DM9" s="7"/>
-      <c r="DN9" s="7"/>
-      <c r="DO9" s="7"/>
-      <c r="DP9" s="7"/>
-      <c r="DQ9" s="7"/>
-      <c r="DR9" s="7"/>
-      <c r="DS9" s="7"/>
-      <c r="DT9" s="7"/>
-      <c r="DU9" s="7"/>
-      <c r="DV9" s="7"/>
-      <c r="DW9" s="7"/>
-      <c r="DX9" s="7"/>
-      <c r="DY9" s="7"/>
-      <c r="DZ9" s="7"/>
-      <c r="EA9" s="7"/>
-      <c r="EB9" s="7"/>
-      <c r="EC9" s="7"/>
-      <c r="ED9" s="7"/>
-      <c r="EE9" s="7"/>
-      <c r="EF9" s="7"/>
-      <c r="EG9" s="7"/>
-      <c r="EH9" s="7"/>
-      <c r="EI9" s="7"/>
-      <c r="EJ9" s="7"/>
-      <c r="EK9" s="7"/>
-      <c r="EL9" s="7"/>
-      <c r="EM9" s="7"/>
-      <c r="EN9" s="7"/>
-      <c r="EO9" s="7"/>
-      <c r="EP9" s="7"/>
-      <c r="EQ9" s="7"/>
-      <c r="ER9" s="7"/>
-      <c r="ES9" s="7"/>
-      <c r="ET9" s="7"/>
-      <c r="EU9" s="7"/>
-      <c r="EV9" s="7"/>
-      <c r="EW9" s="7"/>
-      <c r="EX9" s="7"/>
-      <c r="EY9" s="7"/>
-      <c r="EZ9" s="7"/>
-      <c r="FA9" s="7"/>
-      <c r="FB9" s="7"/>
-      <c r="FC9" s="7"/>
-      <c r="FD9" s="7"/>
-      <c r="FE9" s="7"/>
-      <c r="FF9" s="7"/>
-      <c r="FG9" s="7"/>
-      <c r="FH9" s="7"/>
-      <c r="FI9" s="7"/>
-      <c r="FJ9" s="7"/>
-      <c r="FK9" s="7"/>
-      <c r="FL9" s="7"/>
-      <c r="FM9" s="7"/>
-      <c r="FN9" s="7"/>
-      <c r="FO9" s="7"/>
-      <c r="FP9" s="7"/>
-      <c r="FQ9" s="7"/>
-      <c r="FR9" s="7"/>
-      <c r="FS9" s="7"/>
-      <c r="FT9" s="7"/>
-      <c r="FU9" s="7"/>
-      <c r="FV9" s="7"/>
-      <c r="FW9" s="7"/>
-      <c r="FX9" s="7"/>
-      <c r="FY9" s="7"/>
-      <c r="FZ9" s="7"/>
-      <c r="GA9" s="7"/>
-      <c r="GB9" s="7"/>
-      <c r="GC9" s="7"/>
-      <c r="GD9" s="7"/>
-      <c r="GE9" s="7"/>
-      <c r="GF9" s="7"/>
-      <c r="GG9" s="7"/>
-      <c r="GH9" s="7"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="6"/>
+      <c r="CK9" s="6"/>
+      <c r="CL9" s="6"/>
+      <c r="CM9" s="6"/>
+      <c r="CN9" s="6"/>
+      <c r="CO9" s="6"/>
+      <c r="CP9" s="6"/>
+      <c r="CQ9" s="6"/>
+      <c r="CR9" s="6"/>
+      <c r="CS9" s="6"/>
+      <c r="CT9" s="6"/>
+      <c r="CU9" s="6"/>
+      <c r="CV9" s="6"/>
+      <c r="CW9" s="6"/>
+      <c r="CX9" s="6"/>
+      <c r="CY9" s="6"/>
+      <c r="CZ9" s="6"/>
+      <c r="DA9" s="6"/>
+      <c r="DB9" s="6"/>
+      <c r="DC9" s="6"/>
+      <c r="DD9" s="6"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="6"/>
+      <c r="DK9" s="6"/>
+      <c r="DL9" s="6"/>
+      <c r="DM9" s="6"/>
+      <c r="DN9" s="6"/>
+      <c r="DO9" s="6"/>
+      <c r="DP9" s="6"/>
+      <c r="DQ9" s="6"/>
+      <c r="DR9" s="6"/>
+      <c r="DS9" s="6"/>
+      <c r="DT9" s="6"/>
+      <c r="DU9" s="6"/>
+      <c r="DV9" s="6"/>
+      <c r="DW9" s="6"/>
+      <c r="DX9" s="6"/>
+      <c r="DY9" s="6"/>
+      <c r="DZ9" s="6"/>
+      <c r="EA9" s="6"/>
+      <c r="EB9" s="6"/>
+      <c r="EC9" s="6"/>
+      <c r="ED9" s="6"/>
+      <c r="EE9" s="6"/>
+      <c r="EF9" s="6"/>
+      <c r="EG9" s="6"/>
+      <c r="EH9" s="6"/>
+      <c r="EI9" s="6"/>
+      <c r="EJ9" s="6"/>
+      <c r="EK9" s="6"/>
+      <c r="EL9" s="6"/>
+      <c r="EM9" s="6"/>
+      <c r="EN9" s="6"/>
+      <c r="EO9" s="6"/>
+      <c r="EP9" s="6"/>
+      <c r="EQ9" s="6"/>
+      <c r="ER9" s="6"/>
+      <c r="ES9" s="6"/>
+      <c r="ET9" s="6"/>
+      <c r="EU9" s="6"/>
+      <c r="EV9" s="6"/>
+      <c r="EW9" s="6"/>
+      <c r="EX9" s="6"/>
+      <c r="EY9" s="6"/>
+      <c r="EZ9" s="6"/>
+      <c r="FA9" s="6"/>
+      <c r="FB9" s="6"/>
+      <c r="FC9" s="6"/>
+      <c r="FD9" s="6"/>
+      <c r="FE9" s="6"/>
+      <c r="FF9" s="6"/>
+      <c r="FG9" s="6"/>
+      <c r="FH9" s="6"/>
+      <c r="FI9" s="6"/>
+      <c r="FJ9" s="6"/>
+      <c r="FK9" s="6"/>
+      <c r="FL9" s="6"/>
+      <c r="FM9" s="6"/>
+      <c r="FN9" s="6"/>
+      <c r="FO9" s="6"/>
+      <c r="FP9" s="6"/>
+      <c r="FQ9" s="6"/>
+      <c r="FR9" s="6"/>
+      <c r="FS9" s="6"/>
+      <c r="FT9" s="6"/>
+      <c r="FU9" s="6"/>
+      <c r="FV9" s="6"/>
+      <c r="FW9" s="6"/>
+      <c r="FX9" s="6"/>
+      <c r="FY9" s="6"/>
+      <c r="FZ9" s="6"/>
+      <c r="GA9" s="6"/>
+      <c r="GB9" s="6"/>
+      <c r="GC9" s="6"/>
+      <c r="GD9" s="6"/>
+      <c r="GE9" s="6"/>
+      <c r="GF9" s="6"/>
+      <c r="GG9" s="6"/>
+      <c r="GH9" s="6"/>
     </row>
     <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="13" t="s">
+      <c r="N10" s="37"/>
+      <c r="O10" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="12">
         <v>6</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="U10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="63" t="s">
         <v>255</v>
       </c>
+      <c r="W10" s="63"/>
+      <c r="X10" s="70"/>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>9</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="12">
         <v>6</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U11" s="14" t="s">
+      <c r="U11" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="63" t="s">
         <v>252</v>
       </c>
+      <c r="W11" s="63"/>
+      <c r="X11" s="70"/>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
+      <c r="M12" s="37"/>
+      <c r="N12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="12">
         <v>6</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="14" t="s">
+      <c r="U12" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="63" t="s">
         <v>253</v>
       </c>
+      <c r="W12" s="63"/>
+      <c r="X12" s="70"/>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="37"/>
+      <c r="O13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <v>6</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U13" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="V13" s="63" t="s">
         <v>256</v>
       </c>
+      <c r="W13" s="63"/>
+      <c r="X13" s="70"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>12</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="12">
         <v>6</v>
       </c>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="U14" s="14" t="s">
+      <c r="U14" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="63" t="s">
         <v>252</v>
       </c>
+      <c r="W14" s="63"/>
+      <c r="X14" s="70"/>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <v>13</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="37"/>
+      <c r="N15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="12">
         <v>6</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="U15" s="14" t="s">
+      <c r="U15" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="63" t="s">
         <v>253</v>
       </c>
+      <c r="W15" s="63"/>
+      <c r="X15" s="70"/>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="37"/>
+      <c r="N16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="12">
         <v>6</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="14" t="s">
+      <c r="U16" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="V16" s="63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="W16" s="63"/>
+      <c r="X16" s="70"/>
+    </row>
+    <row r="17" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="21" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>15</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22" t="s">
+      <c r="M17" s="20"/>
+      <c r="N17" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="33">
         <v>6</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T17" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="36" t="s">
+      <c r="U17" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="W17" s="63"/>
+      <c r="X17" s="70"/>
+    </row>
+    <row r="18" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>16</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10" t="s">
+      <c r="M18" s="37"/>
+      <c r="N18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="12">
         <v>6</v>
       </c>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U18" s="14" t="s">
+      <c r="U18" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="W18" s="63"/>
+      <c r="X18" s="70"/>
+    </row>
+    <row r="19" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="59">
         <v>17</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10" t="s">
+      <c r="M19" s="60"/>
+      <c r="N19" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="61">
         <v>6</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="U19" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="72" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="W19" s="72"/>
+      <c r="X19" s="73"/>
+    </row>
+    <row r="20" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="79">
         <v>18</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12" t="s">
+      <c r="M20" s="80"/>
+      <c r="N20" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="81">
         <v>6</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="T20" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="67" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="W20" s="67"/>
+      <c r="X20" s="68"/>
+    </row>
+    <row r="21" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="38">
         <v>19</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="s">
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>6</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="18" t="s">
+      <c r="T21" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="W21" s="63"/>
+      <c r="X21" s="70"/>
+    </row>
+    <row r="22" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="38">
         <v>20</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12" t="s">
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>6</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="W22" s="63"/>
+      <c r="X22" s="70"/>
+    </row>
+    <row r="23" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="38">
         <v>21</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12" t="s">
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>6</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="T23" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U23" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="W23" s="63"/>
+      <c r="X23" s="70"/>
+    </row>
+    <row r="24" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="38">
         <v>22</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>6</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="18" t="s">
+      <c r="T24" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="W24" s="63"/>
+      <c r="X24" s="70"/>
+    </row>
+    <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="38">
         <v>23</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="9" t="s">
+      <c r="N25" s="10"/>
+      <c r="O25" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>6</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="S25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="T25" s="18" t="s">
+      <c r="T25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="U25" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="63" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="W25" s="63"/>
+      <c r="X25" s="70"/>
+    </row>
+    <row r="26" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="74"/>
+      <c r="G26" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="85">
         <v>24</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12" t="s">
+      <c r="M26" s="86"/>
+      <c r="N26" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="87">
         <v>6</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="18" t="s">
+      <c r="T26" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="6" t="s">
+      <c r="U26" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="72" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="W26" s="72"/>
+      <c r="X26" s="73"/>
+    </row>
+    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="75">
         <v>25</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32" t="s">
+      <c r="M27" s="28"/>
+      <c r="N27" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="76">
         <v>6</v>
       </c>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="33" t="s">
+      <c r="S27" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="34" t="s">
+      <c r="T27" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="U27" s="33" t="s">
+      <c r="U27" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="V27" s="66" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+    </row>
+    <row r="28" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="29">
         <v>26</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32" t="s">
+      <c r="M28" s="30"/>
+      <c r="N28" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="P28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="31">
         <v>6</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="33" t="s">
+      <c r="S28" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="34" t="s">
+      <c r="T28" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="U28" s="33" t="s">
+      <c r="U28" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+    </row>
+    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="89">
         <v>27</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31" t="s">
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="31"/>
-    </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="29">
         <v>28</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32" t="s">
+      <c r="M30" s="30"/>
+      <c r="N30" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="P30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="Q30" s="31">
         <v>6</v>
       </c>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="33" t="s">
+      <c r="S30" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="34" t="s">
+      <c r="T30" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="33" t="s">
+      <c r="U30" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="V30" s="63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+    </row>
+    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31" t="s">
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="29">
         <v>29</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32" t="s">
+      <c r="M31" s="30"/>
+      <c r="N31" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31" t="s">
+      <c r="O31" s="29"/>
+      <c r="P31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="31">
         <v>6</v>
       </c>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="33" t="s">
+      <c r="S31" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="34" t="s">
+      <c r="T31" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="U31" s="33" t="s">
+      <c r="U31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="V31" s="63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-    </row>
-    <row r="33" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="28"/>
-    </row>
-    <row r="34" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="28"/>
-    </row>
-    <row r="35" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="28"/>
-    </row>
-    <row r="36" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="28"/>
-    </row>
-    <row r="37" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="28"/>
-    </row>
-    <row r="38" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="28"/>
-    </row>
-    <row r="39" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="28"/>
-    </row>
-    <row r="40" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+    </row>
+    <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="26"/>
+      <c r="X33" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="26"/>
+    </row>
+    <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="26"/>
+    </row>
+    <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26"/>
+    </row>
+    <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
+    </row>
+    <row r="39" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="26"/>
+    </row>
+    <row r="40" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="270">
   <si>
     <t>Asignatura</t>
   </si>
@@ -468,9 +468,6 @@
   </si>
   <si>
     <t xml:space="preserve">Construye triángulos </t>
-  </si>
-  <si>
-    <t>Reconoce las características de la líneas notables de un triángulo</t>
   </si>
   <si>
     <t>Identifica elementos congruentes</t>
@@ -815,10 +812,31 @@
     <t>En proceso 3</t>
   </si>
   <si>
-    <t>No necesita</t>
-  </si>
-  <si>
-    <t>Listos 4</t>
+    <t>No se necesita</t>
+  </si>
+  <si>
+    <t>Listos 1</t>
+  </si>
+  <si>
+    <t>Listos 6</t>
+  </si>
+  <si>
+    <t>Faltan 23</t>
+  </si>
+  <si>
+    <t>Listos 3</t>
+  </si>
+  <si>
+    <t>faltan 23</t>
+  </si>
+  <si>
+    <t>Reconoce las características de las líneas notables de un triángulo</t>
+  </si>
+  <si>
+    <t>En proceso 2</t>
+  </si>
+  <si>
+    <t>Faltan 26</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1244,9 +1262,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1307,12 +1322,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1367,9 +1376,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1397,9 +1403,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1478,6 +1481,30 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1487,12 +1514,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1535,23 +1556,35 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,9 +1892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1893,102 +1926,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="95" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="115" t="s">
+      <c r="R1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="113" t="s">
+      <c r="T1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="U1" s="89" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="48" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="41" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="X2" s="37" t="s">
         <v>258</v>
-      </c>
-      <c r="X2" s="40" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2005,55 +2038,55 @@
         <v>142</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="49" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="47">
+        <v>1</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="50">
-        <v>1</v>
-      </c>
-      <c r="I3" s="51" t="s">
+      <c r="K3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="49">
         <v>6</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="U3" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="V3" s="67" t="s">
-        <v>254</v>
-      </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
+      <c r="V3" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="W3" s="62"/>
+      <c r="X3" s="63"/>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2069,55 +2102,55 @@
         <v>142</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="42">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="39">
         <v>2</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
+      <c r="M4" s="40"/>
+      <c r="N4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="P4" s="42" t="s">
+      <c r="O4" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="41">
         <v>6</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="V4" s="64" t="s">
-        <v>252</v>
-      </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="69">
+      <c r="U4" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="W4" s="59"/>
+      <c r="X4" s="64">
         <v>42416</v>
       </c>
     </row>
@@ -2135,55 +2168,55 @@
         <v>142</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <v>3</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="P5" s="42" t="s">
+      <c r="O5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="41">
         <v>6</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="R5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="V5" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="69">
+      <c r="T5" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="V5" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="W5" s="32"/>
+      <c r="X5" s="64">
         <v>42416</v>
       </c>
     </row>
@@ -2201,59 +2234,59 @@
         <v>142</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>4</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="P6" s="42" t="s">
+      <c r="O6" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="41">
         <v>6</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="V6" s="64" t="s">
-        <v>252</v>
-      </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="69">
+      <c r="U6" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="V6" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="W6" s="32"/>
+      <c r="X6" s="64">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,53 +2303,57 @@
         <v>142</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="55" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="113">
         <v>5</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="P7" s="11" t="s">
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="116">
         <v>9</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="T7" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V7" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="V7" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="70"/>
+      <c r="W7" s="118">
+        <v>42416</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -2332,31 +2369,31 @@
         <v>142</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="52" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="37" t="s">
+      <c r="J8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="37"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
@@ -2374,77 +2411,77 @@
         <v>132</v>
       </c>
       <c r="U8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="V8" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="W8" s="59"/>
+      <c r="X8" s="65"/>
+    </row>
+    <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>6</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="V8" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="70"/>
-    </row>
-    <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="19">
-        <v>7</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>6</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="V9" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="71"/>
+      <c r="V9" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="W9" s="32"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2626,31 +2663,31 @@
         <v>142</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="56" t="s">
-        <v>230</v>
+      <c r="F10" s="43"/>
+      <c r="G10" s="52" t="s">
+        <v>229</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K10" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="37"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
@@ -2662,19 +2699,19 @@
         <v>123</v>
       </c>
       <c r="S10" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="T10" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="U10" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="V10" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="W10" s="63"/>
-      <c r="X10" s="70"/>
+      <c r="V10" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="W10" s="59"/>
+      <c r="X10" s="65"/>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2690,55 +2727,59 @@
         <v>142</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="F11" s="43"/>
+      <c r="G11" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="113">
         <v>9</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="K11" s="37" t="s">
+      <c r="J11" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37" t="s">
+      <c r="M11" s="114"/>
+      <c r="N11" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="P11" s="11" t="s">
+      <c r="O11" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="117">
         <v>6</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V11" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W11" s="63"/>
-      <c r="X11" s="70"/>
+      <c r="T11" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="U11" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="W11" s="118">
+        <v>42416</v>
+      </c>
+      <c r="X11" s="65" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -2754,31 +2795,31 @@
         <v>142</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="56" t="s">
-        <v>149</v>
+      <c r="F12" s="43"/>
+      <c r="G12" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37" t="s">
+      <c r="M12" s="34"/>
+      <c r="N12" s="34" t="s">
         <v>33</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
@@ -2796,13 +2837,13 @@
         <v>126</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V12" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="W12" s="63"/>
-      <c r="X12" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="W12" s="59"/>
+      <c r="X12" s="65"/>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2818,31 +2859,31 @@
         <v>142</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="56" t="s">
-        <v>150</v>
+      <c r="F13" s="43"/>
+      <c r="G13" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="37"/>
+      <c r="N13" s="34"/>
       <c r="O13" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
@@ -2854,19 +2895,19 @@
         <v>123</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="V13" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="W13" s="63"/>
-      <c r="X13" s="70"/>
+        <v>206</v>
+      </c>
+      <c r="V13" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="W13" s="59"/>
+      <c r="X13" s="65"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2882,31 +2923,31 @@
         <v>142</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="56" t="s">
-        <v>151</v>
+      <c r="F14" s="43"/>
+      <c r="G14" s="52" t="s">
+        <v>150</v>
       </c>
       <c r="H14" s="11">
         <v>12</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K14" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37" t="s">
+      <c r="M14" s="34"/>
+      <c r="N14" s="34" t="s">
         <v>42</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
@@ -2921,16 +2962,16 @@
         <v>124</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V14" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W14" s="63"/>
-      <c r="X14" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V14" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W14" s="59"/>
+      <c r="X14" s="65"/>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -2946,31 +2987,31 @@
         <v>142</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="56" t="s">
-        <v>236</v>
+      <c r="F15" s="43"/>
+      <c r="G15" s="52" t="s">
+        <v>235</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K15" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37" t="s">
+      <c r="M15" s="34"/>
+      <c r="N15" s="34" t="s">
         <v>48</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
@@ -2985,16 +3026,16 @@
         <v>124</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V15" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="W15" s="63"/>
-      <c r="X15" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V15" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="W15" s="59"/>
+      <c r="X15" s="65"/>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -3010,31 +3051,31 @@
         <v>142</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="56" t="s">
-        <v>238</v>
+      <c r="F16" s="43"/>
+      <c r="G16" s="52" t="s">
+        <v>237</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="K16" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37" t="s">
+      <c r="M16" s="34"/>
+      <c r="N16" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
@@ -3052,13 +3093,13 @@
         <v>138</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V16" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W16" s="63"/>
-      <c r="X16" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V16" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W16" s="59"/>
+      <c r="X16" s="65"/>
     </row>
     <row r="17" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3074,55 +3115,55 @@
         <v>142</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="F17" s="43"/>
+      <c r="G17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="18">
         <v>15</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="J17" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20" t="s">
+      <c r="M17" s="19"/>
+      <c r="N17" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" s="19" t="s">
+      <c r="O17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="32">
         <v>6</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="34" t="s">
+      <c r="T17" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="V17" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W17" s="63"/>
-      <c r="X17" s="70"/>
+      <c r="U17" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="V17" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W17" s="59"/>
+      <c r="X17" s="65"/>
     </row>
     <row r="18" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -3138,31 +3179,31 @@
         <v>142</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="56" t="s">
-        <v>153</v>
+      <c r="F18" s="43"/>
+      <c r="G18" s="52" t="s">
+        <v>152</v>
       </c>
       <c r="H18" s="11">
         <v>16</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="34" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K18" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37" t="s">
+      <c r="M18" s="34"/>
+      <c r="N18" s="34" t="s">
         <v>39</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
@@ -3177,16 +3218,16 @@
         <v>124</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V18" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W18" s="63"/>
-      <c r="X18" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V18" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W18" s="59"/>
+      <c r="X18" s="65"/>
     </row>
     <row r="19" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3204,55 +3245,55 @@
       <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="59">
+      <c r="F19" s="43"/>
+      <c r="G19" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="55">
         <v>17</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="60" t="s">
+      <c r="J19" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60" t="s">
+      <c r="M19" s="56"/>
+      <c r="N19" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="P19" s="59" t="s">
+      <c r="O19" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="61">
+      <c r="Q19" s="57">
         <v>6</v>
       </c>
-      <c r="R19" s="61" t="s">
+      <c r="R19" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="61" t="s">
+      <c r="S19" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="U19" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="V19" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="W19" s="72"/>
-      <c r="X19" s="73"/>
+      <c r="T19" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="U19" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="V19" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
     </row>
     <row r="20" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3265,58 +3306,58 @@
         <v>141</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="78" t="s">
+      <c r="F20" s="69"/>
+      <c r="G20" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="H20" s="74">
+        <v>18</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="79">
-        <v>18</v>
-      </c>
-      <c r="I20" s="80" t="s">
+      <c r="K20" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="K20" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80" t="s">
+      <c r="M20" s="75"/>
+      <c r="N20" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="P20" s="79" t="s">
+      <c r="O20" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="81">
+      <c r="Q20" s="76">
         <v>6</v>
       </c>
-      <c r="R20" s="81" t="s">
+      <c r="R20" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="81" t="s">
+      <c r="S20" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="V20" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="68"/>
+      <c r="T20" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="U20" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="V20" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="W20" s="62"/>
+      <c r="X20" s="63"/>
     </row>
     <row r="21" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -3329,21 +3370,21 @@
         <v>141</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="38">
+      <c r="F21" s="69"/>
+      <c r="G21" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="35">
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="38" t="s">
-        <v>165</v>
+      <c r="J21" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>20</v>
@@ -3355,10 +3396,10 @@
       <c r="N21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="P21" s="38" t="s">
+      <c r="O21" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="5">
@@ -3370,17 +3411,17 @@
       <c r="S21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="15" t="s">
         <v>133</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="V21" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="W21" s="63"/>
-      <c r="X21" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V21" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="W21" s="59"/>
+      <c r="X21" s="65"/>
     </row>
     <row r="22" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3393,21 +3434,21 @@
         <v>141</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="H22" s="38">
+      <c r="F22" s="69"/>
+      <c r="G22" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="35">
         <v>20</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>244</v>
+      <c r="J22" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>20</v>
@@ -3419,10 +3460,10 @@
       <c r="N22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="P22" s="38" t="s">
+      <c r="O22" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="5">
@@ -3434,17 +3475,17 @@
       <c r="S22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="16" t="s">
-        <v>202</v>
+      <c r="T22" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="V22" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W22" s="63"/>
-      <c r="X22" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V22" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W22" s="59"/>
+      <c r="X22" s="65"/>
     </row>
     <row r="23" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3457,21 +3498,21 @@
         <v>141</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="38">
+      <c r="F23" s="69"/>
+      <c r="G23" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="35">
         <v>21</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="38" t="s">
-        <v>245</v>
+      <c r="J23" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>20</v>
@@ -3483,10 +3524,10 @@
       <c r="N23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="P23" s="38" t="s">
+      <c r="O23" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="5">
@@ -3498,17 +3539,17 @@
       <c r="S23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="16" t="s">
-        <v>215</v>
+      <c r="T23" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="V23" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W23" s="63"/>
-      <c r="X23" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V23" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W23" s="59"/>
+      <c r="X23" s="65"/>
     </row>
     <row r="24" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -3521,21 +3562,21 @@
         <v>141</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" s="38">
+      <c r="F24" s="69"/>
+      <c r="G24" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="H24" s="35">
         <v>22</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="38" t="s">
-        <v>166</v>
+      <c r="J24" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>20</v>
@@ -3547,10 +3588,10 @@
       <c r="N24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="P24" s="38" t="s">
+      <c r="O24" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="5">
@@ -3562,17 +3603,17 @@
       <c r="S24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="16" t="s">
-        <v>203</v>
+      <c r="T24" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="V24" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="W24" s="63"/>
-      <c r="X24" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="V24" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W24" s="59"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3585,21 +3626,21 @@
         <v>141</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="38">
+      <c r="F25" s="69"/>
+      <c r="G25" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="35">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>251</v>
+      <c r="J25" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -3611,10 +3652,10 @@
         <v>117</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="P25" s="38" t="s">
+      <c r="O25" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5">
@@ -3624,19 +3665,19 @@
         <v>123</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="V25" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="W25" s="63"/>
-      <c r="X25" s="70"/>
+        <v>206</v>
+      </c>
+      <c r="V25" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="W25" s="59"/>
+      <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3649,584 +3690,601 @@
         <v>141</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="84" t="s">
+      <c r="F26" s="69"/>
+      <c r="G26" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="80">
+        <v>24</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="82">
+        <v>6</v>
+      </c>
+      <c r="R26" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="T26" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="V26" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="W26" s="67"/>
+      <c r="X26" s="68"/>
+    </row>
+    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="70">
+        <v>25</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="71">
+        <v>6</v>
+      </c>
+      <c r="R27" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="U27" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="V27" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+    </row>
+    <row r="28" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="85">
-        <v>24</v>
-      </c>
-      <c r="I26" s="86" t="s">
+      <c r="H28" s="28">
+        <v>26</v>
+      </c>
+      <c r="I28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="85" t="s">
+      <c r="J28" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="30">
+        <v>6</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="V28" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+    </row>
+    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="84">
+        <v>27</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="28">
+        <v>28</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="30">
+        <v>6</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="V30" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+    </row>
+    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="28">
+        <v>29</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="O26" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="P26" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="87">
+      <c r="M31" s="29"/>
+      <c r="N31" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="30">
         <v>6</v>
       </c>
-      <c r="R26" s="87" t="s">
+      <c r="R31" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="87" t="s">
+      <c r="S31" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="U26" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="V26" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="W26" s="72"/>
-      <c r="X26" s="73"/>
-    </row>
-    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="H27" s="75">
-        <v>25</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="O27" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="P27" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="76">
-        <v>6</v>
-      </c>
-      <c r="R27" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="S27" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="T27" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="U27" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="V27" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-    </row>
-    <row r="28" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="29">
-        <v>26</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="P28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="31">
-        <v>6</v>
-      </c>
-      <c r="R28" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="S28" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="T28" s="32" t="s">
+      <c r="T31" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="U28" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="V28" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-    </row>
-    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="89">
-        <v>27</v>
-      </c>
-      <c r="I29" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="63" t="s">
+      <c r="U31" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="V31" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+    </row>
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+    </row>
+    <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="W34" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="29">
-        <v>28</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="31">
-        <v>6</v>
-      </c>
-      <c r="R30" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="S30" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="T30" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="U30" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="V30" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-    </row>
-    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="29">
-        <v>29</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="31">
-        <v>6</v>
-      </c>
-      <c r="R31" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="T31" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="U31" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="V31" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-    </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-    </row>
-    <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="26"/>
-      <c r="X33" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="26"/>
+      <c r="X34" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="26"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="26"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="25"/>
     </row>
     <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="26"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="25"/>
     </row>
     <row r="39" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="26"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="25"/>
     </row>
     <row r="40" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -4415,12 +4473,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4435,6 +4487,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="272">
   <si>
     <t>Asignatura</t>
   </si>
@@ -809,27 +809,15 @@
     <t>Duda sobre si se puede debido al tamaño</t>
   </si>
   <si>
-    <t>En proceso 3</t>
-  </si>
-  <si>
     <t>No se necesita</t>
   </si>
   <si>
     <t>Listos 1</t>
   </si>
   <si>
-    <t>Listos 6</t>
-  </si>
-  <si>
-    <t>Faltan 23</t>
-  </si>
-  <si>
     <t>Listos 3</t>
   </si>
   <si>
-    <t>faltan 23</t>
-  </si>
-  <si>
     <t>Reconoce las características de las líneas notables de un triángulo</t>
   </si>
   <si>
@@ -837,6 +825,24 @@
   </si>
   <si>
     <t>Faltan 26</t>
+  </si>
+  <si>
+    <t>Esperando imágenes</t>
+  </si>
+  <si>
+    <t>En proceso 4</t>
+  </si>
+  <si>
+    <t>faltan 22</t>
+  </si>
+  <si>
+    <t>Listos 7</t>
+  </si>
+  <si>
+    <t>Faltan 22</t>
+  </si>
+  <si>
+    <t>Recurso offLine, esperando imágenes</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1418,9 +1424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1481,81 +1484,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1585,6 +1513,81 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,9 +1895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V36" sqref="V36"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1926,94 +1929,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="87" t="s">
+      <c r="N1" s="111"/>
+      <c r="O1" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="R1" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="T1" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="115" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="103"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="45" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="90"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="116"/>
       <c r="V2" s="38" t="s">
         <v>256</v>
       </c>
@@ -2304,55 +2307,55 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="87">
         <v>5</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="113" t="s">
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="116">
+      <c r="Q7" s="90">
         <v>9</v>
       </c>
-      <c r="R7" s="116" t="s">
+      <c r="R7" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="116" t="s">
+      <c r="S7" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="T7" s="116" t="s">
+      <c r="T7" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="U7" s="116" t="s">
+      <c r="U7" s="90" t="s">
         <v>222</v>
       </c>
       <c r="V7" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="W7" s="118">
+      <c r="W7" s="92">
         <v>42416</v>
       </c>
       <c r="X7" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2434,55 +2437,61 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="39">
         <v>7</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="41">
         <v>6</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="T9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="6"/>
+      <c r="W9" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X9" s="64">
+        <v>42417</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -2728,57 +2737,57 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="43"/>
-      <c r="G11" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="113">
+      <c r="G11" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="87">
         <v>9</v>
       </c>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="113" t="s">
+      <c r="J11" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="114" t="s">
+      <c r="L11" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114" t="s">
+      <c r="M11" s="88"/>
+      <c r="N11" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="120" t="s">
+      <c r="O11" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="P11" s="113" t="s">
+      <c r="P11" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="117">
+      <c r="Q11" s="91">
         <v>6</v>
       </c>
-      <c r="R11" s="117" t="s">
+      <c r="R11" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="117" t="s">
+      <c r="S11" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="121" t="s">
+      <c r="T11" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="117" t="s">
+      <c r="U11" s="91" t="s">
         <v>200</v>
       </c>
       <c r="V11" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="W11" s="118">
+      <c r="W11" s="92">
         <v>42416</v>
       </c>
       <c r="X11" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3289,11 +3298,11 @@
       <c r="U19" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="V19" s="67" t="s">
+      <c r="V19" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="W19" s="67"/>
-      <c r="X19" s="68"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="67"/>
     </row>
     <row r="20" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3309,48 +3318,48 @@
         <v>193</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="73" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>18</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="74" t="s">
+      <c r="J20" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75" t="s">
+      <c r="M20" s="74"/>
+      <c r="N20" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="74" t="s">
+      <c r="O20" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="74" t="s">
+      <c r="P20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="75">
         <v>6</v>
       </c>
-      <c r="R20" s="76" t="s">
+      <c r="R20" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="76" t="s">
+      <c r="S20" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="77" t="s">
+      <c r="T20" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="U20" s="76" t="s">
+      <c r="U20" s="75" t="s">
         <v>200</v>
       </c>
       <c r="V20" s="62" t="s">
@@ -3373,8 +3382,8 @@
         <v>193</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="78" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="77" t="s">
         <v>154</v>
       </c>
       <c r="H21" s="35">
@@ -3437,8 +3446,8 @@
         <v>193</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="78" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="77" t="s">
         <v>242</v>
       </c>
       <c r="H22" s="35">
@@ -3501,8 +3510,8 @@
         <v>193</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="78" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="77" t="s">
         <v>155</v>
       </c>
       <c r="H23" s="35">
@@ -3565,8 +3574,8 @@
         <v>193</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="78" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="77" t="s">
         <v>249</v>
       </c>
       <c r="H24" s="35">
@@ -3629,8 +3638,8 @@
         <v>193</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="78" t="s">
+      <c r="F25" s="68"/>
+      <c r="G25" s="77" t="s">
         <v>156</v>
       </c>
       <c r="H25" s="35">
@@ -3695,55 +3704,55 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="79" t="s">
+      <c r="F26" s="68"/>
+      <c r="G26" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="79">
         <v>24</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="80" t="s">
+      <c r="J26" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81" t="s">
+      <c r="M26" s="80"/>
+      <c r="N26" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="80" t="s">
+      <c r="P26" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="82">
+      <c r="Q26" s="81">
         <v>6</v>
       </c>
-      <c r="R26" s="82" t="s">
+      <c r="R26" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="82" t="s">
+      <c r="S26" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="83" t="s">
+      <c r="T26" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="82" t="s">
+      <c r="U26" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="V26" s="67" t="s">
+      <c r="V26" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="W26" s="67"/>
-      <c r="X26" s="68"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
     </row>
     <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
@@ -3760,16 +3769,16 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="69">
         <v>25</v>
       </c>
       <c r="I27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="69" t="s">
         <v>195</v>
       </c>
       <c r="K27" s="27" t="s">
@@ -3782,25 +3791,25 @@
       <c r="N27" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="70" t="s">
+      <c r="O27" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="70" t="s">
+      <c r="P27" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="71">
+      <c r="Q27" s="70">
         <v>6</v>
       </c>
-      <c r="R27" s="71" t="s">
+      <c r="R27" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="71" t="s">
+      <c r="S27" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="72" t="s">
+      <c r="T27" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="U27" s="71" t="s">
+      <c r="U27" s="70" t="s">
         <v>200</v>
       </c>
       <c r="V27" s="61" t="s">
@@ -3888,39 +3897,39 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="83">
         <v>27</v>
       </c>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="84" t="s">
+      <c r="J29" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="K29" s="85" t="s">
+      <c r="K29" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="85" t="s">
+      <c r="L29" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84" t="s">
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="84"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="83"/>
       <c r="V29" s="60"/>
       <c r="W29" s="60"/>
       <c r="X29" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4096,10 +4105,10 @@
       <c r="U33" s="24"/>
       <c r="V33" s="25"/>
       <c r="W33" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4125,13 +4134,13 @@
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
       <c r="V34" s="25" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="W34" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4157,13 +4166,13 @@
       <c r="T35" s="24"/>
       <c r="U35" s="24"/>
       <c r="V35" s="25" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4473,6 +4482,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4487,12 +4502,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="273">
   <si>
     <t>Asignatura</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">Los criterios de congruencia en triángulos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completa la demostración de congruencia de triángulos </t>
   </si>
   <si>
     <t xml:space="preserve">Analiza demostraciones </t>
@@ -830,19 +827,25 @@
     <t>Esperando imágenes</t>
   </si>
   <si>
-    <t>En proceso 4</t>
-  </si>
-  <si>
-    <t>faltan 22</t>
-  </si>
-  <si>
-    <t>Listos 7</t>
-  </si>
-  <si>
-    <t>Faltan 22</t>
-  </si>
-  <si>
     <t>Recurso offLine, esperando imágenes</t>
+  </si>
+  <si>
+    <t>Ordena la demostración de congruencia de triángulos</t>
+  </si>
+  <si>
+    <t>Se debe cambiar motor, recurso off-line enviado a Oliver</t>
+  </si>
+  <si>
+    <t>Listos 8</t>
+  </si>
+  <si>
+    <t>Faltan 21</t>
+  </si>
+  <si>
+    <t>En proceso 5</t>
+  </si>
+  <si>
+    <t>faltan 21</t>
   </si>
 </sst>
 </file>
@@ -1514,6 +1517,30 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1523,12 +1550,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1569,24 +1590,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1895,9 +1898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1929,102 +1932,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="99" t="s">
+      <c r="N1" s="117"/>
+      <c r="O1" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="115" t="s">
+      <c r="Q1" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="119" t="s">
+      <c r="R1" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="117" t="s">
+      <c r="T1" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="115" t="s">
+      <c r="U1" s="98" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="106"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="112"/>
       <c r="M2" s="45" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="116"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="99"/>
       <c r="V2" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="W2" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="37" t="s">
         <v>257</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2043,7 +2046,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="43"/>
       <c r="G3" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="47">
         <v>1</v>
@@ -2052,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>20</v>
@@ -2065,7 +2068,7 @@
       </c>
       <c r="N3" s="48"/>
       <c r="O3" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P3" s="47" t="s">
         <v>19</v>
@@ -2080,13 +2083,13 @@
         <v>131</v>
       </c>
       <c r="T3" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="U3" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="U3" s="49" t="s">
-        <v>199</v>
-      </c>
       <c r="V3" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W3" s="62"/>
       <c r="X3" s="63"/>
@@ -2107,7 +2110,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="43"/>
       <c r="G4" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H4" s="39">
         <v>2</v>
@@ -2116,7 +2119,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K4" s="40" t="s">
         <v>20</v>
@@ -2129,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P4" s="39" t="s">
         <v>19</v>
@@ -2147,10 +2150,10 @@
         <v>134</v>
       </c>
       <c r="U4" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V4" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W4" s="59"/>
       <c r="X4" s="64">
@@ -2182,7 +2185,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>20</v>
@@ -2195,7 +2198,7 @@
         <v>37</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>19</v>
@@ -2210,13 +2213,13 @@
         <v>124</v>
       </c>
       <c r="T5" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U5" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V5" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W5" s="32"/>
       <c r="X5" s="64">
@@ -2248,7 +2251,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>20</v>
@@ -2261,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>19</v>
@@ -2279,17 +2282,17 @@
         <v>135</v>
       </c>
       <c r="U6" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V6" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W6" s="32"/>
       <c r="X6" s="64">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2320,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K7" s="89" t="s">
         <v>19</v>
@@ -2328,7 +2331,7 @@
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
       <c r="O7" s="87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P7" s="87" t="s">
         <v>19</v>
@@ -2340,22 +2343,22 @@
         <v>128</v>
       </c>
       <c r="S7" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="T7" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="T7" s="90" t="s">
+      <c r="U7" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="U7" s="90" t="s">
+      <c r="V7" s="60" t="s">
         <v>222</v>
-      </c>
-      <c r="V7" s="60" t="s">
-        <v>223</v>
       </c>
       <c r="W7" s="92">
         <v>42416</v>
       </c>
       <c r="X7" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2383,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K8" s="34" t="s">
         <v>20</v>
@@ -2396,7 +2399,7 @@
       </c>
       <c r="N8" s="34"/>
       <c r="O8" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
@@ -2414,10 +2417,10 @@
         <v>132</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V8" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W8" s="59"/>
       <c r="X8" s="65"/>
@@ -2447,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>20</v>
@@ -2460,7 +2463,7 @@
         <v>120</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P9" s="39" t="s">
         <v>20</v>
@@ -2478,19 +2481,19 @@
         <v>125</v>
       </c>
       <c r="U9" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V9" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W9" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X9" s="64">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2674,7 +2677,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="43"/>
       <c r="G10" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
@@ -2683,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>20</v>
@@ -2696,7 +2699,7 @@
       </c>
       <c r="N10" s="34"/>
       <c r="O10" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
@@ -2708,16 +2711,16 @@
         <v>123</v>
       </c>
       <c r="S10" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="T10" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="V10" s="59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W10" s="59"/>
       <c r="X10" s="65"/>
@@ -2738,7 +2741,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="43"/>
       <c r="G11" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H11" s="87">
         <v>9</v>
@@ -2747,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K11" s="88" t="s">
         <v>20</v>
@@ -2760,7 +2763,7 @@
         <v>27</v>
       </c>
       <c r="O11" s="94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P11" s="87" t="s">
         <v>19</v>
@@ -2775,19 +2778,19 @@
         <v>124</v>
       </c>
       <c r="T11" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U11" s="91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V11" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W11" s="92">
         <v>42416</v>
       </c>
       <c r="X11" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K12" s="34" t="s">
         <v>20</v>
@@ -2828,7 +2831,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
@@ -2846,10 +2849,10 @@
         <v>126</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V12" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W12" s="59"/>
       <c r="X12" s="65"/>
@@ -2879,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K13" s="34" t="s">
         <v>20</v>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
@@ -2904,16 +2907,16 @@
         <v>123</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V13" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W13" s="59"/>
       <c r="X13" s="65"/>
@@ -2933,54 +2936,59 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="39">
         <v>12</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="34" t="s">
+      <c r="J14" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="P14" s="11" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="41">
         <v>6</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="V14" s="59" t="s">
-        <v>251</v>
+      <c r="T14" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="V14" s="60" t="s">
+        <v>250</v>
       </c>
       <c r="W14" s="59"/>
-      <c r="X14" s="65"/>
+      <c r="X14" s="64">
+        <v>42417</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -2998,7 +3006,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="43"/>
       <c r="G15" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -3007,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K15" s="34" t="s">
         <v>20</v>
@@ -3020,7 +3028,7 @@
         <v>48</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
@@ -3035,13 +3043,13 @@
         <v>124</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V15" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W15" s="59"/>
       <c r="X15" s="65"/>
@@ -3062,7 +3070,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="43"/>
       <c r="G16" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
@@ -3071,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K16" s="34" t="s">
         <v>20</v>
@@ -3084,7 +3092,7 @@
         <v>41</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
@@ -3102,10 +3110,10 @@
         <v>138</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V16" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W16" s="59"/>
       <c r="X16" s="65"/>
@@ -3126,7 +3134,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="43"/>
       <c r="G17" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="18">
         <v>15</v>
@@ -3135,7 +3143,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>20</v>
@@ -3148,7 +3156,7 @@
         <v>120</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P17" s="18" t="s">
         <v>20</v>
@@ -3166,10 +3174,10 @@
         <v>125</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V17" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W17" s="59"/>
       <c r="X17" s="65"/>
@@ -3190,7 +3198,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="43"/>
       <c r="G18" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" s="11">
         <v>16</v>
@@ -3199,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K18" s="34" t="s">
         <v>20</v>
@@ -3212,7 +3220,7 @@
         <v>39</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
@@ -3227,13 +3235,13 @@
         <v>124</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V18" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W18" s="59"/>
       <c r="X18" s="65"/>
@@ -3256,7 +3264,7 @@
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="55">
         <v>17</v>
@@ -3265,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K19" s="56" t="s">
         <v>20</v>
@@ -3278,7 +3286,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P19" s="55" t="s">
         <v>19</v>
@@ -3293,13 +3301,13 @@
         <v>124</v>
       </c>
       <c r="T19" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U19" s="57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V19" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W19" s="66"/>
       <c r="X19" s="67"/>
@@ -3315,12 +3323,12 @@
         <v>141</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="68"/>
       <c r="G20" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H20" s="73">
         <v>18</v>
@@ -3329,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K20" s="74" t="s">
         <v>20</v>
@@ -3342,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="O20" s="73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P20" s="73" t="s">
         <v>19</v>
@@ -3357,13 +3365,13 @@
         <v>124</v>
       </c>
       <c r="T20" s="76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U20" s="75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V20" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W20" s="62"/>
       <c r="X20" s="63"/>
@@ -3379,12 +3387,12 @@
         <v>141</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="68"/>
       <c r="G21" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="35">
         <v>19</v>
@@ -3393,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>20</v>
@@ -3406,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P21" s="35" t="s">
         <v>19</v>
@@ -3424,10 +3432,10 @@
         <v>133</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V21" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W21" s="59"/>
       <c r="X21" s="65"/>
@@ -3443,12 +3451,12 @@
         <v>141</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="68"/>
       <c r="G22" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H22" s="35">
         <v>20</v>
@@ -3457,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>20</v>
@@ -3470,7 +3478,7 @@
         <v>29</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P22" s="35" t="s">
         <v>19</v>
@@ -3485,13 +3493,13 @@
         <v>124</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V22" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W22" s="59"/>
       <c r="X22" s="65"/>
@@ -3507,12 +3515,12 @@
         <v>141</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="68"/>
       <c r="G23" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="35">
         <v>21</v>
@@ -3521,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>20</v>
@@ -3534,7 +3542,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P23" s="35" t="s">
         <v>19</v>
@@ -3549,13 +3557,13 @@
         <v>124</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V23" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W23" s="59"/>
       <c r="X23" s="65"/>
@@ -3571,12 +3579,12 @@
         <v>141</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="68"/>
       <c r="G24" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H24" s="35">
         <v>22</v>
@@ -3585,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>20</v>
@@ -3598,7 +3606,7 @@
         <v>29</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P24" s="35" t="s">
         <v>19</v>
@@ -3613,13 +3621,13 @@
         <v>124</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V24" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W24" s="59"/>
       <c r="X24" s="65"/>
@@ -3635,12 +3643,12 @@
         <v>141</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="68"/>
       <c r="G25" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H25" s="35">
         <v>23</v>
@@ -3649,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -3662,7 +3670,7 @@
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P25" s="35" t="s">
         <v>19</v>
@@ -3674,16 +3682,16 @@
         <v>123</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V25" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W25" s="59"/>
       <c r="X25" s="65"/>
@@ -3699,14 +3707,14 @@
         <v>141</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="79">
         <v>24</v>
@@ -3715,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K26" s="80" t="s">
         <v>20</v>
@@ -3728,7 +3736,7 @@
         <v>121</v>
       </c>
       <c r="O26" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P26" s="79" t="s">
         <v>19</v>
@@ -3746,10 +3754,10 @@
         <v>136</v>
       </c>
       <c r="U26" s="81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V26" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W26" s="66"/>
       <c r="X26" s="67"/>
@@ -3765,12 +3773,12 @@
         <v>141</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H27" s="69">
         <v>25</v>
@@ -3779,7 +3787,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>20</v>
@@ -3792,7 +3800,7 @@
         <v>120</v>
       </c>
       <c r="O27" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P27" s="69" t="s">
         <v>19</v>
@@ -3807,13 +3815,13 @@
         <v>124</v>
       </c>
       <c r="T27" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U27" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W27" s="61"/>
       <c r="X27" s="61"/>
@@ -3829,12 +3837,12 @@
         <v>141</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="28">
         <v>26</v>
@@ -3843,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>20</v>
@@ -3856,7 +3864,7 @@
         <v>120</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P28" s="28" t="s">
         <v>19</v>
@@ -3871,13 +3879,13 @@
         <v>124</v>
       </c>
       <c r="T28" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V28" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
@@ -3907,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K29" s="84" t="s">
         <v>20</v>
@@ -3929,7 +3937,7 @@
       <c r="V29" s="60"/>
       <c r="W29" s="60"/>
       <c r="X29" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3957,7 +3965,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>20</v>
@@ -3988,10 +3996,10 @@
         <v>137</v>
       </c>
       <c r="U30" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V30" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W30" s="59"/>
       <c r="X30" s="59"/>
@@ -4007,12 +4015,12 @@
         <v>141</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H31" s="28">
         <v>29</v>
@@ -4021,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K31" s="29" t="s">
         <v>20</v>
@@ -4047,13 +4055,13 @@
         <v>124</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U31" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V31" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W31" s="59"/>
       <c r="X31" s="59"/>
@@ -4105,10 +4113,10 @@
       <c r="U33" s="24"/>
       <c r="V33" s="25"/>
       <c r="W33" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4137,10 +4145,10 @@
         <v>269</v>
       </c>
       <c r="W34" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,10 +4177,10 @@
         <v>270</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4482,12 +4490,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4502,6 +4504,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="273">
   <si>
     <t>Asignatura</t>
   </si>
@@ -809,18 +809,12 @@
     <t>No se necesita</t>
   </si>
   <si>
-    <t>Listos 1</t>
-  </si>
-  <si>
     <t>Listos 3</t>
   </si>
   <si>
     <t>Reconoce las características de las líneas notables de un triángulo</t>
   </si>
   <si>
-    <t>En proceso 2</t>
-  </si>
-  <si>
     <t>Faltan 26</t>
   </si>
   <si>
@@ -846,6 +840,12 @@
   </si>
   <si>
     <t>faltan 21</t>
+  </si>
+  <si>
+    <t>En espera de solicitud gráfica.</t>
+  </si>
+  <si>
+    <t>En proceso 0</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1487,110 +1487,101 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1898,19 +1889,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="6" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
@@ -1932,94 +1923,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="117" t="s">
+      <c r="M1" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="117"/>
-      <c r="O1" s="96" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="96" t="s">
+      <c r="P1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="105" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="112"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="45" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="106"/>
       <c r="V2" s="38" t="s">
         <v>255</v>
       </c>
@@ -2310,51 +2301,51 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="83">
         <v>5</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="87" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="87" t="s">
+      <c r="P7" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="90">
+      <c r="Q7" s="114">
         <v>9</v>
       </c>
-      <c r="R7" s="90" t="s">
+      <c r="R7" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="90" t="s">
+      <c r="S7" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="90" t="s">
+      <c r="T7" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="90" t="s">
+      <c r="U7" s="114" t="s">
         <v>221</v>
       </c>
       <c r="V7" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="92">
+      <c r="W7" s="111">
         <v>42416</v>
       </c>
       <c r="X7" s="65" t="s">
@@ -2487,13 +2478,13 @@
         <v>250</v>
       </c>
       <c r="W9" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X9" s="64">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2740,53 +2731,53 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="43"/>
-      <c r="G11" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="87">
+      <c r="G11" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="83">
         <v>9</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88" t="s">
+      <c r="M11" s="84"/>
+      <c r="N11" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="94" t="s">
+      <c r="O11" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="87" t="s">
+      <c r="P11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="91">
+      <c r="Q11" s="60">
         <v>6</v>
       </c>
-      <c r="R11" s="91" t="s">
+      <c r="R11" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="91" t="s">
+      <c r="S11" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="95" t="s">
+      <c r="T11" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="91" t="s">
+      <c r="U11" s="60" t="s">
         <v>199</v>
       </c>
       <c r="V11" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="92">
+      <c r="W11" s="111">
         <v>42416</v>
       </c>
       <c r="X11" s="65" t="s">
@@ -2856,6 +2847,9 @@
       </c>
       <c r="W12" s="59"/>
       <c r="X12" s="65"/>
+      <c r="Y12" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2937,7 +2931,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="43"/>
       <c r="G14" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="39">
         <v>12</v>
@@ -2987,7 +2981,7 @@
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4113,10 +4107,10 @@
       <c r="U33" s="24"/>
       <c r="V33" s="25"/>
       <c r="W33" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4142,13 +4136,13 @@
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
       <c r="V34" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>260</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4174,13 +4168,13 @@
       <c r="T35" s="24"/>
       <c r="U35" s="24"/>
       <c r="V35" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="X35" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4490,6 +4484,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4504,12 +4504,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="275">
   <si>
     <t>Asignatura</t>
   </si>
@@ -821,31 +821,37 @@
     <t>Esperando imágenes</t>
   </si>
   <si>
-    <t>Recurso offLine, esperando imágenes</t>
-  </si>
-  <si>
     <t>Ordena la demostración de congruencia de triángulos</t>
   </si>
   <si>
     <t>Se debe cambiar motor, recurso off-line enviado a Oliver</t>
   </si>
   <si>
-    <t>Listos 8</t>
-  </si>
-  <si>
-    <t>Faltan 21</t>
-  </si>
-  <si>
-    <t>En proceso 5</t>
-  </si>
-  <si>
-    <t>faltan 21</t>
-  </si>
-  <si>
     <t>En espera de solicitud gráfica.</t>
   </si>
   <si>
     <t>En proceso 0</t>
+  </si>
+  <si>
+    <t>Recurso regresado al autor</t>
+  </si>
+  <si>
+    <t>Recurso offLine, esperando imágenes, Pedro ya lo subio a GRECO</t>
+  </si>
+  <si>
+    <t>Listos 9</t>
+  </si>
+  <si>
+    <t>Faltan 20</t>
+  </si>
+  <si>
+    <t>En proceso 6</t>
+  </si>
+  <si>
+    <t>faltan 20</t>
+  </si>
+  <si>
+    <t>Regreso a la autora con comentarios 18/02/2016</t>
   </si>
 </sst>
 </file>
@@ -905,7 +911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,6 +1011,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1286,9 +1304,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1328,9 +1343,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1388,9 +1400,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1487,81 +1496,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1581,6 +1515,102 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1889,9 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1899,9 +1929,9 @@
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="6" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
@@ -1923,101 +1953,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="89" t="s">
+      <c r="N1" s="105"/>
+      <c r="O1" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="105" t="s">
+      <c r="Q1" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="109" t="s">
+      <c r="R1" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="107" t="s">
+      <c r="T1" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="105" t="s">
+      <c r="U1" s="109" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="45" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="38" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="35" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2035,55 +2065,55 @@
         <v>142</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="45">
         <v>1</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="47" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="47">
         <v>6</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="V3" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="63"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="60"/>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2099,55 +2129,55 @@
         <v>142</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="37">
         <v>2</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="39">
         <v>6</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="T4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W4" s="59"/>
-      <c r="X4" s="64">
+      <c r="W4" s="56"/>
+      <c r="X4" s="61">
         <v>42416</v>
       </c>
     </row>
@@ -2165,55 +2195,55 @@
         <v>142</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <v>3</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="39">
         <v>6</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="60" t="s">
+      <c r="V5" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="64">
+      <c r="W5" s="31"/>
+      <c r="X5" s="61">
         <v>42416</v>
       </c>
     </row>
@@ -2231,55 +2261,55 @@
         <v>142</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>4</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="39">
         <v>6</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="60" t="s">
+      <c r="V6" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W6" s="32"/>
-      <c r="X6" s="64">
+      <c r="W6" s="31"/>
+      <c r="X6" s="61">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2300,55 +2330,55 @@
         <v>142</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="112" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="80">
         <v>5</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="83" t="s">
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="114">
+      <c r="Q7" s="86">
         <v>9</v>
       </c>
-      <c r="R7" s="114" t="s">
+      <c r="R7" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="114" t="s">
+      <c r="S7" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="114" t="s">
+      <c r="T7" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="114" t="s">
+      <c r="U7" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="60" t="s">
+      <c r="V7" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="111">
+      <c r="W7" s="83">
         <v>42416</v>
       </c>
-      <c r="X7" s="65" t="s">
+      <c r="X7" s="62" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2366,29 +2396,29 @@
         <v>142</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="52" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="50" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="34"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="11" t="s">
         <v>171</v>
       </c>
@@ -2410,11 +2440,11 @@
       <c r="U8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="59" t="s">
+      <c r="V8" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="W8" s="59"/>
-      <c r="X8" s="65"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="62"/>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -2430,61 +2460,61 @@
         <v>142</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>7</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40" t="s">
+      <c r="M9" s="38"/>
+      <c r="N9" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="39">
         <v>6</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="R9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="S9" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="T9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="X9" s="64">
+      <c r="X9" s="61">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2666,29 +2696,29 @@
         <v>142</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="52" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="50" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="34"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="11" t="s">
         <v>173</v>
       </c>
@@ -2710,11 +2740,14 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="59" t="s">
+      <c r="V10" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="65"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2730,57 +2763,57 @@
         <v>142</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="115" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="80">
         <v>9</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="83" t="s">
+      <c r="J11" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84" t="s">
+      <c r="M11" s="81"/>
+      <c r="N11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="116" t="s">
+      <c r="O11" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="Q11" s="57">
         <v>6</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="R11" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="60" t="s">
+      <c r="S11" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="117" t="s">
+      <c r="T11" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="60" t="s">
+      <c r="V11" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="111">
+      <c r="W11" s="83">
         <v>42416</v>
       </c>
-      <c r="X11" s="65" t="s">
+      <c r="X11" s="62" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2798,57 +2831,59 @@
         <v>142</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="37">
         <v>10</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="39">
         <v>6</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="59" t="s">
+      <c r="V12" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W12" s="59"/>
-      <c r="X12" s="65"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="61">
+        <v>42418</v>
+      </c>
       <c r="Y12" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,29 +2900,29 @@
         <v>142</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="52" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="50" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="34"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="11" t="s">
         <v>175</v>
       </c>
@@ -2909,11 +2944,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="59" t="s">
+      <c r="V13" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="W13" s="59"/>
-      <c r="X13" s="65"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="62"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2929,59 +2964,59 @@
         <v>142</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="37">
+        <v>12</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>6</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="V14" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="W14" s="56"/>
+      <c r="X14" s="61">
+        <v>42417</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="H14" s="39">
-        <v>12</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="41">
-        <v>6</v>
-      </c>
-      <c r="R14" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="T14" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="U14" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="V14" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="W14" s="59"/>
-      <c r="X14" s="64">
-        <v>42417</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2998,55 +3033,57 @@
         <v>142</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="52" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="37">
         <v>13</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="39">
         <v>6</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="59" t="s">
+      <c r="V15" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W15" s="59"/>
-      <c r="X15" s="65"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="61">
+        <v>42418</v>
+      </c>
     </row>
     <row r="16" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -3062,27 +3099,27 @@
         <v>142</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="50" t="s">
         <v>236</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32" t="s">
         <v>41</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -3106,13 +3143,13 @@
       <c r="U16" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="59" t="s">
+      <c r="V16" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="W16" s="59"/>
-      <c r="X16" s="65"/>
-    </row>
-    <row r="17" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="56"/>
+      <c r="X16" s="62"/>
+    </row>
+    <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -3126,57 +3163,60 @@
         <v>142</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="53" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="117">
         <v>15</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19" t="s">
+      <c r="M17" s="118"/>
+      <c r="N17" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="119">
         <v>6</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="32" t="s">
+      <c r="U17" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="59" t="s">
+      <c r="V17" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="W17" s="59"/>
-      <c r="X17" s="65"/>
-    </row>
-    <row r="18" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="119"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -3190,27 +3230,27 @@
         <v>142</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="52" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="50" t="s">
         <v>151</v>
       </c>
       <c r="H18" s="11">
         <v>16</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34" t="s">
+      <c r="M18" s="32"/>
+      <c r="N18" s="32" t="s">
         <v>39</v>
       </c>
       <c r="O18" s="11" t="s">
@@ -3234,13 +3274,13 @@
       <c r="U18" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="59" t="s">
+      <c r="V18" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="W18" s="59"/>
-      <c r="X18" s="65"/>
-    </row>
-    <row r="19" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="56"/>
+      <c r="X18" s="62"/>
+    </row>
+    <row r="19" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -3256,57 +3296,57 @@
       <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="54" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="52">
         <v>17</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56" t="s">
+      <c r="M19" s="53"/>
+      <c r="N19" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="55" t="s">
+      <c r="O19" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="54">
         <v>6</v>
       </c>
-      <c r="R19" s="57" t="s">
+      <c r="R19" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="57" t="s">
+      <c r="S19" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="58" t="s">
+      <c r="T19" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="66" t="s">
+      <c r="V19" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="W19" s="66"/>
-      <c r="X19" s="67"/>
-    </row>
-    <row r="20" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W19" s="63"/>
+      <c r="X19" s="64"/>
+    </row>
+    <row r="20" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
@@ -3320,57 +3360,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="65"/>
+      <c r="G20" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="70">
         <v>18</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="74" t="s">
+      <c r="K20" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74" t="s">
+      <c r="M20" s="71"/>
+      <c r="N20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="73" t="s">
+      <c r="O20" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="73" t="s">
+      <c r="P20" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="75">
+      <c r="Q20" s="72">
         <v>6</v>
       </c>
-      <c r="R20" s="75" t="s">
+      <c r="R20" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="75" t="s">
+      <c r="S20" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="76" t="s">
+      <c r="T20" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="75" t="s">
+      <c r="U20" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="62" t="s">
+      <c r="V20" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="W20" s="62"/>
-      <c r="X20" s="63"/>
-    </row>
-    <row r="21" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="59"/>
+      <c r="X20" s="60"/>
+    </row>
+    <row r="21" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
@@ -3384,17 +3424,17 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="77" t="s">
+      <c r="F21" s="65"/>
+      <c r="G21" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="33" t="s">
         <v>163</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -3407,10 +3447,10 @@
       <c r="N21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="35" t="s">
+      <c r="P21" s="33" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="5">
@@ -3428,13 +3468,13 @@
       <c r="U21" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="59" t="s">
+      <c r="V21" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="W21" s="59"/>
-      <c r="X21" s="65"/>
-    </row>
-    <row r="22" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W21" s="56"/>
+      <c r="X21" s="62"/>
+    </row>
+    <row r="22" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
@@ -3448,11 +3488,11 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="77" t="s">
+      <c r="F22" s="65"/>
+      <c r="G22" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="33">
         <v>20</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -3471,10 +3511,10 @@
       <c r="N22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="35" t="s">
+      <c r="O22" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="35" t="s">
+      <c r="P22" s="33" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="5">
@@ -3492,13 +3532,13 @@
       <c r="U22" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="59" t="s">
+      <c r="V22" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="W22" s="59"/>
-      <c r="X22" s="65"/>
-    </row>
-    <row r="23" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W22" s="56"/>
+      <c r="X22" s="62"/>
+    </row>
+    <row r="23" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
@@ -3512,17 +3552,17 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="77" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="33">
         <v>21</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="33" t="s">
         <v>243</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -3535,10 +3575,10 @@
       <c r="N23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="35" t="s">
+      <c r="O23" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="35" t="s">
+      <c r="P23" s="33" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="5">
@@ -3556,13 +3596,13 @@
       <c r="U23" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="59" t="s">
+      <c r="V23" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="59"/>
-      <c r="X23" s="65"/>
-    </row>
-    <row r="24" spans="1:24" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W23" s="56"/>
+      <c r="X23" s="62"/>
+    </row>
+    <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -3576,17 +3616,17 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="77" t="s">
+      <c r="F24" s="65"/>
+      <c r="G24" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="33">
         <v>22</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="33" t="s">
         <v>164</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -3599,10 +3639,10 @@
       <c r="N24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="35" t="s">
+      <c r="O24" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="35" t="s">
+      <c r="P24" s="33" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="5">
@@ -3620,13 +3660,13 @@
       <c r="U24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="59" t="s">
+      <c r="V24" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="W24" s="59"/>
-      <c r="X24" s="65"/>
-    </row>
-    <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W24" s="56"/>
+      <c r="X24" s="62"/>
+    </row>
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3640,11 +3680,11 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="77" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="33">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -3663,10 +3703,10 @@
         <v>117</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="35" t="s">
+      <c r="O25" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="35" t="s">
+      <c r="P25" s="33" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5">
@@ -3684,13 +3724,13 @@
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="59" t="s">
+      <c r="V25" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="W25" s="59"/>
-      <c r="X25" s="65"/>
-    </row>
-    <row r="26" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="56"/>
+      <c r="X25" s="62"/>
+    </row>
+    <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
@@ -3706,437 +3746,437 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="78" t="s">
+      <c r="F26" s="65"/>
+      <c r="G26" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="76">
         <v>24</v>
       </c>
-      <c r="I26" s="80" t="s">
+      <c r="I26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="80" t="s">
+      <c r="L26" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80" t="s">
+      <c r="M26" s="77"/>
+      <c r="N26" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="81">
+      <c r="Q26" s="78">
         <v>6</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="81" t="s">
+      <c r="S26" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="82" t="s">
+      <c r="T26" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="81" t="s">
+      <c r="U26" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="66" t="s">
+      <c r="V26" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="W26" s="66"/>
-      <c r="X26" s="67"/>
-    </row>
-    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="W26" s="63"/>
+      <c r="X26" s="64"/>
+    </row>
+    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="69" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="66">
         <v>25</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27" t="s">
+      <c r="M27" s="26"/>
+      <c r="N27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="69" t="s">
+      <c r="O27" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="69" t="s">
+      <c r="P27" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="70">
+      <c r="Q27" s="67">
         <v>6</v>
       </c>
-      <c r="R27" s="70" t="s">
+      <c r="R27" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="70" t="s">
+      <c r="S27" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="71" t="s">
+      <c r="T27" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="70" t="s">
+      <c r="U27" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="61" t="s">
+      <c r="V27" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-    </row>
-    <row r="28" spans="1:24" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+    </row>
+    <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <v>26</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29" t="s">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="29">
         <v>6</v>
       </c>
-      <c r="R28" s="30" t="s">
+      <c r="R28" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="30" t="s">
+      <c r="S28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="31" t="s">
+      <c r="T28" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="30" t="s">
+      <c r="U28" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="59" t="s">
+      <c r="V28" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-    </row>
-    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+    </row>
+    <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="83" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="83">
+      <c r="H29" s="80">
         <v>27</v>
       </c>
-      <c r="I29" s="84" t="s">
+      <c r="I29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="K29" s="84" t="s">
+      <c r="K29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="84" t="s">
+      <c r="L29" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83" t="s">
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="59" t="s">
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <v>28</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29" t="s">
+      <c r="M30" s="28"/>
+      <c r="N30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="28" t="s">
+      <c r="P30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="29">
         <v>6</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="30" t="s">
+      <c r="S30" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="31" t="s">
+      <c r="T30" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="30" t="s">
+      <c r="U30" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="59" t="s">
+      <c r="V30" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-    </row>
-    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+    </row>
+    <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>29</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29" t="s">
+      <c r="M31" s="28"/>
+      <c r="N31" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28" t="s">
+      <c r="O31" s="27"/>
+      <c r="P31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="29">
         <v>6</v>
       </c>
-      <c r="R31" s="30" t="s">
+      <c r="R31" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="30" t="s">
+      <c r="S31" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="31" t="s">
+      <c r="T31" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="30" t="s">
+      <c r="U31" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="59" t="s">
+      <c r="V31" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-    </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+    </row>
+    <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
     </row>
     <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="25"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="24"/>
       <c r="W33" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="25" t="s">
-        <v>267</v>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>260</v>
@@ -4146,156 +4186,156 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="25" t="s">
-        <v>268</v>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>262</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="24"/>
     </row>
     <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="25"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="24"/>
     </row>
     <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="25"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
     </row>
     <row r="39" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="25"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="24"/>
     </row>
     <row r="40" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
   <si>
     <t>Asignatura</t>
   </si>
@@ -815,9 +815,6 @@
     <t>Reconoce las características de las líneas notables de un triángulo</t>
   </si>
   <si>
-    <t>Faltan 26</t>
-  </si>
-  <si>
     <t>Esperando imágenes</t>
   </si>
   <si>
@@ -830,28 +827,40 @@
     <t>En espera de solicitud gráfica.</t>
   </si>
   <si>
-    <t>En proceso 0</t>
-  </si>
-  <si>
     <t>Recurso regresado al autor</t>
   </si>
   <si>
     <t>Recurso offLine, esperando imágenes, Pedro ya lo subio a GRECO</t>
   </si>
   <si>
-    <t>Listos 9</t>
-  </si>
-  <si>
-    <t>Faltan 20</t>
-  </si>
-  <si>
     <t>En proceso 6</t>
   </si>
   <si>
-    <t>faltan 20</t>
-  </si>
-  <si>
     <t>Regreso a la autora con comentarios 18/02/2016</t>
+  </si>
+  <si>
+    <t>Autora ya desbloqueo</t>
+  </si>
+  <si>
+    <t>autora ya desbloqueo</t>
+  </si>
+  <si>
+    <t>En proceso 2</t>
+  </si>
+  <si>
+    <t>Faltan 24</t>
+  </si>
+  <si>
+    <t>Listos 11</t>
+  </si>
+  <si>
+    <t>Faltan 18</t>
+  </si>
+  <si>
+    <t>Listos 5</t>
+  </si>
+  <si>
+    <t>faltan 18</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1454,21 +1463,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1517,81 +1511,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1611,6 +1530,117 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1919,9 +1949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1953,94 +1983,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="93" t="s">
+      <c r="N1" s="113"/>
+      <c r="O1" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="P1" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="109" t="s">
+      <c r="Q1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="113" t="s">
+      <c r="R1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="109" t="s">
+      <c r="S1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="109" t="s">
+      <c r="U1" s="94" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="100"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="110"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="95"/>
       <c r="V2" s="36" t="s">
         <v>255</v>
       </c>
@@ -2331,51 +2361,51 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="75">
         <v>5</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="80" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="80" t="s">
+      <c r="P7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="86">
+      <c r="Q7" s="81">
         <v>9</v>
       </c>
-      <c r="R7" s="86" t="s">
+      <c r="R7" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="86" t="s">
+      <c r="S7" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="86" t="s">
+      <c r="T7" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="81" t="s">
         <v>221</v>
       </c>
       <c r="V7" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="83">
+      <c r="W7" s="78">
         <v>42416</v>
       </c>
       <c r="X7" s="62" t="s">
@@ -2508,13 +2538,13 @@
         <v>250</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X9" s="61">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2746,7 +2776,7 @@
       <c r="W10" s="56"/>
       <c r="X10" s="62"/>
       <c r="Y10" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,32 +2794,32 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="75">
         <v>9</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="80" t="s">
+      <c r="J11" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81" t="s">
+      <c r="M11" s="76"/>
+      <c r="N11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="88" t="s">
+      <c r="O11" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="80" t="s">
+      <c r="P11" s="75" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="57">
@@ -2801,7 +2831,7 @@
       <c r="S11" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="84" t="s">
         <v>209</v>
       </c>
       <c r="U11" s="57" t="s">
@@ -2810,7 +2840,7 @@
       <c r="V11" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="83">
+      <c r="W11" s="78">
         <v>42416</v>
       </c>
       <c r="X11" s="62" t="s">
@@ -2883,7 +2913,7 @@
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,7 +2996,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="41"/>
       <c r="G14" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14" s="37">
         <v>12</v>
@@ -3016,7 +3046,7 @@
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,7 +3110,7 @@
       <c r="V15" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W15" s="115"/>
+      <c r="W15" s="85"/>
       <c r="X15" s="61">
         <v>42418</v>
       </c>
@@ -3164,56 +3194,56 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="116" t="s">
+      <c r="G17" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="87">
         <v>15</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="117" t="s">
+      <c r="J17" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="118" t="s">
+      <c r="K17" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="118" t="s">
+      <c r="L17" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118" t="s">
+      <c r="M17" s="88"/>
+      <c r="N17" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="117" t="s">
+      <c r="O17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="117" t="s">
+      <c r="P17" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="119">
+      <c r="Q17" s="89">
         <v>6</v>
       </c>
-      <c r="R17" s="119" t="s">
+      <c r="R17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="119" t="s">
+      <c r="S17" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="120" t="s">
+      <c r="T17" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="119" t="s">
+      <c r="U17" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="119" t="s">
+      <c r="V17" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="W17" s="119"/>
-      <c r="X17" s="121"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="91"/>
       <c r="Y17" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3279,6 +3309,9 @@
       </c>
       <c r="W18" s="56"/>
       <c r="X18" s="62"/>
+      <c r="Y18" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3345,6 +3378,9 @@
       </c>
       <c r="W19" s="63"/>
       <c r="X19" s="64"/>
+      <c r="Y19" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3361,54 +3397,58 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="65"/>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="124">
         <v>18</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71" t="s">
+      <c r="M20" s="125"/>
+      <c r="N20" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="70" t="s">
+      <c r="O20" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="70" t="s">
+      <c r="P20" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="126">
         <v>6</v>
       </c>
-      <c r="R20" s="72" t="s">
+      <c r="R20" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="72" t="s">
+      <c r="S20" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="73" t="s">
+      <c r="T20" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="72" t="s">
+      <c r="U20" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="59" t="s">
+      <c r="V20" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="W20" s="59"/>
-      <c r="X20" s="60"/>
+      <c r="W20" s="128">
+        <v>42418</v>
+      </c>
+      <c r="X20" s="60" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="21" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -3425,54 +3465,58 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="65"/>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="118">
         <v>19</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10" t="s">
+      <c r="M21" s="119"/>
+      <c r="N21" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="120">
         <v>6</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="56" t="s">
+      <c r="V21" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W21" s="56"/>
-      <c r="X21" s="62"/>
+      <c r="W21" s="78">
+        <v>42418</v>
+      </c>
+      <c r="X21" s="62" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3489,7 +3533,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="65"/>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="69" t="s">
         <v>241</v>
       </c>
       <c r="H22" s="33">
@@ -3553,7 +3597,7 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="65"/>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="69" t="s">
         <v>154</v>
       </c>
       <c r="H23" s="33">
@@ -3617,7 +3661,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="65"/>
-      <c r="G24" s="74" t="s">
+      <c r="G24" s="69" t="s">
         <v>248</v>
       </c>
       <c r="H24" s="33">
@@ -3681,7 +3725,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="65"/>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="69" t="s">
         <v>155</v>
       </c>
       <c r="H25" s="33">
@@ -3747,47 +3791,47 @@
         <v>127</v>
       </c>
       <c r="F26" s="65"/>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="71">
         <v>24</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77" t="s">
+      <c r="M26" s="72"/>
+      <c r="N26" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="76" t="s">
+      <c r="O26" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="76" t="s">
+      <c r="P26" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="78">
+      <c r="Q26" s="73">
         <v>6</v>
       </c>
-      <c r="R26" s="78" t="s">
+      <c r="R26" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="78" t="s">
+      <c r="S26" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="79" t="s">
+      <c r="T26" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="78" t="s">
+      <c r="U26" s="73" t="s">
         <v>199</v>
       </c>
       <c r="V26" s="63" t="s">
@@ -3939,35 +3983,35 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="75">
         <v>27</v>
       </c>
-      <c r="I29" s="81" t="s">
+      <c r="I29" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="80" t="s">
+      <c r="J29" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80" t="s">
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="80"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="75"/>
       <c r="V29" s="57"/>
       <c r="W29" s="57"/>
       <c r="X29" s="56" t="s">
@@ -4147,10 +4191,10 @@
       <c r="U33" s="23"/>
       <c r="V33" s="24"/>
       <c r="W33" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4176,13 +4220,13 @@
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>260</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4208,13 +4252,13 @@
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="24" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4524,12 +4568,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4544,6 +4582,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="279">
   <si>
     <t>Asignatura</t>
   </si>
@@ -809,9 +809,6 @@
     <t>No se necesita</t>
   </si>
   <si>
-    <t>Listos 3</t>
-  </si>
-  <si>
     <t>Reconoce las características de las líneas notables de un triángulo</t>
   </si>
   <si>
@@ -833,34 +830,40 @@
     <t>Recurso offLine, esperando imágenes, Pedro ya lo subio a GRECO</t>
   </si>
   <si>
-    <t>En proceso 6</t>
-  </si>
-  <si>
-    <t>Regreso a la autora con comentarios 18/02/2016</t>
-  </si>
-  <si>
     <t>Autora ya desbloqueo</t>
   </si>
   <si>
-    <t>autora ya desbloqueo</t>
-  </si>
-  <si>
     <t>En proceso 2</t>
   </si>
   <si>
-    <t>Faltan 24</t>
-  </si>
-  <si>
-    <t>Listos 11</t>
-  </si>
-  <si>
-    <t>Faltan 18</t>
-  </si>
-  <si>
     <t>Listos 5</t>
   </si>
   <si>
-    <t>faltan 18</t>
+    <t>Listos 12</t>
+  </si>
+  <si>
+    <t>Faltan 17</t>
+  </si>
+  <si>
+    <t>Listos 4</t>
+  </si>
+  <si>
+    <t>Faltan 23</t>
+  </si>
+  <si>
+    <t>En proceso 7</t>
+  </si>
+  <si>
+    <t>faltan 17</t>
+  </si>
+  <si>
+    <t>No se encesita</t>
+  </si>
+  <si>
+    <t>Regresado a la autora por falta de imágenes 19/02/2016</t>
+  </si>
+  <si>
+    <t>Recurso off-line enviado a Pedro, esta enc arpeta de Github</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1409,21 +1412,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,9 +1436,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1466,21 +1451,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1514,9 +1484,6 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1529,84 +1496,6 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1625,22 +1514,124 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1949,9 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1983,94 +1974,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="92" t="s">
+      <c r="N1" s="109"/>
+      <c r="O1" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="R1" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="95"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="114"/>
       <c r="V2" s="36" t="s">
         <v>255</v>
       </c>
@@ -2139,11 +2130,11 @@
       <c r="U3" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="60"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="55"/>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2203,11 +2194,11 @@
       <c r="U4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="61">
+      <c r="W4" s="51"/>
+      <c r="X4" s="56">
         <v>42416</v>
       </c>
     </row>
@@ -2269,11 +2260,11 @@
       <c r="U5" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="52" t="s">
         <v>251</v>
       </c>
       <c r="W5" s="31"/>
-      <c r="X5" s="61">
+      <c r="X5" s="56">
         <v>42416</v>
       </c>
     </row>
@@ -2335,11 +2326,11 @@
       <c r="U6" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="57" t="s">
+      <c r="V6" s="52" t="s">
         <v>250</v>
       </c>
       <c r="W6" s="31"/>
-      <c r="X6" s="61">
+      <c r="X6" s="56">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2361,54 +2352,54 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="64">
         <v>5</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="80" t="s">
+      <c r="K7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="76" t="s">
+      <c r="L7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="75" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="70">
         <v>9</v>
       </c>
-      <c r="R7" s="81" t="s">
+      <c r="R7" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="81" t="s">
+      <c r="S7" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="81" t="s">
+      <c r="T7" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="81" t="s">
+      <c r="U7" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="57" t="s">
+      <c r="V7" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="78">
+      <c r="W7" s="67">
         <v>42416</v>
       </c>
-      <c r="X7" s="62" t="s">
+      <c r="X7" s="57" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2470,11 +2461,11 @@
       <c r="U8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="56" t="s">
+      <c r="V8" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="W8" s="56"/>
-      <c r="X8" s="62"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="57"/>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -2534,17 +2525,17 @@
       <c r="U9" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="52" t="s">
         <v>250</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="X9" s="61">
+        <v>261</v>
+      </c>
+      <c r="X9" s="56">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2770,13 +2761,13 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="56" t="s">
+      <c r="V10" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="W10" s="56"/>
-      <c r="X10" s="62"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="57"/>
       <c r="Y10" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,56 +2785,56 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="75">
+      <c r="G11" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="64">
         <v>9</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="76" t="s">
+      <c r="K11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="76" t="s">
+      <c r="L11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76" t="s">
+      <c r="M11" s="65"/>
+      <c r="N11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="75" t="s">
+      <c r="P11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="52">
         <v>6</v>
       </c>
-      <c r="R11" s="57" t="s">
+      <c r="R11" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="57" t="s">
+      <c r="S11" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="84" t="s">
+      <c r="T11" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="57" t="s">
+      <c r="U11" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="57" t="s">
+      <c r="V11" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="78">
+      <c r="W11" s="67">
         <v>42416</v>
       </c>
-      <c r="X11" s="62" t="s">
+      <c r="X11" s="57" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2905,15 +2896,15 @@
       <c r="U12" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="57" t="s">
+      <c r="V12" s="52" t="s">
         <v>251</v>
       </c>
       <c r="W12" s="31"/>
-      <c r="X12" s="61">
+      <c r="X12" s="56">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2974,11 +2965,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="56" t="s">
+      <c r="V13" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="W13" s="56"/>
-      <c r="X13" s="62"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="57"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2996,7 +2987,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="41"/>
       <c r="G14" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H14" s="37">
         <v>12</v>
@@ -3038,15 +3029,15 @@
       <c r="U14" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="57" t="s">
+      <c r="V14" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W14" s="56"/>
-      <c r="X14" s="61">
+      <c r="W14" s="51"/>
+      <c r="X14" s="56">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3107,11 +3098,11 @@
       <c r="U15" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="57" t="s">
+      <c r="V15" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="W15" s="85"/>
-      <c r="X15" s="61">
+      <c r="W15" s="74"/>
+      <c r="X15" s="56">
         <v>42418</v>
       </c>
     </row>
@@ -3173,11 +3164,11 @@
       <c r="U16" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="56" t="s">
+      <c r="V16" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W16" s="56"/>
-      <c r="X16" s="62"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="57"/>
     </row>
     <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3194,56 +3185,58 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="37">
         <v>15</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="87" t="s">
+      <c r="J17" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="88" t="s">
+      <c r="K17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="87" t="s">
+      <c r="O17" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="87" t="s">
+      <c r="P17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q17" s="39">
         <v>6</v>
       </c>
-      <c r="R17" s="89" t="s">
+      <c r="R17" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="89" t="s">
+      <c r="S17" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="90" t="s">
+      <c r="T17" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="89" t="s">
+      <c r="U17" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="89" t="s">
+      <c r="V17" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W17" s="89"/>
-      <c r="X17" s="91"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="56">
+        <v>42419</v>
+      </c>
       <c r="Y17" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3261,56 +3254,55 @@
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="37">
         <v>16</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="39">
         <v>6</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="U18" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="56" t="s">
+      <c r="V18" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W18" s="56"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="3" t="s">
-        <v>271</v>
+      <c r="W18" s="31"/>
+      <c r="X18" s="56">
+        <v>42419</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3330,56 +3322,57 @@
         <v>127</v>
       </c>
       <c r="F19" s="41"/>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="86">
         <v>17</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53" t="s">
+      <c r="M19" s="87"/>
+      <c r="N19" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="52" t="s">
+      <c r="O19" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="88">
         <v>6</v>
       </c>
-      <c r="R19" s="54" t="s">
+      <c r="R19" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="54" t="s">
+      <c r="S19" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="54" t="s">
+      <c r="U19" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="63" t="s">
+      <c r="V19" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="W19" s="63"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="3" t="s">
-        <v>270</v>
+      <c r="W19" s="91">
+        <v>42419</v>
+      </c>
+      <c r="X19" s="92">
+        <v>42419</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3396,57 +3389,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="123" t="s">
+      <c r="F20" s="59"/>
+      <c r="G20" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="124">
+      <c r="H20" s="121">
         <v>18</v>
       </c>
-      <c r="I20" s="125" t="s">
+      <c r="I20" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="124" t="s">
+      <c r="J20" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="125" t="s">
+      <c r="K20" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="125" t="s">
+      <c r="L20" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125" t="s">
+      <c r="M20" s="122"/>
+      <c r="N20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="124" t="s">
+      <c r="O20" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="124" t="s">
+      <c r="P20" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="126">
+      <c r="Q20" s="84">
         <v>6</v>
       </c>
-      <c r="R20" s="126" t="s">
+      <c r="R20" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="126" t="s">
+      <c r="S20" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="127" t="s">
+      <c r="T20" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="126" t="s">
+      <c r="U20" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="122" t="s">
+      <c r="V20" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="W20" s="128">
+      <c r="W20" s="119">
         <v>42418</v>
       </c>
-      <c r="X20" s="60" t="s">
+      <c r="X20" s="55" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3464,57 +3457,57 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="117" t="s">
+      <c r="F21" s="59"/>
+      <c r="G21" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="118">
+      <c r="H21" s="80">
         <v>19</v>
       </c>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="118" t="s">
+      <c r="J21" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="119" t="s">
+      <c r="K21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="119" t="s">
+      <c r="L21" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119" t="s">
+      <c r="M21" s="81"/>
+      <c r="N21" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="118" t="s">
+      <c r="O21" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="118" t="s">
+      <c r="P21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="120">
+      <c r="Q21" s="82">
         <v>6</v>
       </c>
-      <c r="R21" s="120" t="s">
+      <c r="R21" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="120" t="s">
+      <c r="S21" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="121" t="s">
+      <c r="T21" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="120" t="s">
+      <c r="U21" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="57" t="s">
+      <c r="V21" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="W21" s="78">
+      <c r="W21" s="67">
         <v>42418</v>
       </c>
-      <c r="X21" s="62" t="s">
+      <c r="X21" s="57" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3532,55 +3525,57 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="59"/>
+      <c r="G22" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="37">
         <v>20</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="s">
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="33" t="s">
+      <c r="P22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="39">
         <v>6</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="56" t="s">
+      <c r="V22" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W22" s="56"/>
-      <c r="X22" s="62"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="56">
+        <v>42419</v>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3596,55 +3591,62 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="80">
         <v>21</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10" t="s">
+      <c r="M23" s="81"/>
+      <c r="N23" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="82">
         <v>6</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="56" t="s">
+      <c r="V23" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="56"/>
-      <c r="X23" s="62"/>
+      <c r="W23" s="124">
+        <v>42419</v>
+      </c>
+      <c r="X23" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -3660,8 +3662,8 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="59"/>
+      <c r="G24" s="63" t="s">
         <v>248</v>
       </c>
       <c r="H24" s="33">
@@ -3704,11 +3706,11 @@
       <c r="U24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="56" t="s">
+      <c r="V24" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W24" s="56"/>
-      <c r="X24" s="62"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="57"/>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3724,8 +3726,8 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="63" t="s">
         <v>155</v>
       </c>
       <c r="H25" s="33">
@@ -3768,11 +3770,11 @@
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="56" t="s">
+      <c r="V25" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="W25" s="56"/>
-      <c r="X25" s="62"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="57"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3790,55 +3792,57 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="70" t="s">
+      <c r="F26" s="59"/>
+      <c r="G26" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="86">
         <v>24</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="I26" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72" t="s">
+      <c r="M26" s="87"/>
+      <c r="N26" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="71" t="s">
+      <c r="O26" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="71" t="s">
+      <c r="P26" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q26" s="88">
         <v>6</v>
       </c>
-      <c r="R26" s="73" t="s">
+      <c r="R26" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="73" t="s">
+      <c r="S26" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="74" t="s">
+      <c r="T26" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="73" t="s">
+      <c r="U26" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="63" t="s">
+      <c r="V26" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="W26" s="63"/>
-      <c r="X26" s="64"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="92">
+        <v>42419</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
@@ -3855,16 +3859,16 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="60">
         <v>25</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="60" t="s">
         <v>194</v>
       </c>
       <c r="K27" s="26" t="s">
@@ -3877,32 +3881,32 @@
       <c r="N27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="66" t="s">
+      <c r="O27" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="66" t="s">
+      <c r="P27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="67">
+      <c r="Q27" s="61">
         <v>6</v>
       </c>
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="67" t="s">
+      <c r="S27" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="68" t="s">
+      <c r="T27" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="67" t="s">
+      <c r="U27" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="58" t="s">
+      <c r="V27" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
@@ -3962,11 +3966,11 @@
       <c r="U28" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="56" t="s">
+      <c r="V28" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
@@ -3983,38 +3987,38 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="64">
         <v>27</v>
       </c>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="76" t="s">
+      <c r="L29" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75" t="s">
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="56" t="s">
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="51" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4076,11 +4080,11 @@
       <c r="U30" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="56" t="s">
+      <c r="V30" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
@@ -4100,49 +4104,52 @@
       <c r="G31" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="75">
         <v>29</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28" t="s">
+      <c r="M31" s="76"/>
+      <c r="N31" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27" t="s">
+      <c r="O31" s="75"/>
+      <c r="P31" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="77">
         <v>6</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="29" t="s">
+      <c r="S31" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="30" t="s">
+      <c r="T31" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="29" t="s">
+      <c r="U31" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="56" t="s">
+      <c r="V31" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
@@ -4191,10 +4198,10 @@
       <c r="U33" s="23"/>
       <c r="V33" s="24"/>
       <c r="W33" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4220,13 +4227,13 @@
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4252,13 +4259,13 @@
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>273</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4568,6 +4575,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4582,12 +4595,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="279">
   <si>
     <t>Asignatura</t>
   </si>
@@ -833,30 +833,12 @@
     <t>Autora ya desbloqueo</t>
   </si>
   <si>
-    <t>En proceso 2</t>
-  </si>
-  <si>
     <t>Listos 5</t>
   </si>
   <si>
-    <t>Listos 12</t>
-  </si>
-  <si>
-    <t>Faltan 17</t>
-  </si>
-  <si>
     <t>Listos 4</t>
   </si>
   <si>
-    <t>Faltan 23</t>
-  </si>
-  <si>
-    <t>En proceso 7</t>
-  </si>
-  <si>
-    <t>faltan 17</t>
-  </si>
-  <si>
     <t>No se encesita</t>
   </si>
   <si>
@@ -864,6 +846,24 @@
   </si>
   <si>
     <t>Recurso off-line enviado a Pedro, esta enc arpeta de Github</t>
+  </si>
+  <si>
+    <t>En proceso 3</t>
+  </si>
+  <si>
+    <t>Faltan 22</t>
+  </si>
+  <si>
+    <t>En proceso 9</t>
+  </si>
+  <si>
+    <t>faltan 15</t>
+  </si>
+  <si>
+    <t>Listos 14</t>
+  </si>
+  <si>
+    <t>Faltan 15</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,12 +1029,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1484,18 +1478,6 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1541,81 +1523,6 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1633,6 +1540,84 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1940,9 +1925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1974,94 +1959,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="97" t="s">
+      <c r="N1" s="112"/>
+      <c r="O1" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="113" t="s">
+      <c r="S1" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="115" t="s">
+      <c r="T1" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="113" t="s">
+      <c r="U1" s="116" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="104"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="107"/>
       <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="114"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="117"/>
       <c r="V2" s="36" t="s">
         <v>255</v>
       </c>
@@ -3236,7 +3221,7 @@
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3322,56 +3307,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="41"/>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="82">
         <v>17</v>
       </c>
-      <c r="I19" s="87" t="s">
+      <c r="I19" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="83"/>
+      <c r="N19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="86" t="s">
+      <c r="O19" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="86" t="s">
+      <c r="P19" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="88">
+      <c r="Q19" s="84">
         <v>6</v>
       </c>
-      <c r="R19" s="88" t="s">
+      <c r="R19" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="88" t="s">
+      <c r="S19" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="89" t="s">
+      <c r="T19" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="88" t="s">
+      <c r="U19" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="90" t="s">
+      <c r="V19" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="W19" s="91">
+      <c r="W19" s="87">
         <v>42419</v>
       </c>
-      <c r="X19" s="92">
+      <c r="X19" s="88">
         <v>42419</v>
       </c>
     </row>
@@ -3390,53 +3375,53 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="120" t="s">
+      <c r="G20" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="92">
         <v>18</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="121" t="s">
+      <c r="J20" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="122" t="s">
+      <c r="K20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="122" t="s">
+      <c r="L20" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122" t="s">
+      <c r="M20" s="93"/>
+      <c r="N20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="121" t="s">
+      <c r="O20" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="121" t="s">
+      <c r="P20" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="84">
+      <c r="Q20" s="80">
         <v>6</v>
       </c>
-      <c r="R20" s="84" t="s">
+      <c r="R20" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="84" t="s">
+      <c r="S20" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="123" t="s">
+      <c r="T20" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="84" t="s">
+      <c r="U20" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="84" t="s">
+      <c r="V20" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="W20" s="119">
+      <c r="W20" s="90">
         <v>42418</v>
       </c>
       <c r="X20" s="55" t="s">
@@ -3458,47 +3443,47 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="76">
         <v>19</v>
       </c>
-      <c r="I21" s="81" t="s">
+      <c r="I21" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="80" t="s">
+      <c r="J21" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81" t="s">
+      <c r="M21" s="77"/>
+      <c r="N21" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="80" t="s">
+      <c r="O21" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="80" t="s">
+      <c r="P21" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="78">
         <v>6</v>
       </c>
-      <c r="R21" s="82" t="s">
+      <c r="R21" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="82" t="s">
+      <c r="S21" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="83" t="s">
+      <c r="T21" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="82" t="s">
+      <c r="U21" s="78" t="s">
         <v>199</v>
       </c>
       <c r="V21" s="52" t="s">
@@ -3535,7 +3520,7 @@
       <c r="I22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="93" t="s">
+      <c r="J22" s="89" t="s">
         <v>242</v>
       </c>
       <c r="K22" s="38" t="s">
@@ -3592,57 +3577,57 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="59"/>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="76">
         <v>21</v>
       </c>
-      <c r="I23" s="81" t="s">
+      <c r="I23" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="80" t="s">
+      <c r="J23" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="81" t="s">
+      <c r="K23" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="81" t="s">
+      <c r="L23" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81" t="s">
+      <c r="M23" s="77"/>
+      <c r="N23" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="80" t="s">
+      <c r="O23" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="80" t="s">
+      <c r="P23" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="82">
+      <c r="Q23" s="78">
         <v>6</v>
       </c>
-      <c r="R23" s="82" t="s">
+      <c r="R23" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="82" t="s">
+      <c r="S23" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="83" t="s">
+      <c r="T23" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="82" t="s">
+      <c r="U23" s="78" t="s">
         <v>199</v>
       </c>
       <c r="V23" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="124">
+      <c r="W23" s="95">
         <v>42419</v>
       </c>
       <c r="X23" s="57" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>267</v>
@@ -3793,54 +3778,54 @@
         <v>127</v>
       </c>
       <c r="F26" s="59"/>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="82">
         <v>24</v>
       </c>
-      <c r="I26" s="87" t="s">
+      <c r="I26" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="87" t="s">
+      <c r="K26" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="87" t="s">
+      <c r="L26" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87" t="s">
+      <c r="M26" s="83"/>
+      <c r="N26" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="86" t="s">
+      <c r="O26" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="86" t="s">
+      <c r="P26" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="88">
+      <c r="Q26" s="84">
         <v>6</v>
       </c>
-      <c r="R26" s="88" t="s">
+      <c r="R26" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="88" t="s">
+      <c r="S26" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="89" t="s">
+      <c r="T26" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="88" t="s">
+      <c r="U26" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="88" t="s">
+      <c r="V26" s="84" t="s">
         <v>251</v>
       </c>
       <c r="W26" s="58"/>
-      <c r="X26" s="92">
+      <c r="X26" s="88">
         <v>42419</v>
       </c>
     </row>
@@ -4037,54 +4022,56 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="37">
         <v>28</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28" t="s">
+      <c r="M30" s="38"/>
+      <c r="N30" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="39">
         <v>6</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="S30" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="30" t="s">
+      <c r="T30" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="29" t="s">
+      <c r="U30" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="51" t="s">
+      <c r="V30" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="96">
+        <v>42420</v>
+      </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
@@ -4101,54 +4088,58 @@
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="37">
         <v>29</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="75" t="s">
+      <c r="J31" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="76" t="s">
+      <c r="K31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="76" t="s">
+      <c r="L31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76" t="s">
+      <c r="M31" s="38"/>
+      <c r="N31" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75" t="s">
+      <c r="O31" s="37"/>
+      <c r="P31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="77">
+      <c r="Q31" s="39">
         <v>6</v>
       </c>
-      <c r="R31" s="77" t="s">
+      <c r="R31" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="77" t="s">
+      <c r="S31" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="78" t="s">
+      <c r="T31" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="77" t="s">
+      <c r="U31" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="77" t="s">
+      <c r="V31" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
+      <c r="W31" s="95">
+        <v>42420</v>
+      </c>
+      <c r="X31" s="96">
+        <v>42420</v>
+      </c>
       <c r="Y31" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4198,10 +4189,10 @@
       <c r="U33" s="23"/>
       <c r="V33" s="24"/>
       <c r="W33" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4227,13 +4218,13 @@
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="24" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4259,13 +4250,13 @@
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="24" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
   <si>
     <t>Asignatura</t>
   </si>
@@ -761,9 +761,6 @@
     <t>Actividad para practicar los conceptos sobre cuadriláteros</t>
   </si>
   <si>
-    <t>Competencias: la construcción de líneas notables de un triángulo</t>
-  </si>
-  <si>
     <t>Actividad parar demostrar las propiedades de los cuadriláteros a partir del trabajo con papel</t>
   </si>
   <si>
@@ -854,16 +851,22 @@
     <t>Faltan 22</t>
   </si>
   <si>
-    <t>En proceso 9</t>
-  </si>
-  <si>
-    <t>faltan 15</t>
-  </si>
-  <si>
-    <t>Listos 14</t>
-  </si>
-  <si>
-    <t>Faltan 15</t>
+    <t>Listos 15</t>
+  </si>
+  <si>
+    <t>Faltan 14</t>
+  </si>
+  <si>
+    <t>En proceso 10</t>
+  </si>
+  <si>
+    <t>faltan 14</t>
+  </si>
+  <si>
+    <t>Competencias: Las líneas notables de un triángulo</t>
+  </si>
+  <si>
+    <t>Recurso offline en la carpeta de github</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1385,21 +1388,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1415,9 +1403,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1544,6 +1529,27 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1618,6 +1624,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1925,9 +1937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1959,102 +1971,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="100" t="s">
+      <c r="N1" s="113"/>
+      <c r="O1" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="116" t="s">
+      <c r="Q1" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="S1" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="118" t="s">
+      <c r="T1" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="116" t="s">
+      <c r="U1" s="117" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="107"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="117"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="118"/>
       <c r="V2" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="35" t="s">
         <v>256</v>
-      </c>
-      <c r="X2" s="35" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:190" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2072,54 +2084,58 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="93">
         <v>1</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="45" t="s">
+      <c r="N3" s="94"/>
+      <c r="O3" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="95">
         <v>6</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="55"/>
+      <c r="V3" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="W3" s="91">
+        <v>42422</v>
+      </c>
+      <c r="X3" s="97">
+        <v>42422</v>
+      </c>
     </row>
     <row r="4" spans="1:190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2136,8 +2152,8 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="49" t="s">
-        <v>247</v>
+      <c r="G4" s="44" t="s">
+        <v>246</v>
       </c>
       <c r="H4" s="37">
         <v>2</v>
@@ -2179,11 +2195,11 @@
       <c r="U4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="56">
+      <c r="V4" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="W4" s="46"/>
+      <c r="X4" s="50">
         <v>42416</v>
       </c>
     </row>
@@ -2202,7 +2218,7 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="41"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="44" t="s">
         <v>143</v>
       </c>
       <c r="H5" s="37">
@@ -2245,11 +2261,11 @@
       <c r="U5" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="52" t="s">
-        <v>251</v>
+      <c r="V5" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="W5" s="31"/>
-      <c r="X5" s="56">
+      <c r="X5" s="50">
         <v>42416</v>
       </c>
     </row>
@@ -2268,7 +2284,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="44" t="s">
         <v>144</v>
       </c>
       <c r="H6" s="37">
@@ -2311,15 +2327,15 @@
       <c r="U6" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="52" t="s">
-        <v>250</v>
+      <c r="V6" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="W6" s="31"/>
-      <c r="X6" s="56">
+      <c r="X6" s="50">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2337,55 +2353,55 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="58">
         <v>5</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="64" t="s">
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="64" t="s">
+      <c r="P7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="64">
         <v>9</v>
       </c>
-      <c r="R7" s="70" t="s">
+      <c r="R7" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="S7" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="70" t="s">
+      <c r="T7" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="70" t="s">
+      <c r="U7" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="52" t="s">
+      <c r="V7" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="61">
         <v>42416</v>
       </c>
-      <c r="X7" s="57" t="s">
-        <v>259</v>
+      <c r="X7" s="51" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,7 +2419,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="41"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="45" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="11">
@@ -2446,11 +2462,11 @@
       <c r="U8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="57"/>
+      <c r="V8" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="W8" s="46"/>
+      <c r="X8" s="51"/>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -2467,7 +2483,7 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="42"/>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="44" t="s">
         <v>147</v>
       </c>
       <c r="H9" s="37">
@@ -2510,17 +2526,17 @@
       <c r="U9" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="52" t="s">
-        <v>250</v>
+      <c r="V9" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="X9" s="56">
+        <v>260</v>
+      </c>
+      <c r="X9" s="50">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2703,7 +2719,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="45" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="11">
@@ -2746,13 +2762,13 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="W10" s="51"/>
-      <c r="X10" s="57"/>
+      <c r="V10" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="W10" s="46"/>
+      <c r="X10" s="51"/>
       <c r="Y10" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,57 +2786,57 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" s="64">
+      <c r="G11" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="58">
         <v>9</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="72" t="s">
+      <c r="O11" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="64" t="s">
+      <c r="P11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="47">
         <v>6</v>
       </c>
-      <c r="R11" s="52" t="s">
+      <c r="R11" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="73" t="s">
+      <c r="T11" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="52" t="s">
+      <c r="U11" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="W11" s="67">
+      <c r="V11" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="W11" s="61">
         <v>42416</v>
       </c>
-      <c r="X11" s="57" t="s">
-        <v>259</v>
+      <c r="X11" s="51" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2838,7 +2854,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="44" t="s">
         <v>148</v>
       </c>
       <c r="H12" s="37">
@@ -2881,15 +2897,15 @@
       <c r="U12" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="52" t="s">
-        <v>251</v>
+      <c r="V12" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="W12" s="31"/>
-      <c r="X12" s="56">
+      <c r="X12" s="50">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2923,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="41"/>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="45" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="11">
@@ -2950,11 +2966,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="W13" s="51"/>
-      <c r="X13" s="57"/>
+      <c r="V13" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="W13" s="46"/>
+      <c r="X13" s="51"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2971,8 +2987,8 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="41"/>
-      <c r="G14" s="49" t="s">
-        <v>262</v>
+      <c r="G14" s="44" t="s">
+        <v>261</v>
       </c>
       <c r="H14" s="37">
         <v>12</v>
@@ -3014,15 +3030,15 @@
       <c r="U14" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="W14" s="51"/>
-      <c r="X14" s="56">
+      <c r="V14" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="W14" s="46"/>
+      <c r="X14" s="50">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3040,7 +3056,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="44" t="s">
         <v>234</v>
       </c>
       <c r="H15" s="37">
@@ -3083,11 +3099,11 @@
       <c r="U15" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="W15" s="74"/>
-      <c r="X15" s="56">
+      <c r="V15" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="W15" s="68"/>
+      <c r="X15" s="50">
         <v>42418</v>
       </c>
     </row>
@@ -3106,7 +3122,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="45" t="s">
         <v>236</v>
       </c>
       <c r="H16" s="11">
@@ -3149,11 +3165,11 @@
       <c r="U16" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="W16" s="51"/>
-      <c r="X16" s="57"/>
+      <c r="V16" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="W16" s="46"/>
+      <c r="X16" s="51"/>
     </row>
     <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3170,7 +3186,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="44" t="s">
         <v>150</v>
       </c>
       <c r="H17" s="37">
@@ -3213,15 +3229,15 @@
       <c r="U17" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="52" t="s">
-        <v>250</v>
+      <c r="V17" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="W17" s="31"/>
-      <c r="X17" s="56">
+      <c r="X17" s="50">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3239,7 +3255,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="44" t="s">
         <v>151</v>
       </c>
       <c r="H18" s="37">
@@ -3282,11 +3298,11 @@
       <c r="U18" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="52" t="s">
-        <v>250</v>
+      <c r="V18" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="W18" s="31"/>
-      <c r="X18" s="56">
+      <c r="X18" s="50">
         <v>42419</v>
       </c>
     </row>
@@ -3307,56 +3323,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="41"/>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="76">
         <v>17</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="I19" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="82" t="s">
+      <c r="J19" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="83" t="s">
+      <c r="L19" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83" t="s">
+      <c r="M19" s="77"/>
+      <c r="N19" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="82" t="s">
+      <c r="O19" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="82" t="s">
+      <c r="P19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="78">
         <v>6</v>
       </c>
-      <c r="R19" s="84" t="s">
+      <c r="R19" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="84" t="s">
+      <c r="S19" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="85" t="s">
+      <c r="T19" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="84" t="s">
+      <c r="U19" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="W19" s="87">
+      <c r="V19" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="W19" s="81">
         <v>42419</v>
       </c>
-      <c r="X19" s="88">
+      <c r="X19" s="82">
         <v>42419</v>
       </c>
     </row>
@@ -3374,58 +3390,58 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="91" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="86">
         <v>18</v>
       </c>
-      <c r="I20" s="93" t="s">
+      <c r="I20" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="92" t="s">
+      <c r="J20" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="93" t="s">
+      <c r="K20" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="93" t="s">
+      <c r="L20" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93" t="s">
+      <c r="M20" s="87"/>
+      <c r="N20" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="92" t="s">
+      <c r="O20" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="92" t="s">
+      <c r="P20" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="80">
+      <c r="Q20" s="74">
         <v>6</v>
       </c>
-      <c r="R20" s="80" t="s">
+      <c r="R20" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="S20" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="94" t="s">
+      <c r="T20" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="80" t="s">
+      <c r="U20" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="W20" s="90">
+      <c r="V20" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="W20" s="84">
         <v>42418</v>
       </c>
-      <c r="X20" s="55" t="s">
-        <v>259</v>
+      <c r="X20" s="49" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,58 +3458,58 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="75" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="70">
         <v>19</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="76" t="s">
+      <c r="J21" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77" t="s">
+      <c r="M21" s="71"/>
+      <c r="N21" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="76" t="s">
+      <c r="O21" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="76" t="s">
+      <c r="P21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="78">
+      <c r="Q21" s="72">
         <v>6</v>
       </c>
-      <c r="R21" s="78" t="s">
+      <c r="R21" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="78" t="s">
+      <c r="S21" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="79" t="s">
+      <c r="T21" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="78" t="s">
+      <c r="U21" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="W21" s="67">
+      <c r="V21" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="W21" s="61">
         <v>42418</v>
       </c>
-      <c r="X21" s="57" t="s">
-        <v>259</v>
+      <c r="X21" s="51" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3510,8 +3526,8 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="44" t="s">
         <v>241</v>
       </c>
       <c r="H22" s="37">
@@ -3520,7 +3536,7 @@
       <c r="I22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="89" t="s">
+      <c r="J22" s="83" t="s">
         <v>242</v>
       </c>
       <c r="K22" s="38" t="s">
@@ -3554,11 +3570,11 @@
       <c r="U22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="52" t="s">
-        <v>250</v>
+      <c r="V22" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="W22" s="31"/>
-      <c r="X22" s="56">
+      <c r="X22" s="50">
         <v>42419</v>
       </c>
     </row>
@@ -3576,61 +3592,61 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="75" t="s">
+      <c r="F23" s="53"/>
+      <c r="G23" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="70">
         <v>21</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="77" t="s">
+      <c r="L23" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77" t="s">
+      <c r="M23" s="71"/>
+      <c r="N23" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="76" t="s">
+      <c r="O23" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="76" t="s">
+      <c r="P23" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="78">
+      <c r="Q23" s="72">
         <v>6</v>
       </c>
-      <c r="R23" s="78" t="s">
+      <c r="R23" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="78" t="s">
+      <c r="S23" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="79" t="s">
+      <c r="T23" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="78" t="s">
+      <c r="U23" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="W23" s="95">
+      <c r="V23" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="W23" s="89">
         <v>42419</v>
       </c>
-      <c r="X23" s="57" t="s">
-        <v>270</v>
+      <c r="X23" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3647,9 +3663,9 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="63" t="s">
-        <v>248</v>
+      <c r="F24" s="53"/>
+      <c r="G24" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="H24" s="33">
         <v>22</v>
@@ -3691,11 +3707,11 @@
       <c r="U24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="W24" s="51"/>
-      <c r="X24" s="57"/>
+      <c r="V24" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="W24" s="46"/>
+      <c r="X24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3711,8 +3727,8 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="63" t="s">
+      <c r="F25" s="53"/>
+      <c r="G25" s="57" t="s">
         <v>155</v>
       </c>
       <c r="H25" s="33">
@@ -3722,7 +3738,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -3755,11 +3771,11 @@
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="W25" s="51"/>
-      <c r="X25" s="57"/>
+      <c r="V25" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="W25" s="46"/>
+      <c r="X25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3777,55 +3793,55 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="81" t="s">
+      <c r="F26" s="53"/>
+      <c r="G26" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="76">
         <v>24</v>
       </c>
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="82" t="s">
+      <c r="J26" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="83" t="s">
+      <c r="K26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="83" t="s">
+      <c r="L26" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83" t="s">
+      <c r="M26" s="77"/>
+      <c r="N26" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="82" t="s">
+      <c r="O26" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="82" t="s">
+      <c r="P26" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="84">
+      <c r="Q26" s="78">
         <v>6</v>
       </c>
-      <c r="R26" s="84" t="s">
+      <c r="R26" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="84" t="s">
+      <c r="S26" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="85" t="s">
+      <c r="T26" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="84" t="s">
+      <c r="U26" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="88">
+      <c r="V26" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="W26" s="52"/>
+      <c r="X26" s="82">
         <v>42419</v>
       </c>
     </row>
@@ -3844,16 +3860,16 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" s="60">
+      <c r="G27" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="54">
         <v>25</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J27" s="54" t="s">
         <v>194</v>
       </c>
       <c r="K27" s="26" t="s">
@@ -3866,32 +3882,37 @@
       <c r="N27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="60" t="s">
+      <c r="O27" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="60" t="s">
+      <c r="P27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="61">
+      <c r="Q27" s="55">
         <v>6</v>
       </c>
-      <c r="R27" s="61" t="s">
+      <c r="R27" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="61" t="s">
+      <c r="S27" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="62" t="s">
+      <c r="T27" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="61" t="s">
+      <c r="U27" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
+      <c r="V27" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="W27" s="48"/>
+      <c r="X27" s="124">
+        <v>42422</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
@@ -3918,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K28" s="28" t="s">
         <v>20</v>
@@ -3951,11 +3972,11 @@
       <c r="U28" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
+      <c r="V28" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
@@ -3972,39 +3993,39 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="58">
         <v>27</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" s="65" t="s">
+      <c r="J29" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64" t="s">
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="51" t="s">
-        <v>259</v>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="46" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4065,11 +4086,11 @@
       <c r="U30" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="52" t="s">
-        <v>251</v>
+      <c r="V30" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="W30" s="31"/>
-      <c r="X30" s="96">
+      <c r="X30" s="90">
         <v>42420</v>
       </c>
     </row>
@@ -4129,17 +4150,17 @@
       <c r="U31" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="W31" s="95">
+      <c r="V31" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="W31" s="89">
         <v>42420</v>
       </c>
-      <c r="X31" s="96">
+      <c r="X31" s="90">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4189,10 +4210,10 @@
       <c r="U33" s="23"/>
       <c r="V33" s="24"/>
       <c r="W33" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4218,13 +4239,13 @@
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4250,13 +4271,13 @@
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="281">
   <si>
     <t>Asignatura</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>Recurso offline en la carpeta de github</t>
+  </si>
+  <si>
+    <t>Cambio de recurso, enviado a Oliver</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1340,15 +1343,6 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1418,15 +1412,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1550,85 +1535,97 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1937,9 +1934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="G24:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1947,7 @@
     <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="51.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="6" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
     <col min="10" max="10" width="53" style="3" customWidth="1"/>
@@ -1960,7 +1957,7 @@
     <col min="14" max="14" width="8.28515625" style="3" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" style="6" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
@@ -1971,101 +1968,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="101" t="s">
+      <c r="N1" s="115"/>
+      <c r="O1" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="121" t="s">
+      <c r="R1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="117" t="s">
+      <c r="S1" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="117" t="s">
+      <c r="U1" s="96" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="43" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="36" t="s">
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="32" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2083,57 +2080,57 @@
         <v>142</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="87">
         <v>1</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="94"/>
-      <c r="O3" s="93" t="s">
+      <c r="N3" s="88"/>
+      <c r="O3" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="93" t="s">
+      <c r="P3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="95">
+      <c r="Q3" s="89">
         <v>6</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="95" t="s">
+      <c r="S3" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="96" t="s">
+      <c r="T3" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="U3" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="74" t="s">
+      <c r="V3" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="91">
+      <c r="W3" s="85">
         <v>42422</v>
       </c>
-      <c r="X3" s="97">
+      <c r="X3" s="91">
         <v>42422</v>
       </c>
     </row>
@@ -2151,55 +2148,55 @@
         <v>142</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="34">
         <v>2</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
+      <c r="M4" s="35"/>
+      <c r="N4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="36">
         <v>6</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="50">
+      <c r="W4" s="43"/>
+      <c r="X4" s="47">
         <v>42416</v>
       </c>
     </row>
@@ -2217,55 +2214,55 @@
         <v>142</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="34">
         <v>3</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="36">
         <v>6</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="50">
+      <c r="W5" s="28"/>
+      <c r="X5" s="47">
         <v>42416</v>
       </c>
     </row>
@@ -2283,55 +2280,55 @@
         <v>142</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="34">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="36">
         <v>6</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="V6" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="50">
+      <c r="W6" s="28"/>
+      <c r="X6" s="47">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2352,55 +2349,55 @@
         <v>142</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="62" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="52">
         <v>5</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="58">
         <v>9</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="64" t="s">
+      <c r="T7" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="64" t="s">
+      <c r="U7" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="47" t="s">
+      <c r="V7" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="61">
+      <c r="W7" s="55">
         <v>42416</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="48" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2418,29 +2415,29 @@
         <v>142</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="11" t="s">
         <v>171</v>
       </c>
@@ -2462,11 +2459,11 @@
       <c r="U8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="46" t="s">
+      <c r="V8" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="46"/>
-      <c r="X8" s="51"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="48"/>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -2482,57 +2479,57 @@
         <v>142</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="44" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="34">
         <v>7</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="36">
         <v>6</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="X9" s="50">
+      <c r="X9" s="47">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
@@ -2718,29 +2715,29 @@
         <v>142</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="42" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="32"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="11" t="s">
         <v>173</v>
       </c>
@@ -2762,11 +2759,11 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="46" t="s">
+      <c r="V10" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="51"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -2785,57 +2782,57 @@
         <v>142</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="52">
         <v>9</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="s">
+      <c r="M11" s="53"/>
+      <c r="N11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="66" t="s">
+      <c r="O11" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="44">
         <v>6</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="S11" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="67" t="s">
+      <c r="T11" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="61">
+      <c r="W11" s="55">
         <v>42416</v>
       </c>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="48" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2853,55 +2850,55 @@
         <v>142</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="34">
         <v>10</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
+      <c r="M12" s="35"/>
+      <c r="N12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="36">
         <v>6</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="S12" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="39" t="s">
+      <c r="U12" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="47" t="s">
+      <c r="V12" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="50">
+      <c r="W12" s="28"/>
+      <c r="X12" s="47">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -2922,29 +2919,29 @@
         <v>142</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="45" t="s">
+      <c r="F13" s="38"/>
+      <c r="G13" s="42" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="11" t="s">
         <v>175</v>
       </c>
@@ -2966,11 +2963,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="51"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="48"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2986,55 +2983,55 @@
         <v>142</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="34">
         <v>12</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
+      <c r="M14" s="35"/>
+      <c r="N14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="36">
         <v>6</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="T14" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="47" t="s">
+      <c r="V14" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="50">
+      <c r="W14" s="43"/>
+      <c r="X14" s="47">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3055,55 +3052,55 @@
         <v>142</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="34">
         <v>13</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
+      <c r="M15" s="35"/>
+      <c r="N15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="36">
         <v>6</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="T15" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="39" t="s">
+      <c r="U15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="47" t="s">
+      <c r="V15" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="68"/>
-      <c r="X15" s="50">
+      <c r="W15" s="62"/>
+      <c r="X15" s="47">
         <v>42418</v>
       </c>
     </row>
@@ -3121,27 +3118,27 @@
         <v>142</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="45" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="42" t="s">
         <v>236</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32" t="s">
+      <c r="M16" s="29"/>
+      <c r="N16" s="29" t="s">
         <v>41</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -3165,11 +3162,11 @@
       <c r="U16" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="46" t="s">
+      <c r="V16" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W16" s="46"/>
-      <c r="X16" s="51"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="48"/>
     </row>
     <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3185,55 +3182,55 @@
         <v>142</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <v>15</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
+      <c r="M17" s="35"/>
+      <c r="N17" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="36">
         <v>6</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="40" t="s">
+      <c r="T17" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="39" t="s">
+      <c r="U17" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="47" t="s">
+      <c r="V17" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="50">
+      <c r="W17" s="28"/>
+      <c r="X17" s="47">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3254,55 +3251,55 @@
         <v>142</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="44" t="s">
+      <c r="F18" s="38"/>
+      <c r="G18" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="34">
         <v>16</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
+      <c r="M18" s="35"/>
+      <c r="N18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="36">
         <v>6</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="S18" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="40" t="s">
+      <c r="T18" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="39" t="s">
+      <c r="U18" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="47" t="s">
+      <c r="V18" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="31"/>
-      <c r="X18" s="50">
+      <c r="W18" s="28"/>
+      <c r="X18" s="47">
         <v>42419</v>
       </c>
     </row>
@@ -3322,57 +3319,57 @@
       <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="75" t="s">
+      <c r="F19" s="38"/>
+      <c r="G19" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="70">
         <v>17</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77" t="s">
+      <c r="M19" s="71"/>
+      <c r="N19" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="76" t="s">
+      <c r="O19" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="76" t="s">
+      <c r="P19" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="78">
+      <c r="Q19" s="72">
         <v>6</v>
       </c>
-      <c r="R19" s="78" t="s">
+      <c r="R19" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="78" t="s">
+      <c r="S19" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="79" t="s">
+      <c r="T19" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="78" t="s">
+      <c r="U19" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="80" t="s">
+      <c r="V19" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="81">
+      <c r="W19" s="75">
         <v>42419</v>
       </c>
-      <c r="X19" s="82">
+      <c r="X19" s="76">
         <v>42419</v>
       </c>
     </row>
@@ -3390,57 +3387,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="85" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="80">
         <v>18</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="I20" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="87" t="s">
+      <c r="L20" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87" t="s">
+      <c r="M20" s="81"/>
+      <c r="N20" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="86" t="s">
+      <c r="O20" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="86" t="s">
+      <c r="P20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="68">
         <v>6</v>
       </c>
-      <c r="R20" s="74" t="s">
+      <c r="R20" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="74" t="s">
+      <c r="S20" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="88" t="s">
+      <c r="T20" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="74" t="s">
+      <c r="U20" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="74" t="s">
+      <c r="V20" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="84">
+      <c r="W20" s="78">
         <v>42418</v>
       </c>
-      <c r="X20" s="49" t="s">
+      <c r="X20" s="46" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3458,57 +3455,57 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="64">
         <v>19</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71" t="s">
+      <c r="M21" s="65"/>
+      <c r="N21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="70" t="s">
+      <c r="O21" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="70" t="s">
+      <c r="P21" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="66">
         <v>6</v>
       </c>
-      <c r="R21" s="72" t="s">
+      <c r="R21" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="72" t="s">
+      <c r="U21" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="47" t="s">
+      <c r="V21" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="61">
+      <c r="W21" s="55">
         <v>42418</v>
       </c>
-      <c r="X21" s="51" t="s">
+      <c r="X21" s="48" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3526,55 +3523,55 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="44" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="34">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="83" t="s">
+      <c r="J22" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
+      <c r="M22" s="35"/>
+      <c r="N22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="36">
         <v>6</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="40" t="s">
+      <c r="T22" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="39" t="s">
+      <c r="U22" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="47" t="s">
+      <c r="V22" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="31"/>
-      <c r="X22" s="50">
+      <c r="W22" s="28"/>
+      <c r="X22" s="47">
         <v>42419</v>
       </c>
     </row>
@@ -3592,57 +3589,57 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="64">
         <v>21</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="71" t="s">
+      <c r="L23" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71" t="s">
+      <c r="M23" s="65"/>
+      <c r="N23" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="70" t="s">
+      <c r="O23" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="70" t="s">
+      <c r="P23" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="66">
         <v>6</v>
       </c>
-      <c r="R23" s="72" t="s">
+      <c r="R23" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="72" t="s">
+      <c r="S23" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="73" t="s">
+      <c r="T23" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="72" t="s">
+      <c r="U23" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="47" t="s">
+      <c r="V23" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="89">
+      <c r="W23" s="83">
         <v>42419</v>
       </c>
-      <c r="X23" s="51" t="s">
+      <c r="X23" s="48" t="s">
         <v>269</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -3663,55 +3660,60 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="57" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="34">
         <v>22</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="33" t="s">
+      <c r="M24" s="35"/>
+      <c r="N24" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="36">
         <v>6</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="46" t="s">
+      <c r="V24" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="46"/>
-      <c r="X24" s="51"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="47">
+        <v>42423</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3727,11 +3729,11 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="57" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="30">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -3750,10 +3752,10 @@
         <v>117</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="33" t="s">
+      <c r="O25" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5">
@@ -3771,11 +3773,11 @@
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="46" t="s">
+      <c r="V25" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="46"/>
-      <c r="X25" s="51"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="48"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3793,55 +3795,55 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="75" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="70">
         <v>24</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77" t="s">
+      <c r="M26" s="71"/>
+      <c r="N26" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="76" t="s">
+      <c r="O26" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="76" t="s">
+      <c r="P26" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="78">
+      <c r="Q26" s="72">
         <v>6</v>
       </c>
-      <c r="R26" s="78" t="s">
+      <c r="R26" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="78" t="s">
+      <c r="S26" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="79" t="s">
+      <c r="T26" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="78" t="s">
+      <c r="U26" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="78" t="s">
+      <c r="V26" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="52"/>
-      <c r="X26" s="82">
+      <c r="W26" s="49"/>
+      <c r="X26" s="76">
         <v>42419</v>
       </c>
     </row>
@@ -3860,54 +3862,54 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="119">
         <v>25</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26" t="s">
+      <c r="M27" s="120"/>
+      <c r="N27" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="54" t="s">
+      <c r="O27" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="54" t="s">
+      <c r="P27" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="121">
         <v>6</v>
       </c>
-      <c r="R27" s="55" t="s">
+      <c r="R27" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="55" t="s">
+      <c r="S27" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="56" t="s">
+      <c r="T27" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="55" t="s">
+      <c r="U27" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="123" t="s">
+      <c r="V27" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="48"/>
-      <c r="X27" s="124">
+      <c r="W27" s="45"/>
+      <c r="X27" s="93">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3929,54 +3931,59 @@
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="34">
         <v>26</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28" t="s">
+      <c r="M28" s="35"/>
+      <c r="N28" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="36">
         <v>6</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="30" t="s">
+      <c r="T28" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="29" t="s">
+      <c r="U28" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="46" t="s">
+      <c r="V28" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="84">
+        <v>42423</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
@@ -3993,38 +4000,38 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="52">
         <v>27</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58" t="s">
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="46" t="s">
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="43" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4043,54 +4050,54 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="34">
         <v>28</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38" t="s">
+      <c r="M30" s="35"/>
+      <c r="N30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="37" t="s">
+      <c r="O30" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="37" t="s">
+      <c r="P30" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="36">
         <v>6</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="39" t="s">
+      <c r="S30" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="40" t="s">
+      <c r="T30" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="39" t="s">
+      <c r="U30" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="47" t="s">
+      <c r="V30" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="90">
+      <c r="W30" s="28"/>
+      <c r="X30" s="84">
         <v>42420</v>
       </c>
     </row>
@@ -4109,54 +4116,54 @@
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="34">
         <v>29</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38" t="s">
+      <c r="M31" s="35"/>
+      <c r="N31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37" t="s">
+      <c r="O31" s="34"/>
+      <c r="P31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="36">
         <v>6</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="39" t="s">
+      <c r="S31" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="40" t="s">
+      <c r="T31" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="39" t="s">
+      <c r="U31" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="47" t="s">
+      <c r="V31" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="89">
+      <c r="W31" s="83">
         <v>42420</v>
       </c>
-      <c r="X31" s="90">
+      <c r="X31" s="84">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4587,12 +4594,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4607,6 +4608,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1448,21 +1448,6 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1508,9 +1493,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1541,81 +1523,6 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1627,6 +1534,81 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,9 +1916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U24" sqref="G24:U24"/>
+      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,94 +1950,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="115"/>
-      <c r="O1" s="94" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="96" t="s">
+      <c r="S1" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="98" t="s">
+      <c r="T1" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="111" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="110"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="102"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="97"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="112"/>
       <c r="V2" s="33" t="s">
         <v>254</v>
       </c>
@@ -2081,56 +2063,56 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="81">
         <v>1</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="87" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="87" t="s">
+      <c r="P3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="89">
+      <c r="Q3" s="83">
         <v>6</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="89" t="s">
+      <c r="U3" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="68" t="s">
+      <c r="V3" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="85">
+      <c r="W3" s="79">
         <v>42422</v>
       </c>
-      <c r="X3" s="91">
+      <c r="X3" s="85">
         <v>42422</v>
       </c>
     </row>
@@ -3320,56 +3302,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="38"/>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="65">
         <v>17</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="70" t="s">
+      <c r="J19" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71" t="s">
+      <c r="M19" s="66"/>
+      <c r="N19" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="70" t="s">
+      <c r="O19" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="70" t="s">
+      <c r="P19" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="67">
         <v>6</v>
       </c>
-      <c r="R19" s="72" t="s">
+      <c r="R19" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="72" t="s">
+      <c r="S19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="73" t="s">
+      <c r="T19" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="72" t="s">
+      <c r="U19" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="74" t="s">
+      <c r="V19" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="75">
+      <c r="W19" s="70">
         <v>42419</v>
       </c>
-      <c r="X19" s="76">
+      <c r="X19" s="71">
         <v>42419</v>
       </c>
     </row>
@@ -3388,53 +3370,53 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="50"/>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="75">
         <v>18</v>
       </c>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="80" t="s">
+      <c r="J20" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="81" t="s">
+      <c r="K20" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L20" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81" t="s">
+      <c r="M20" s="76"/>
+      <c r="N20" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="80" t="s">
+      <c r="O20" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="80" t="s">
+      <c r="P20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="63">
         <v>6</v>
       </c>
-      <c r="R20" s="68" t="s">
+      <c r="R20" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="68" t="s">
+      <c r="S20" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="82" t="s">
+      <c r="T20" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="68" t="s">
+      <c r="U20" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="68" t="s">
+      <c r="V20" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="78">
+      <c r="W20" s="73">
         <v>42418</v>
       </c>
       <c r="X20" s="46" t="s">
@@ -3456,47 +3438,47 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="50"/>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="52">
         <v>19</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65" t="s">
+      <c r="M21" s="53"/>
+      <c r="N21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="64" t="s">
+      <c r="O21" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="64" t="s">
+      <c r="P21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="66">
+      <c r="Q21" s="44">
         <v>6</v>
       </c>
-      <c r="R21" s="66" t="s">
+      <c r="R21" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="66" t="s">
+      <c r="S21" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="67" t="s">
+      <c r="T21" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="66" t="s">
+      <c r="U21" s="44" t="s">
         <v>199</v>
       </c>
       <c r="V21" s="44" t="s">
@@ -3533,7 +3515,7 @@
       <c r="I22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="72" t="s">
         <v>242</v>
       </c>
       <c r="K22" s="35" t="s">
@@ -3590,53 +3572,53 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="50"/>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="52">
         <v>21</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65" t="s">
+      <c r="M23" s="53"/>
+      <c r="N23" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="64" t="s">
+      <c r="O23" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="64" t="s">
+      <c r="P23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q23" s="44">
         <v>6</v>
       </c>
-      <c r="R23" s="66" t="s">
+      <c r="R23" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="66" t="s">
+      <c r="S23" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="67" t="s">
+      <c r="T23" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="66" t="s">
+      <c r="U23" s="44" t="s">
         <v>199</v>
       </c>
       <c r="V23" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="83">
+      <c r="W23" s="55">
         <v>42419</v>
       </c>
       <c r="X23" s="48" t="s">
@@ -3796,54 +3778,54 @@
         <v>127</v>
       </c>
       <c r="F26" s="50"/>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="65">
         <v>24</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71" t="s">
+      <c r="M26" s="66"/>
+      <c r="N26" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="70" t="s">
+      <c r="O26" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="70" t="s">
+      <c r="P26" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="72">
+      <c r="Q26" s="67">
         <v>6</v>
       </c>
-      <c r="R26" s="72" t="s">
+      <c r="R26" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="72" t="s">
+      <c r="S26" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="73" t="s">
+      <c r="T26" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="72" t="s">
+      <c r="U26" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="72" t="s">
+      <c r="V26" s="67" t="s">
         <v>250</v>
       </c>
       <c r="W26" s="49"/>
-      <c r="X26" s="76">
+      <c r="X26" s="71">
         <v>42419</v>
       </c>
     </row>
@@ -3862,54 +3844,54 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="119" t="s">
+      <c r="G27" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="119">
+      <c r="H27" s="88">
         <v>25</v>
       </c>
-      <c r="I27" s="120" t="s">
+      <c r="I27" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="119" t="s">
+      <c r="J27" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="120" t="s">
+      <c r="K27" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="120" t="s">
+      <c r="L27" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120" t="s">
+      <c r="M27" s="89"/>
+      <c r="N27" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="119" t="s">
+      <c r="O27" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="119" t="s">
+      <c r="P27" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="121">
+      <c r="Q27" s="90">
         <v>6</v>
       </c>
-      <c r="R27" s="121" t="s">
+      <c r="R27" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="121" t="s">
+      <c r="S27" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="122" t="s">
+      <c r="T27" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="121" t="s">
+      <c r="U27" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="92" t="s">
+      <c r="V27" s="86" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="45"/>
-      <c r="X27" s="93">
+      <c r="X27" s="87">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3978,7 +3960,7 @@
         <v>250</v>
       </c>
       <c r="W28" s="43"/>
-      <c r="X28" s="84">
+      <c r="X28" s="78">
         <v>42423</v>
       </c>
       <c r="Y28" s="3" t="s">
@@ -4097,7 +4079,7 @@
         <v>250</v>
       </c>
       <c r="W30" s="28"/>
-      <c r="X30" s="84">
+      <c r="X30" s="78">
         <v>42420</v>
       </c>
     </row>
@@ -4160,10 +4142,10 @@
       <c r="V31" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="83">
+      <c r="W31" s="55">
         <v>42420</v>
       </c>
-      <c r="X31" s="84">
+      <c r="X31" s="78">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4594,6 +4576,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4608,12 +4596,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="282">
   <si>
     <t>Asignatura</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Cambio de recurso, enviado a Oliver</t>
+  </si>
+  <si>
+    <t>Autor ya desbloqueo</t>
   </si>
 </sst>
 </file>
@@ -1535,6 +1538,30 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1544,12 +1571,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1590,24 +1611,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1916,9 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1950,94 +1953,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="95" t="s">
+      <c r="N1" s="113"/>
+      <c r="O1" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="115" t="s">
+      <c r="R1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="113" t="s">
+      <c r="T1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="U1" s="94" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="112"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="95"/>
       <c r="V2" s="33" t="s">
         <v>254</v>
       </c>
@@ -3760,6 +3763,9 @@
       </c>
       <c r="W25" s="43"/>
       <c r="X25" s="48"/>
+      <c r="Y25" s="3" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -4576,12 +4582,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4596,6 +4596,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1538,12 +1538,63 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1560,57 +1611,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1919,9 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1953,94 +1953,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="92" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="R1" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="111" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="102"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="95"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="112"/>
       <c r="V2" s="33" t="s">
         <v>254</v>
       </c>
@@ -4582,6 +4582,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4596,12 +4602,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1538,6 +1538,30 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1547,12 +1571,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1593,24 +1611,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
@@ -1953,94 +1953,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="95" t="s">
+      <c r="N1" s="113"/>
+      <c r="O1" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="115" t="s">
+      <c r="R1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="113" t="s">
+      <c r="T1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="U1" s="94" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="112"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="95"/>
       <c r="V2" s="33" t="s">
         <v>254</v>
       </c>
@@ -4582,12 +4582,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4602,6 +4596,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1538,12 +1538,63 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1560,57 +1611,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1921,7 +1921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1953,94 +1953,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="92" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="R1" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="111" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="102"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="95"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="112"/>
       <c r="V2" s="33" t="s">
         <v>254</v>
       </c>
@@ -4582,6 +4582,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4596,12 +4602,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
   <si>
     <t>Asignatura</t>
   </si>
@@ -867,12 +867,6 @@
   </si>
   <si>
     <t>Recurso offline en la carpeta de github</t>
-  </si>
-  <si>
-    <t>Cambio de recurso, enviado a Oliver</t>
-  </si>
-  <si>
-    <t>Autor ya desbloqueo</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1346,6 +1340,15 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1415,6 +1418,15 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1451,6 +1463,21 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1496,6 +1523,9 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1520,98 +1550,86 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1919,9 +1937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1932,7 +1950,7 @@
     <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="6" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
     <col min="10" max="10" width="53" style="3" customWidth="1"/>
@@ -1942,7 +1960,7 @@
     <col min="14" max="14" width="8.28515625" style="3" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" style="6" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="6" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
@@ -1953,101 +1971,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="95" t="s">
+      <c r="N1" s="113"/>
+      <c r="O1" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="115" t="s">
+      <c r="R1" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="113" t="s">
+      <c r="T1" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="U1" s="117" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="40" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="33" t="s">
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="35" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2065,57 +2083,57 @@
         <v>142</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="93">
         <v>1</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="81" t="s">
+      <c r="N3" s="94"/>
+      <c r="O3" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="83">
+      <c r="Q3" s="95">
         <v>6</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="83" t="s">
+      <c r="U3" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="79">
+      <c r="W3" s="91">
         <v>42422</v>
       </c>
-      <c r="X3" s="85">
+      <c r="X3" s="97">
         <v>42422</v>
       </c>
     </row>
@@ -2133,55 +2151,55 @@
         <v>142</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="37">
         <v>2</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="39">
         <v>6</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T4" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="U4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="V4" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="43"/>
-      <c r="X4" s="47">
+      <c r="W4" s="46"/>
+      <c r="X4" s="50">
         <v>42416</v>
       </c>
     </row>
@@ -2199,55 +2217,55 @@
         <v>142</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="37">
         <v>3</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="39">
         <v>6</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="47">
+      <c r="W5" s="31"/>
+      <c r="X5" s="50">
         <v>42416</v>
       </c>
     </row>
@@ -2265,55 +2283,55 @@
         <v>142</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="37">
         <v>4</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="39">
         <v>6</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="36" t="s">
+      <c r="U6" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="V6" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W6" s="28"/>
-      <c r="X6" s="47">
+      <c r="W6" s="31"/>
+      <c r="X6" s="50">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2334,55 +2352,55 @@
         <v>142</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="58">
         <v>5</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="52" t="s">
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="64">
         <v>9</v>
       </c>
-      <c r="R7" s="58" t="s">
+      <c r="R7" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="58" t="s">
+      <c r="S7" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="58" t="s">
+      <c r="T7" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="58" t="s">
+      <c r="U7" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="44" t="s">
+      <c r="V7" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="55">
+      <c r="W7" s="61">
         <v>42416</v>
       </c>
-      <c r="X7" s="48" t="s">
+      <c r="X7" s="51" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2400,29 +2418,29 @@
         <v>142</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="45" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="29"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="11" t="s">
         <v>171</v>
       </c>
@@ -2444,11 +2462,11 @@
       <c r="U8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="43" t="s">
+      <c r="V8" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="43"/>
-      <c r="X8" s="48"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="51"/>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
@@ -2464,57 +2482,57 @@
         <v>142</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="41" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="37">
         <v>7</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35" t="s">
+      <c r="M9" s="38"/>
+      <c r="N9" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="39">
         <v>6</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="36" t="s">
+      <c r="U9" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="X9" s="47">
+      <c r="X9" s="50">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
@@ -2700,29 +2718,29 @@
         <v>142</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="42" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="45" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="29"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="11" t="s">
         <v>173</v>
       </c>
@@ -2744,11 +2762,11 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="43" t="s">
+      <c r="V10" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="43"/>
-      <c r="X10" s="48"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="51"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -2767,57 +2785,57 @@
         <v>142</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="59" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="58">
         <v>9</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="60" t="s">
+      <c r="O11" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="47">
         <v>6</v>
       </c>
-      <c r="R11" s="44" t="s">
+      <c r="R11" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S11" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="61" t="s">
+      <c r="T11" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="44" t="s">
+      <c r="V11" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="55">
+      <c r="W11" s="61">
         <v>42416</v>
       </c>
-      <c r="X11" s="48" t="s">
+      <c r="X11" s="51" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2835,55 +2853,55 @@
         <v>142</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="37">
         <v>10</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35" t="s">
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="39">
         <v>6</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="37" t="s">
+      <c r="T12" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="36" t="s">
+      <c r="U12" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="V12" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="47">
+      <c r="W12" s="31"/>
+      <c r="X12" s="50">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -2904,29 +2922,29 @@
         <v>142</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="45" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="11" t="s">
         <v>175</v>
       </c>
@@ -2948,11 +2966,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="43" t="s">
+      <c r="V13" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="43"/>
-      <c r="X13" s="48"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="51"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2968,55 +2986,55 @@
         <v>142</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="37">
         <v>12</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35" t="s">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="39">
         <v>6</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="U14" s="36" t="s">
+      <c r="U14" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="44" t="s">
+      <c r="V14" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W14" s="43"/>
-      <c r="X14" s="47">
+      <c r="W14" s="46"/>
+      <c r="X14" s="50">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3037,55 +3055,55 @@
         <v>142</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="37">
         <v>13</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="39">
         <v>6</v>
       </c>
-      <c r="R15" s="36" t="s">
+      <c r="R15" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="36" t="s">
+      <c r="U15" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="62"/>
-      <c r="X15" s="47">
+      <c r="W15" s="68"/>
+      <c r="X15" s="50">
         <v>42418</v>
       </c>
     </row>
@@ -3103,27 +3121,27 @@
         <v>142</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="42" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="45" t="s">
         <v>236</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32" t="s">
         <v>41</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -3147,11 +3165,11 @@
       <c r="U16" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="43" t="s">
+      <c r="V16" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W16" s="43"/>
-      <c r="X16" s="48"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="51"/>
     </row>
     <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3167,55 +3185,55 @@
         <v>142</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="37">
         <v>15</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="39">
         <v>6</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T17" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="36" t="s">
+      <c r="U17" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="44" t="s">
+      <c r="V17" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="47">
+      <c r="W17" s="31"/>
+      <c r="X17" s="50">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3236,55 +3254,55 @@
         <v>142</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="37">
         <v>16</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="39">
         <v>6</v>
       </c>
-      <c r="R18" s="36" t="s">
+      <c r="R18" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="37" t="s">
+      <c r="T18" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="36" t="s">
+      <c r="U18" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="44" t="s">
+      <c r="V18" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="28"/>
-      <c r="X18" s="47">
+      <c r="W18" s="31"/>
+      <c r="X18" s="50">
         <v>42419</v>
       </c>
     </row>
@@ -3304,57 +3322,57 @@
       <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="64" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="76">
         <v>17</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66" t="s">
+      <c r="M19" s="77"/>
+      <c r="N19" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="65" t="s">
+      <c r="P19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="78">
         <v>6</v>
       </c>
-      <c r="R19" s="67" t="s">
+      <c r="R19" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="67" t="s">
+      <c r="S19" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="68" t="s">
+      <c r="T19" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="69" t="s">
+      <c r="V19" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="70">
+      <c r="W19" s="81">
         <v>42419</v>
       </c>
-      <c r="X19" s="71">
+      <c r="X19" s="82">
         <v>42419</v>
       </c>
     </row>
@@ -3372,57 +3390,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="74" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="86">
         <v>18</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="76" t="s">
+      <c r="L20" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76" t="s">
+      <c r="M20" s="87"/>
+      <c r="N20" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="75" t="s">
+      <c r="P20" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="63">
+      <c r="Q20" s="74">
         <v>6</v>
       </c>
-      <c r="R20" s="63" t="s">
+      <c r="R20" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="63" t="s">
+      <c r="S20" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="77" t="s">
+      <c r="T20" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="63" t="s">
+      <c r="U20" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="63" t="s">
+      <c r="V20" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="84">
         <v>42418</v>
       </c>
-      <c r="X20" s="46" t="s">
+      <c r="X20" s="49" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3440,57 +3458,57 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="59" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="70">
         <v>19</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53" t="s">
+      <c r="M21" s="71"/>
+      <c r="N21" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="52" t="s">
+      <c r="O21" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="72">
         <v>6</v>
       </c>
-      <c r="R21" s="44" t="s">
+      <c r="R21" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="61" t="s">
+      <c r="T21" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="44" t="s">
+      <c r="U21" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="44" t="s">
+      <c r="V21" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="55">
+      <c r="W21" s="61">
         <v>42418</v>
       </c>
-      <c r="X21" s="48" t="s">
+      <c r="X21" s="51" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3508,55 +3526,55 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="41" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="37">
         <v>20</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35" t="s">
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="34" t="s">
+      <c r="P22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="39">
         <v>6</v>
       </c>
-      <c r="R22" s="36" t="s">
+      <c r="R22" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="36" t="s">
+      <c r="S22" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="37" t="s">
+      <c r="T22" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="44" t="s">
+      <c r="V22" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="28"/>
-      <c r="X22" s="47">
+      <c r="W22" s="31"/>
+      <c r="X22" s="50">
         <v>42419</v>
       </c>
     </row>
@@ -3574,57 +3592,57 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="59" t="s">
+      <c r="F23" s="53"/>
+      <c r="G23" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="70">
         <v>21</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53" t="s">
+      <c r="M23" s="71"/>
+      <c r="N23" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="O23" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="72">
         <v>6</v>
       </c>
-      <c r="R23" s="44" t="s">
+      <c r="R23" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="S23" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="61" t="s">
+      <c r="T23" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="44" t="s">
+      <c r="U23" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="44" t="s">
+      <c r="V23" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="55">
+      <c r="W23" s="89">
         <v>42419</v>
       </c>
-      <c r="X23" s="48" t="s">
+      <c r="X23" s="51" t="s">
         <v>269</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -3645,60 +3663,55 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <v>22</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="34" t="s">
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="34" t="s">
+      <c r="P24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="5">
         <v>6</v>
       </c>
-      <c r="R24" s="36" t="s">
+      <c r="R24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="36" t="s">
+      <c r="S24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="37" t="s">
+      <c r="T24" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="44" t="s">
+      <c r="V24" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="43"/>
-      <c r="X24" s="47">
-        <v>42423</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="W24" s="46"/>
+      <c r="X24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3714,11 +3727,11 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51" t="s">
+      <c r="F25" s="53"/>
+      <c r="G25" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="33">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -3737,10 +3750,10 @@
         <v>117</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="30" t="s">
+      <c r="O25" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="33" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5">
@@ -3758,14 +3771,11 @@
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="43" t="s">
+      <c r="V25" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="43"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="W25" s="46"/>
+      <c r="X25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3783,55 +3793,55 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="64" t="s">
+      <c r="F26" s="53"/>
+      <c r="G26" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="76">
         <v>24</v>
       </c>
-      <c r="I26" s="66" t="s">
+      <c r="I26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66" t="s">
+      <c r="M26" s="77"/>
+      <c r="N26" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="O26" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="65" t="s">
+      <c r="P26" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="67">
+      <c r="Q26" s="78">
         <v>6</v>
       </c>
-      <c r="R26" s="67" t="s">
+      <c r="R26" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="67" t="s">
+      <c r="S26" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="68" t="s">
+      <c r="T26" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="67" t="s">
+      <c r="U26" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="67" t="s">
+      <c r="V26" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="49"/>
-      <c r="X26" s="71">
+      <c r="W26" s="52"/>
+      <c r="X26" s="82">
         <v>42419</v>
       </c>
     </row>
@@ -3850,54 +3860,54 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="54">
         <v>25</v>
       </c>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="88" t="s">
+      <c r="J27" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="89" t="s">
+      <c r="K27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="89" t="s">
+      <c r="L27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89" t="s">
+      <c r="M27" s="26"/>
+      <c r="N27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="88" t="s">
+      <c r="O27" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="88" t="s">
+      <c r="P27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="90">
+      <c r="Q27" s="55">
         <v>6</v>
       </c>
-      <c r="R27" s="90" t="s">
+      <c r="R27" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="90" t="s">
+      <c r="S27" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="91" t="s">
+      <c r="T27" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="90" t="s">
+      <c r="U27" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="86" t="s">
+      <c r="V27" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="45"/>
-      <c r="X27" s="87">
+      <c r="W27" s="48"/>
+      <c r="X27" s="124">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3919,59 +3929,54 @@
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="27">
         <v>26</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35" t="s">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="34" t="s">
+      <c r="P28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="29">
         <v>6</v>
       </c>
-      <c r="R28" s="36" t="s">
+      <c r="R28" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="36" t="s">
+      <c r="S28" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="37" t="s">
+      <c r="T28" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="36" t="s">
+      <c r="U28" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="44" t="s">
+      <c r="V28" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="43"/>
-      <c r="X28" s="78">
-        <v>42423</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
@@ -3988,38 +3993,38 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="58">
         <v>27</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="52" t="s">
+      <c r="J29" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52" t="s">
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="43" t="s">
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="46" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4038,54 +4043,54 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="37">
         <v>28</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="35" t="s">
+      <c r="L30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35" t="s">
+      <c r="M30" s="38"/>
+      <c r="N30" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="34" t="s">
+      <c r="P30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="39">
         <v>6</v>
       </c>
-      <c r="R30" s="36" t="s">
+      <c r="R30" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="36" t="s">
+      <c r="S30" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="37" t="s">
+      <c r="T30" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="36" t="s">
+      <c r="U30" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="44" t="s">
+      <c r="V30" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="28"/>
-      <c r="X30" s="78">
+      <c r="W30" s="31"/>
+      <c r="X30" s="90">
         <v>42420</v>
       </c>
     </row>
@@ -4104,54 +4109,54 @@
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="37">
         <v>29</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35" t="s">
+      <c r="M31" s="38"/>
+      <c r="N31" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34" t="s">
+      <c r="O31" s="37"/>
+      <c r="P31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="39">
         <v>6</v>
       </c>
-      <c r="R31" s="36" t="s">
+      <c r="R31" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="36" t="s">
+      <c r="S31" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="37" t="s">
+      <c r="T31" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="36" t="s">
+      <c r="U31" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="44" t="s">
+      <c r="V31" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="55">
+      <c r="W31" s="89">
         <v>42420</v>
       </c>
-      <c r="X31" s="78">
+      <c r="X31" s="90">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="281">
   <si>
     <t>Asignatura</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>Recurso offline en la carpeta de github</t>
+  </si>
+  <si>
+    <t>Regreso a la autora (29/02/2016) pues no es clara la solicitud gráfica</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,6 +1035,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1298,9 +1307,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1550,85 +1556,109 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1939,7 +1969,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1971,101 +2001,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="101" t="s">
+      <c r="N1" s="120"/>
+      <c r="O1" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="121" t="s">
+      <c r="R1" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="117" t="s">
+      <c r="S1" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="117" t="s">
+      <c r="U1" s="101" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="43" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="36" t="s">
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="34" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2083,57 +2113,57 @@
         <v>142</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="92">
         <v>1</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="94"/>
-      <c r="O3" s="93" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="93" t="s">
+      <c r="P3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="95">
+      <c r="Q3" s="94">
         <v>6</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="95" t="s">
+      <c r="S3" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="96" t="s">
+      <c r="T3" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="U3" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="74" t="s">
+      <c r="V3" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="91">
+      <c r="W3" s="90">
         <v>42422</v>
       </c>
-      <c r="X3" s="97">
+      <c r="X3" s="96">
         <v>42422</v>
       </c>
     </row>
@@ -2151,55 +2181,55 @@
         <v>142</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="38">
         <v>6</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="50">
+      <c r="W4" s="45"/>
+      <c r="X4" s="49">
         <v>42416</v>
       </c>
     </row>
@@ -2217,55 +2247,55 @@
         <v>142</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>3</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="38">
         <v>6</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="50">
+      <c r="W5" s="30"/>
+      <c r="X5" s="49">
         <v>42416</v>
       </c>
     </row>
@@ -2283,55 +2313,55 @@
         <v>142</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="38">
         <v>6</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="V6" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="50">
+      <c r="W6" s="30"/>
+      <c r="X6" s="49">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2352,55 +2382,55 @@
         <v>142</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="62" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="57">
         <v>5</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58" t="s">
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="63">
         <v>9</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="64" t="s">
+      <c r="T7" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="64" t="s">
+      <c r="U7" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="47" t="s">
+      <c r="V7" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="61">
+      <c r="W7" s="60">
         <v>42416</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="50" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2418,121 +2448,124 @@
         <v>142</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="125">
         <v>6</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="11" t="s">
+      <c r="N8" s="126"/>
+      <c r="O8" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="128">
         <v>6</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="U8" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="46" t="s">
+      <c r="V8" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="46"/>
-      <c r="X8" s="51"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="131" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>7</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
+      <c r="M9" s="37"/>
+      <c r="N9" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="38">
         <v>6</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="V9" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="X9" s="50">
+      <c r="X9" s="49">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
@@ -2718,29 +2751,29 @@
         <v>142</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="44" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="32"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="11" t="s">
         <v>173</v>
       </c>
@@ -2762,11 +2795,11 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="46" t="s">
+      <c r="V10" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="51"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="50"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -2785,57 +2818,57 @@
         <v>142</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="57">
         <v>9</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="s">
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="66" t="s">
+      <c r="O11" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <v>6</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="S11" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="67" t="s">
+      <c r="T11" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="61">
+      <c r="W11" s="60">
         <v>42416</v>
       </c>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="50" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2853,55 +2886,55 @@
         <v>142</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>10</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
+      <c r="M12" s="37"/>
+      <c r="N12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="38">
         <v>6</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="S12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="39" t="s">
+      <c r="U12" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="47" t="s">
+      <c r="V12" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="50">
+      <c r="W12" s="30"/>
+      <c r="X12" s="49">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -2922,29 +2955,29 @@
         <v>142</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="45" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="44" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="11" t="s">
         <v>175</v>
       </c>
@@ -2966,11 +2999,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="51"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="50"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2986,55 +3019,55 @@
         <v>142</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="40"/>
+      <c r="G14" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>12</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="38">
         <v>6</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="T14" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="47" t="s">
+      <c r="V14" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="50">
+      <c r="W14" s="45"/>
+      <c r="X14" s="49">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3055,55 +3088,55 @@
         <v>142</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>13</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
+      <c r="M15" s="37"/>
+      <c r="N15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="38">
         <v>6</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="T15" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="39" t="s">
+      <c r="U15" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="47" t="s">
+      <c r="V15" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="68"/>
-      <c r="X15" s="50">
+      <c r="W15" s="67"/>
+      <c r="X15" s="49">
         <v>42418</v>
       </c>
     </row>
@@ -3121,27 +3154,27 @@
         <v>142</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="45" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="44" t="s">
         <v>236</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32" t="s">
+      <c r="M16" s="31"/>
+      <c r="N16" s="31" t="s">
         <v>41</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -3165,11 +3198,11 @@
       <c r="U16" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="46" t="s">
+      <c r="V16" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="W16" s="46"/>
-      <c r="X16" s="51"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="50"/>
     </row>
     <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3185,55 +3218,55 @@
         <v>142</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44" t="s">
+      <c r="F17" s="40"/>
+      <c r="G17" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>15</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="38">
         <v>6</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="40" t="s">
+      <c r="T17" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="39" t="s">
+      <c r="U17" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="47" t="s">
+      <c r="V17" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="50">
+      <c r="W17" s="30"/>
+      <c r="X17" s="49">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3254,55 +3287,55 @@
         <v>142</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="44" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>16</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
+      <c r="M18" s="37"/>
+      <c r="N18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="38">
         <v>6</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="S18" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="40" t="s">
+      <c r="T18" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="39" t="s">
+      <c r="U18" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="47" t="s">
+      <c r="V18" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="31"/>
-      <c r="X18" s="50">
+      <c r="W18" s="30"/>
+      <c r="X18" s="49">
         <v>42419</v>
       </c>
     </row>
@@ -3322,57 +3355,57 @@
       <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="75" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="75">
         <v>17</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77" t="s">
+      <c r="M19" s="76"/>
+      <c r="N19" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="76" t="s">
+      <c r="O19" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="76" t="s">
+      <c r="P19" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="78">
+      <c r="Q19" s="77">
         <v>6</v>
       </c>
-      <c r="R19" s="78" t="s">
+      <c r="R19" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="78" t="s">
+      <c r="S19" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="79" t="s">
+      <c r="T19" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="78" t="s">
+      <c r="U19" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="80" t="s">
+      <c r="V19" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="81">
+      <c r="W19" s="80">
         <v>42419</v>
       </c>
-      <c r="X19" s="82">
+      <c r="X19" s="81">
         <v>42419</v>
       </c>
     </row>
@@ -3390,57 +3423,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="85" t="s">
+      <c r="F20" s="52"/>
+      <c r="G20" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="85">
         <v>18</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="I20" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="87" t="s">
+      <c r="L20" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87" t="s">
+      <c r="M20" s="86"/>
+      <c r="N20" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="86" t="s">
+      <c r="O20" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="86" t="s">
+      <c r="P20" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="73">
         <v>6</v>
       </c>
-      <c r="R20" s="74" t="s">
+      <c r="R20" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="74" t="s">
+      <c r="S20" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="88" t="s">
+      <c r="T20" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="74" t="s">
+      <c r="U20" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="74" t="s">
+      <c r="V20" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="84">
+      <c r="W20" s="83">
         <v>42418</v>
       </c>
-      <c r="X20" s="49" t="s">
+      <c r="X20" s="48" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3458,57 +3491,57 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="69">
         <v>19</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71" t="s">
+      <c r="M21" s="70"/>
+      <c r="N21" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="70" t="s">
+      <c r="O21" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="70" t="s">
+      <c r="P21" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="71">
         <v>6</v>
       </c>
-      <c r="R21" s="72" t="s">
+      <c r="R21" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="72" t="s">
+      <c r="U21" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="47" t="s">
+      <c r="V21" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="61">
+      <c r="W21" s="60">
         <v>42418</v>
       </c>
-      <c r="X21" s="51" t="s">
+      <c r="X21" s="50" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3526,55 +3559,55 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="44" t="s">
+      <c r="F22" s="52"/>
+      <c r="G22" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="83" t="s">
+      <c r="J22" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
+      <c r="M22" s="37"/>
+      <c r="N22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="38">
         <v>6</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="40" t="s">
+      <c r="T22" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="39" t="s">
+      <c r="U22" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="47" t="s">
+      <c r="V22" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="31"/>
-      <c r="X22" s="50">
+      <c r="W22" s="30"/>
+      <c r="X22" s="49">
         <v>42419</v>
       </c>
     </row>
@@ -3592,57 +3625,57 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="69">
         <v>21</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="71" t="s">
+      <c r="L23" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="70" t="s">
+      <c r="O23" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="70" t="s">
+      <c r="P23" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="71">
         <v>6</v>
       </c>
-      <c r="R23" s="72" t="s">
+      <c r="R23" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="72" t="s">
+      <c r="S23" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="73" t="s">
+      <c r="T23" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="72" t="s">
+      <c r="U23" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="47" t="s">
+      <c r="V23" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="89">
+      <c r="W23" s="88">
         <v>42419</v>
       </c>
-      <c r="X23" s="51" t="s">
+      <c r="X23" s="50" t="s">
         <v>269</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -3663,17 +3696,17 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="57" t="s">
+      <c r="F24" s="52"/>
+      <c r="G24" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>22</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="32" t="s">
         <v>164</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -3686,10 +3719,10 @@
       <c r="N24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="5">
@@ -3701,17 +3734,17 @@
       <c r="S24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="14" t="s">
         <v>201</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="46" t="s">
+      <c r="V24" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="46"/>
-      <c r="X24" s="51"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="50"/>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3727,17 +3760,17 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="57" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="32">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>248</v>
       </c>
       <c r="K25" s="10" t="s">
@@ -3750,10 +3783,10 @@
         <v>117</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="33" t="s">
+      <c r="O25" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5">
@@ -3765,17 +3798,17 @@
       <c r="S25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="14" t="s">
         <v>207</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="46" t="s">
+      <c r="V25" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="46"/>
-      <c r="X25" s="51"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="50"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3793,121 +3826,121 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="75" t="s">
+      <c r="F26" s="52"/>
+      <c r="G26" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="75">
         <v>24</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77" t="s">
+      <c r="M26" s="76"/>
+      <c r="N26" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="76" t="s">
+      <c r="O26" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="76" t="s">
+      <c r="P26" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="78">
+      <c r="Q26" s="77">
         <v>6</v>
       </c>
-      <c r="R26" s="78" t="s">
+      <c r="R26" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="78" t="s">
+      <c r="S26" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="79" t="s">
+      <c r="T26" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="78" t="s">
+      <c r="U26" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="78" t="s">
+      <c r="V26" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="52"/>
-      <c r="X26" s="82">
+      <c r="W26" s="51"/>
+      <c r="X26" s="81">
         <v>42419</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="54" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="53">
         <v>25</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26" t="s">
+      <c r="M27" s="25"/>
+      <c r="N27" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="54" t="s">
+      <c r="O27" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="54" t="s">
+      <c r="P27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="54">
         <v>6</v>
       </c>
-      <c r="R27" s="55" t="s">
+      <c r="R27" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="55" t="s">
+      <c r="S27" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="56" t="s">
+      <c r="T27" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="55" t="s">
+      <c r="U27" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="123" t="s">
+      <c r="V27" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="48"/>
-      <c r="X27" s="124">
+      <c r="W27" s="47"/>
+      <c r="X27" s="98">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3915,248 +3948,248 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>26</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28" t="s">
+      <c r="M28" s="27"/>
+      <c r="N28" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="28">
         <v>6</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="30" t="s">
+      <c r="T28" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="29" t="s">
+      <c r="U28" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="46" t="s">
+      <c r="V28" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="58" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="57">
         <v>27</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58" t="s">
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="46" t="s">
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="45" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="37" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>28</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="37" t="s">
+      <c r="O30" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="37" t="s">
+      <c r="P30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="38">
         <v>6</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="39" t="s">
+      <c r="S30" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="40" t="s">
+      <c r="T30" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="39" t="s">
+      <c r="U30" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="47" t="s">
+      <c r="V30" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="90">
+      <c r="W30" s="30"/>
+      <c r="X30" s="89">
         <v>42420</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="37" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>29</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38" t="s">
+      <c r="M31" s="37"/>
+      <c r="N31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37" t="s">
+      <c r="O31" s="36"/>
+      <c r="P31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="38">
         <v>6</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="39" t="s">
+      <c r="S31" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="40" t="s">
+      <c r="T31" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="39" t="s">
+      <c r="U31" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="47" t="s">
+      <c r="V31" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="89">
+      <c r="W31" s="88">
         <v>42420</v>
       </c>
-      <c r="X31" s="90">
+      <c r="X31" s="89">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4164,51 +4197,51 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
     </row>
     <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="24"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="3" t="s">
         <v>272</v>
       </c>
@@ -4217,28 +4250,28 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="24" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="23" t="s">
         <v>274</v>
       </c>
       <c r="W34" s="3" t="s">
@@ -4249,28 +4282,28 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="24" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="23" t="s">
         <v>275</v>
       </c>
       <c r="W35" s="3" t="s">
@@ -4281,124 +4314,124 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="24"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="23"/>
     </row>
     <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="24"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="23"/>
     </row>
     <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="24"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="23"/>
     </row>
     <row r="39" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="24"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
     </row>
     <row r="40" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -4587,12 +4620,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4607,6 +4634,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
   <si>
     <t>Asignatura</t>
   </si>
@@ -867,9 +867,6 @@
   </si>
   <si>
     <t>Recurso offline en la carpeta de github</t>
-  </si>
-  <si>
-    <t>Regreso a la autora (29/02/2016) pues no es clara la solicitud gráfica</t>
   </si>
 </sst>
 </file>
@@ -929,7 +926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,12 +1032,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1562,12 +1553,63 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1585,81 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1969,7 +1936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2001,94 +1968,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="120"/>
-      <c r="O1" s="99" t="s">
+      <c r="N1" s="114"/>
+      <c r="O1" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="101" t="s">
+      <c r="Q1" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="105" t="s">
+      <c r="R1" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="101" t="s">
+      <c r="S1" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="T1" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="101" t="s">
+      <c r="U1" s="118" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="42" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="102"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="119"/>
       <c r="V2" s="35" t="s">
         <v>254</v>
       </c>
@@ -2449,57 +2416,57 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="36">
         <v>6</v>
       </c>
-      <c r="I8" s="126" t="s">
+      <c r="I8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="126" t="s">
+      <c r="M8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="126"/>
-      <c r="O8" s="125" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="125" t="s">
+      <c r="P8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="128">
+      <c r="Q8" s="38">
         <v>6</v>
       </c>
-      <c r="R8" s="128" t="s">
+      <c r="R8" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="128" t="s">
+      <c r="S8" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="129" t="s">
+      <c r="T8" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="128" t="s">
+      <c r="U8" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="128" t="s">
+      <c r="V8" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="128"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="131" t="s">
-        <v>280</v>
-      </c>
+      <c r="W8" s="30"/>
+      <c r="X8" s="49">
+        <v>42429</v>
+      </c>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -4620,6 +4587,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4634,12 +4607,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1261,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1337,15 +1337,6 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1415,15 +1406,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1551,6 +1533,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,9 +1928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,101 +1962,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="114"/>
-      <c r="O1" s="102" t="s">
+      <c r="N1" s="112"/>
+      <c r="O1" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="118" t="s">
+      <c r="Q1" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="120" t="s">
+      <c r="T1" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="118" t="s">
+      <c r="U1" s="116" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="35" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="31" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2080,57 +2074,57 @@
         <v>142</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="91" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="86">
         <v>1</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="92" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="94">
+      <c r="Q3" s="88">
         <v>6</v>
       </c>
-      <c r="R3" s="94" t="s">
+      <c r="R3" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="94" t="s">
+      <c r="S3" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="95" t="s">
+      <c r="T3" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="U3" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="73" t="s">
+      <c r="V3" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="90">
+      <c r="W3" s="84">
         <v>42422</v>
       </c>
-      <c r="X3" s="96">
+      <c r="X3" s="90">
         <v>42422</v>
       </c>
     </row>
@@ -2148,55 +2142,55 @@
         <v>142</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="33">
         <v>2</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="35">
         <v>6</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="U4" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="45"/>
-      <c r="X4" s="49">
+      <c r="W4" s="42"/>
+      <c r="X4" s="46">
         <v>42416</v>
       </c>
     </row>
@@ -2214,55 +2208,55 @@
         <v>142</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="33">
         <v>3</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="35">
         <v>6</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="49">
+      <c r="W5" s="27"/>
+      <c r="X5" s="46">
         <v>42416</v>
       </c>
     </row>
@@ -2280,55 +2274,55 @@
         <v>142</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="33">
         <v>4</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="35">
         <v>6</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="46" t="s">
+      <c r="V6" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="X6" s="49">
+      <c r="W6" s="27"/>
+      <c r="X6" s="46">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2349,55 +2343,55 @@
         <v>142</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="51">
         <v>5</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="57" t="s">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="63">
+      <c r="Q7" s="57">
         <v>9</v>
       </c>
-      <c r="R7" s="63" t="s">
+      <c r="R7" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="63" t="s">
+      <c r="S7" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="63" t="s">
+      <c r="T7" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="63" t="s">
+      <c r="U7" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="46" t="s">
+      <c r="V7" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="60">
+      <c r="W7" s="54">
         <v>42416</v>
       </c>
-      <c r="X7" s="50" t="s">
+      <c r="X7" s="47" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2415,55 +2409,55 @@
         <v>142</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="43" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="33">
         <v>6</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="34"/>
+      <c r="O8" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="35">
         <v>6</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="46" t="s">
+      <c r="V8" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="49">
+      <c r="W8" s="27"/>
+      <c r="X8" s="46">
         <v>42429</v>
       </c>
       <c r="Y8" s="6"/>
@@ -2482,57 +2476,57 @@
         <v>142</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="33">
         <v>7</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="34"/>
+      <c r="N9" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="35">
         <v>6</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="V9" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="30" t="s">
+      <c r="W9" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="X9" s="49">
+      <c r="X9" s="46">
         <v>42417</v>
       </c>
       <c r="Y9" s="6" t="s">
@@ -2718,29 +2712,29 @@
         <v>142</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="41" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="11" t="s">
         <v>173</v>
       </c>
@@ -2762,11 +2756,11 @@
       <c r="U10" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="45" t="s">
+      <c r="V10" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="50"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="47"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -2785,57 +2779,57 @@
         <v>142</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="64" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="51">
         <v>9</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58" t="s">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="43">
         <v>6</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="46" t="s">
+      <c r="S11" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="66" t="s">
+      <c r="T11" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="46" t="s">
+      <c r="V11" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="60">
+      <c r="W11" s="54">
         <v>42416</v>
       </c>
-      <c r="X11" s="50" t="s">
+      <c r="X11" s="47" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2853,55 +2847,55 @@
         <v>142</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="43" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="33">
         <v>10</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37" t="s">
+      <c r="M12" s="34"/>
+      <c r="N12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="P12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="35">
         <v>6</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="39" t="s">
+      <c r="T12" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="46" t="s">
+      <c r="V12" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="49">
+      <c r="W12" s="27"/>
+      <c r="X12" s="46">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -2922,29 +2916,29 @@
         <v>142</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="44" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="41" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="11" t="s">
         <v>175</v>
       </c>
@@ -2966,11 +2960,11 @@
       <c r="U13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="45" t="s">
+      <c r="V13" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="45"/>
-      <c r="X13" s="50"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="47"/>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2986,55 +2980,55 @@
         <v>142</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="33">
         <v>12</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37" t="s">
+      <c r="M14" s="34"/>
+      <c r="N14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="35">
         <v>6</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="46" t="s">
+      <c r="V14" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W14" s="45"/>
-      <c r="X14" s="49">
+      <c r="W14" s="42"/>
+      <c r="X14" s="46">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3055,55 +3049,55 @@
         <v>142</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="33">
         <v>13</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37" t="s">
+      <c r="M15" s="34"/>
+      <c r="N15" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="35">
         <v>6</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="T15" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="46" t="s">
+      <c r="V15" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="67"/>
-      <c r="X15" s="49">
+      <c r="W15" s="61"/>
+      <c r="X15" s="46">
         <v>42418</v>
       </c>
     </row>
@@ -3121,55 +3115,57 @@
         <v>142</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="44" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="33">
         <v>14</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31" t="s">
+      <c r="M16" s="34"/>
+      <c r="N16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="35">
         <v>6</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="S16" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="U16" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="45" t="s">
+      <c r="V16" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W16" s="45"/>
-      <c r="X16" s="50"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="46">
+        <v>42431</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3185,55 +3181,55 @@
         <v>142</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="43" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="33">
         <v>15</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="34"/>
+      <c r="N17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="35">
         <v>6</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="46" t="s">
+      <c r="V17" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="30"/>
-      <c r="X17" s="49">
+      <c r="W17" s="27"/>
+      <c r="X17" s="46">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3254,55 +3250,55 @@
         <v>142</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="43" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="33">
         <v>16</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37" t="s">
+      <c r="M18" s="34"/>
+      <c r="N18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="36" t="s">
+      <c r="P18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="35">
         <v>6</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="39" t="s">
+      <c r="T18" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="U18" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="46" t="s">
+      <c r="V18" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="49">
+      <c r="W18" s="27"/>
+      <c r="X18" s="46">
         <v>42419</v>
       </c>
     </row>
@@ -3322,57 +3318,57 @@
       <c r="E19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="74" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="69">
         <v>17</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76" t="s">
+      <c r="M19" s="70"/>
+      <c r="N19" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="75" t="s">
+      <c r="O19" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="71">
         <v>6</v>
       </c>
-      <c r="R19" s="77" t="s">
+      <c r="R19" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="77" t="s">
+      <c r="S19" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="78" t="s">
+      <c r="T19" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="77" t="s">
+      <c r="U19" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="79" t="s">
+      <c r="V19" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="80">
+      <c r="W19" s="74">
         <v>42419</v>
       </c>
-      <c r="X19" s="81">
+      <c r="X19" s="75">
         <v>42419</v>
       </c>
     </row>
@@ -3390,57 +3386,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="84" t="s">
+      <c r="F20" s="49"/>
+      <c r="G20" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="79">
         <v>18</v>
       </c>
-      <c r="I20" s="86" t="s">
+      <c r="I20" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86" t="s">
+      <c r="M20" s="80"/>
+      <c r="N20" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="85" t="s">
+      <c r="O20" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="85" t="s">
+      <c r="P20" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="67">
         <v>6</v>
       </c>
-      <c r="R20" s="73" t="s">
+      <c r="R20" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="73" t="s">
+      <c r="S20" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="87" t="s">
+      <c r="T20" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="73" t="s">
+      <c r="U20" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="73" t="s">
+      <c r="V20" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="83">
+      <c r="W20" s="77">
         <v>42418</v>
       </c>
-      <c r="X20" s="48" t="s">
+      <c r="X20" s="45" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3458,57 +3454,57 @@
         <v>192</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="68" t="s">
+      <c r="F21" s="49"/>
+      <c r="G21" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="63">
         <v>19</v>
       </c>
-      <c r="I21" s="70" t="s">
+      <c r="I21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70" t="s">
+      <c r="M21" s="64"/>
+      <c r="N21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="69" t="s">
+      <c r="O21" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="69" t="s">
+      <c r="P21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="65">
         <v>6</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="71" t="s">
+      <c r="S21" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="72" t="s">
+      <c r="T21" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="71" t="s">
+      <c r="U21" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="46" t="s">
+      <c r="V21" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="60">
+      <c r="W21" s="54">
         <v>42418</v>
       </c>
-      <c r="X21" s="50" t="s">
+      <c r="X21" s="47" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3526,55 +3522,55 @@
         <v>192</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="33">
         <v>20</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="J22" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37" t="s">
+      <c r="M22" s="34"/>
+      <c r="N22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="36" t="s">
+      <c r="P22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="35">
         <v>6</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="46" t="s">
+      <c r="V22" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="49">
+      <c r="W22" s="27"/>
+      <c r="X22" s="46">
         <v>42419</v>
       </c>
     </row>
@@ -3592,57 +3588,57 @@
         <v>192</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="68" t="s">
+      <c r="F23" s="49"/>
+      <c r="G23" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="63">
         <v>21</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="I23" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="69" t="s">
+      <c r="J23" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="69" t="s">
+      <c r="O23" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="69" t="s">
+      <c r="P23" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="Q23" s="65">
         <v>6</v>
       </c>
-      <c r="R23" s="71" t="s">
+      <c r="R23" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="71" t="s">
+      <c r="S23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="72" t="s">
+      <c r="T23" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="71" t="s">
+      <c r="U23" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="46" t="s">
+      <c r="V23" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="88">
+      <c r="W23" s="82">
         <v>42419</v>
       </c>
-      <c r="X23" s="50" t="s">
+      <c r="X23" s="47" t="s">
         <v>269</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -3663,55 +3659,57 @@
         <v>192</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="56" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="33">
         <v>22</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10" t="s">
+      <c r="M24" s="34"/>
+      <c r="N24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="35">
         <v>6</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="45" t="s">
+      <c r="V24" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="45"/>
-      <c r="X24" s="50"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="46">
+        <v>42423</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3727,11 +3725,11 @@
         <v>192</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="56" t="s">
+      <c r="F25" s="49"/>
+      <c r="G25" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="29">
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -3750,10 +3748,10 @@
         <v>117</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="32" t="s">
+      <c r="O25" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="5">
@@ -3771,11 +3769,11 @@
       <c r="U25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="45" t="s">
+      <c r="V25" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="45"/>
-      <c r="X25" s="50"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="47"/>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3793,55 +3791,55 @@
       <c r="E26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="74" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="69">
         <v>24</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="76" t="s">
+      <c r="L26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76" t="s">
+      <c r="M26" s="70"/>
+      <c r="N26" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="75" t="s">
+      <c r="O26" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="75" t="s">
+      <c r="P26" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="77">
+      <c r="Q26" s="71">
         <v>6</v>
       </c>
-      <c r="R26" s="77" t="s">
+      <c r="R26" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="77" t="s">
+      <c r="S26" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="78" t="s">
+      <c r="T26" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="77" t="s">
+      <c r="U26" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="77" t="s">
+      <c r="V26" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="51"/>
-      <c r="X26" s="81">
+      <c r="W26" s="48"/>
+      <c r="X26" s="75">
         <v>42419</v>
       </c>
     </row>
@@ -3860,54 +3858,54 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="93">
         <v>25</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25" t="s">
+      <c r="M27" s="94"/>
+      <c r="N27" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="53" t="s">
+      <c r="P27" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="95">
         <v>6</v>
       </c>
-      <c r="R27" s="54" t="s">
+      <c r="R27" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="54" t="s">
+      <c r="S27" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="55" t="s">
+      <c r="T27" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="54" t="s">
+      <c r="U27" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="97" t="s">
+      <c r="V27" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="47"/>
-      <c r="X27" s="98">
+      <c r="W27" s="44"/>
+      <c r="X27" s="92">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3929,54 +3927,56 @@
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="33">
         <v>26</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27" t="s">
+      <c r="M28" s="34"/>
+      <c r="N28" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="26" t="s">
+      <c r="P28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="35">
         <v>6</v>
       </c>
-      <c r="R28" s="28" t="s">
+      <c r="R28" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="28" t="s">
+      <c r="S28" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="28" t="s">
+      <c r="U28" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="45" t="s">
+      <c r="V28" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="83">
+        <v>42423</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
@@ -3993,38 +3993,38 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="51">
         <v>27</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="58" t="s">
+      <c r="K29" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="58" t="s">
+      <c r="L29" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57" t="s">
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="45" t="s">
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="42" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4043,54 +4043,54 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="33">
         <v>28</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="37" t="s">
+      <c r="K30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="L30" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37" t="s">
+      <c r="M30" s="34"/>
+      <c r="N30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="36" t="s">
+      <c r="O30" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="35">
         <v>6</v>
       </c>
-      <c r="R30" s="38" t="s">
+      <c r="R30" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="38" t="s">
+      <c r="S30" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="39" t="s">
+      <c r="T30" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="38" t="s">
+      <c r="U30" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="46" t="s">
+      <c r="V30" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="30"/>
-      <c r="X30" s="89">
+      <c r="W30" s="27"/>
+      <c r="X30" s="83">
         <v>42420</v>
       </c>
     </row>
@@ -4109,54 +4109,54 @@
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="33">
         <v>29</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37" t="s">
+      <c r="M31" s="34"/>
+      <c r="N31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36" t="s">
+      <c r="O31" s="33"/>
+      <c r="P31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="35">
         <v>6</v>
       </c>
-      <c r="R31" s="38" t="s">
+      <c r="R31" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="38" t="s">
+      <c r="S31" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="39" t="s">
+      <c r="T31" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="38" t="s">
+      <c r="U31" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="46" t="s">
+      <c r="V31" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="88">
+      <c r="W31" s="82">
         <v>42420</v>
       </c>
-      <c r="X31" s="89">
+      <c r="X31" s="83">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="281">
   <si>
     <t>Asignatura</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>Recurso offline en la carpeta de github</t>
+  </si>
+  <si>
+    <t>14/03/2,016</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1271,9 +1274,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1286,24 +1286,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1340,287 +1325,278 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1930,7 +1906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1940,18 +1916,18 @@
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8" style="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="5" customWidth="1"/>
     <col min="10" max="10" width="53" style="3" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="11" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="5" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="22.42578125" style="3" customWidth="1"/>
@@ -1962,101 +1938,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="100" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="116" t="s">
+      <c r="Q1" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="S1" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="118" t="s">
+      <c r="T1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="116" t="s">
+      <c r="U1" s="89" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="39" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="32" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="23" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2070,61 +2046,61 @@
       <c r="C3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="76">
         <v>1</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="86" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="86" t="s">
+      <c r="P3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="88">
+      <c r="Q3" s="78">
         <v>6</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="88" t="s">
+      <c r="U3" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="67" t="s">
+      <c r="V3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="84">
+      <c r="W3" s="74">
         <v>42422</v>
       </c>
-      <c r="X3" s="90">
+      <c r="X3" s="80">
         <v>42422</v>
       </c>
     </row>
@@ -2138,59 +2114,59 @@
       <c r="C4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="40" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="25">
         <v>2</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="27">
         <v>6</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="46">
+      <c r="W4" s="33"/>
+      <c r="X4" s="37">
         <v>42416</v>
       </c>
     </row>
@@ -2204,59 +2180,59 @@
       <c r="C5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="40" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="25">
         <v>3</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="27">
         <v>6</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="46">
+      <c r="W5" s="21"/>
+      <c r="X5" s="37">
         <v>42416</v>
       </c>
     </row>
@@ -2270,59 +2246,59 @@
       <c r="C6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="25">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="27">
         <v>6</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V6" s="43" t="s">
+      <c r="V6" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="46">
+      <c r="W6" s="21"/>
+      <c r="X6" s="37">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2339,59 +2315,59 @@
       <c r="C7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="55" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="41">
         <v>5</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="51" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="47">
         <v>9</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="R7" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="57" t="s">
+      <c r="U7" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="43" t="s">
+      <c r="V7" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="54">
+      <c r="W7" s="44">
         <v>42416</v>
       </c>
-      <c r="X7" s="47" t="s">
+      <c r="X7" s="38" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2405,298 +2381,298 @@
       <c r="C8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="40" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="25">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="33" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="27">
         <v>6</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="V8" s="43" t="s">
+      <c r="V8" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="46">
+      <c r="W8" s="21"/>
+      <c r="X8" s="37">
         <v>42429</v>
       </c>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:190" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:190" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="40" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="25">
         <v>7</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="27">
         <v>6</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U9" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="43" t="s">
+      <c r="V9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="27" t="s">
+      <c r="W9" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="X9" s="46">
+      <c r="X9" s="37">
         <v>42417</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="BP9" s="6"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="6"/>
-      <c r="BU9" s="6"/>
-      <c r="BV9" s="6"/>
-      <c r="BW9" s="6"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="6"/>
-      <c r="CA9" s="6"/>
-      <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="6"/>
-      <c r="CE9" s="6"/>
-      <c r="CF9" s="6"/>
-      <c r="CG9" s="6"/>
-      <c r="CH9" s="6"/>
-      <c r="CI9" s="6"/>
-      <c r="CJ9" s="6"/>
-      <c r="CK9" s="6"/>
-      <c r="CL9" s="6"/>
-      <c r="CM9" s="6"/>
-      <c r="CN9" s="6"/>
-      <c r="CO9" s="6"/>
-      <c r="CP9" s="6"/>
-      <c r="CQ9" s="6"/>
-      <c r="CR9" s="6"/>
-      <c r="CS9" s="6"/>
-      <c r="CT9" s="6"/>
-      <c r="CU9" s="6"/>
-      <c r="CV9" s="6"/>
-      <c r="CW9" s="6"/>
-      <c r="CX9" s="6"/>
-      <c r="CY9" s="6"/>
-      <c r="CZ9" s="6"/>
-      <c r="DA9" s="6"/>
-      <c r="DB9" s="6"/>
-      <c r="DC9" s="6"/>
-      <c r="DD9" s="6"/>
-      <c r="DE9" s="6"/>
-      <c r="DF9" s="6"/>
-      <c r="DG9" s="6"/>
-      <c r="DH9" s="6"/>
-      <c r="DI9" s="6"/>
-      <c r="DJ9" s="6"/>
-      <c r="DK9" s="6"/>
-      <c r="DL9" s="6"/>
-      <c r="DM9" s="6"/>
-      <c r="DN9" s="6"/>
-      <c r="DO9" s="6"/>
-      <c r="DP9" s="6"/>
-      <c r="DQ9" s="6"/>
-      <c r="DR9" s="6"/>
-      <c r="DS9" s="6"/>
-      <c r="DT9" s="6"/>
-      <c r="DU9" s="6"/>
-      <c r="DV9" s="6"/>
-      <c r="DW9" s="6"/>
-      <c r="DX9" s="6"/>
-      <c r="DY9" s="6"/>
-      <c r="DZ9" s="6"/>
-      <c r="EA9" s="6"/>
-      <c r="EB9" s="6"/>
-      <c r="EC9" s="6"/>
-      <c r="ED9" s="6"/>
-      <c r="EE9" s="6"/>
-      <c r="EF9" s="6"/>
-      <c r="EG9" s="6"/>
-      <c r="EH9" s="6"/>
-      <c r="EI9" s="6"/>
-      <c r="EJ9" s="6"/>
-      <c r="EK9" s="6"/>
-      <c r="EL9" s="6"/>
-      <c r="EM9" s="6"/>
-      <c r="EN9" s="6"/>
-      <c r="EO9" s="6"/>
-      <c r="EP9" s="6"/>
-      <c r="EQ9" s="6"/>
-      <c r="ER9" s="6"/>
-      <c r="ES9" s="6"/>
-      <c r="ET9" s="6"/>
-      <c r="EU9" s="6"/>
-      <c r="EV9" s="6"/>
-      <c r="EW9" s="6"/>
-      <c r="EX9" s="6"/>
-      <c r="EY9" s="6"/>
-      <c r="EZ9" s="6"/>
-      <c r="FA9" s="6"/>
-      <c r="FB9" s="6"/>
-      <c r="FC9" s="6"/>
-      <c r="FD9" s="6"/>
-      <c r="FE9" s="6"/>
-      <c r="FF9" s="6"/>
-      <c r="FG9" s="6"/>
-      <c r="FH9" s="6"/>
-      <c r="FI9" s="6"/>
-      <c r="FJ9" s="6"/>
-      <c r="FK9" s="6"/>
-      <c r="FL9" s="6"/>
-      <c r="FM9" s="6"/>
-      <c r="FN9" s="6"/>
-      <c r="FO9" s="6"/>
-      <c r="FP9" s="6"/>
-      <c r="FQ9" s="6"/>
-      <c r="FR9" s="6"/>
-      <c r="FS9" s="6"/>
-      <c r="FT9" s="6"/>
-      <c r="FU9" s="6"/>
-      <c r="FV9" s="6"/>
-      <c r="FW9" s="6"/>
-      <c r="FX9" s="6"/>
-      <c r="FY9" s="6"/>
-      <c r="FZ9" s="6"/>
-      <c r="GA9" s="6"/>
-      <c r="GB9" s="6"/>
-      <c r="GC9" s="6"/>
-      <c r="GD9" s="6"/>
-      <c r="GE9" s="6"/>
-      <c r="GF9" s="6"/>
-      <c r="GG9" s="6"/>
-      <c r="GH9" s="6"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="5"/>
+      <c r="CM9" s="5"/>
+      <c r="CN9" s="5"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="5"/>
+      <c r="CQ9" s="5"/>
+      <c r="CR9" s="5"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="5"/>
+      <c r="CU9" s="5"/>
+      <c r="CV9" s="5"/>
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="5"/>
+      <c r="CY9" s="5"/>
+      <c r="CZ9" s="5"/>
+      <c r="DA9" s="5"/>
+      <c r="DB9" s="5"/>
+      <c r="DC9" s="5"/>
+      <c r="DD9" s="5"/>
+      <c r="DE9" s="5"/>
+      <c r="DF9" s="5"/>
+      <c r="DG9" s="5"/>
+      <c r="DH9" s="5"/>
+      <c r="DI9" s="5"/>
+      <c r="DJ9" s="5"/>
+      <c r="DK9" s="5"/>
+      <c r="DL9" s="5"/>
+      <c r="DM9" s="5"/>
+      <c r="DN9" s="5"/>
+      <c r="DO9" s="5"/>
+      <c r="DP9" s="5"/>
+      <c r="DQ9" s="5"/>
+      <c r="DR9" s="5"/>
+      <c r="DS9" s="5"/>
+      <c r="DT9" s="5"/>
+      <c r="DU9" s="5"/>
+      <c r="DV9" s="5"/>
+      <c r="DW9" s="5"/>
+      <c r="DX9" s="5"/>
+      <c r="DY9" s="5"/>
+      <c r="DZ9" s="5"/>
+      <c r="EA9" s="5"/>
+      <c r="EB9" s="5"/>
+      <c r="EC9" s="5"/>
+      <c r="ED9" s="5"/>
+      <c r="EE9" s="5"/>
+      <c r="EF9" s="5"/>
+      <c r="EG9" s="5"/>
+      <c r="EH9" s="5"/>
+      <c r="EI9" s="5"/>
+      <c r="EJ9" s="5"/>
+      <c r="EK9" s="5"/>
+      <c r="EL9" s="5"/>
+      <c r="EM9" s="5"/>
+      <c r="EN9" s="5"/>
+      <c r="EO9" s="5"/>
+      <c r="EP9" s="5"/>
+      <c r="EQ9" s="5"/>
+      <c r="ER9" s="5"/>
+      <c r="ES9" s="5"/>
+      <c r="ET9" s="5"/>
+      <c r="EU9" s="5"/>
+      <c r="EV9" s="5"/>
+      <c r="EW9" s="5"/>
+      <c r="EX9" s="5"/>
+      <c r="EY9" s="5"/>
+      <c r="EZ9" s="5"/>
+      <c r="FA9" s="5"/>
+      <c r="FB9" s="5"/>
+      <c r="FC9" s="5"/>
+      <c r="FD9" s="5"/>
+      <c r="FE9" s="5"/>
+      <c r="FF9" s="5"/>
+      <c r="FG9" s="5"/>
+      <c r="FH9" s="5"/>
+      <c r="FI9" s="5"/>
+      <c r="FJ9" s="5"/>
+      <c r="FK9" s="5"/>
+      <c r="FL9" s="5"/>
+      <c r="FM9" s="5"/>
+      <c r="FN9" s="5"/>
+      <c r="FO9" s="5"/>
+      <c r="FP9" s="5"/>
+      <c r="FQ9" s="5"/>
+      <c r="FR9" s="5"/>
+      <c r="FS9" s="5"/>
+      <c r="FT9" s="5"/>
+      <c r="FU9" s="5"/>
+      <c r="FV9" s="5"/>
+      <c r="FW9" s="5"/>
+      <c r="FX9" s="5"/>
+      <c r="FY9" s="5"/>
+      <c r="FZ9" s="5"/>
+      <c r="GA9" s="5"/>
+      <c r="GB9" s="5"/>
+      <c r="GC9" s="5"/>
+      <c r="GD9" s="5"/>
+      <c r="GE9" s="5"/>
+      <c r="GF9" s="5"/>
+      <c r="GG9" s="5"/>
+      <c r="GH9" s="5"/>
     </row>
     <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2708,59 +2684,59 @@
       <c r="C10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="41" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="25">
         <v>8</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="27">
         <v>6</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="V10" s="42" t="s">
+      <c r="V10" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="42"/>
-      <c r="X10" s="47"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="112"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -2775,61 +2751,61 @@
       <c r="C11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="58" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="41">
         <v>9</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="52" t="s">
+      <c r="K11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="59" t="s">
+      <c r="O11" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="34">
         <v>6</v>
       </c>
-      <c r="R11" s="43" t="s">
+      <c r="R11" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="43" t="s">
+      <c r="S11" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="60" t="s">
+      <c r="T11" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="43" t="s">
+      <c r="U11" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="V11" s="43" t="s">
+      <c r="V11" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="54">
+      <c r="W11" s="44">
         <v>42416</v>
       </c>
-      <c r="X11" s="47" t="s">
+      <c r="X11" s="38" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2843,59 +2819,59 @@
       <c r="C12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="40" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="25">
         <v>10</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="27">
         <v>6</v>
       </c>
-      <c r="R12" s="35" t="s">
+      <c r="R12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="U12" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V12" s="43" t="s">
+      <c r="V12" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="46">
+      <c r="W12" s="21"/>
+      <c r="X12" s="37">
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -2912,59 +2888,61 @@
       <c r="C13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="41" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="25">
         <v>11</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="11" t="s">
+      <c r="N13" s="26"/>
+      <c r="O13" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="27">
         <v>6</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="V13" s="42" t="s">
+      <c r="V13" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="47"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="37">
+        <v>42443</v>
+      </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2976,59 +2954,59 @@
       <c r="C14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="40" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="25">
         <v>12</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34" t="s">
+      <c r="M14" s="26"/>
+      <c r="N14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="27">
         <v>6</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T14" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="43" t="s">
+      <c r="V14" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W14" s="42"/>
-      <c r="X14" s="46">
+      <c r="W14" s="33"/>
+      <c r="X14" s="37">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3045,59 +3023,59 @@
       <c r="C15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="40" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="25">
         <v>13</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="27">
         <v>6</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="R15" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="35" t="s">
+      <c r="S15" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="61"/>
-      <c r="X15" s="46">
+      <c r="W15" s="51"/>
+      <c r="X15" s="37">
         <v>42418</v>
       </c>
     </row>
@@ -3111,59 +3089,59 @@
       <c r="C16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="40" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="25">
         <v>14</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34" t="s">
+      <c r="M16" s="26"/>
+      <c r="N16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="27">
         <v>6</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="36" t="s">
+      <c r="T16" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V16" s="43" t="s">
+      <c r="V16" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="46">
+      <c r="W16" s="21"/>
+      <c r="X16" s="37">
         <v>42431</v>
       </c>
     </row>
@@ -3177,59 +3155,59 @@
       <c r="C17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="40" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="25">
         <v>15</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34" t="s">
+      <c r="M17" s="26"/>
+      <c r="N17" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="27">
         <v>6</v>
       </c>
-      <c r="R17" s="35" t="s">
+      <c r="R17" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="35" t="s">
+      <c r="S17" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="U17" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="43" t="s">
+      <c r="V17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="46">
+      <c r="W17" s="21"/>
+      <c r="X17" s="37">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3246,59 +3224,59 @@
       <c r="C18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="40" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="25">
         <v>16</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34" t="s">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="27">
         <v>6</v>
       </c>
-      <c r="R18" s="35" t="s">
+      <c r="R18" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="35" t="s">
+      <c r="S18" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="36" t="s">
+      <c r="T18" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="35" t="s">
+      <c r="U18" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V18" s="43" t="s">
+      <c r="V18" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="27"/>
-      <c r="X18" s="46">
+      <c r="W18" s="21"/>
+      <c r="X18" s="37">
         <v>42419</v>
       </c>
     </row>
@@ -3312,333 +3290,333 @@
       <c r="C19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="68" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="59">
         <v>17</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="70" t="s">
+      <c r="L19" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70" t="s">
+      <c r="M19" s="60"/>
+      <c r="N19" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="69" t="s">
+      <c r="O19" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="61">
         <v>6</v>
       </c>
-      <c r="R19" s="71" t="s">
+      <c r="R19" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="71" t="s">
+      <c r="S19" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="72" t="s">
+      <c r="T19" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="71" t="s">
+      <c r="U19" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="73" t="s">
+      <c r="V19" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="74">
+      <c r="W19" s="64">
         <v>42419</v>
       </c>
-      <c r="X19" s="75">
+      <c r="X19" s="65">
         <v>42419</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="78" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="69">
         <v>18</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80" t="s">
+      <c r="M20" s="70"/>
+      <c r="N20" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="79" t="s">
+      <c r="P20" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="Q20" s="57">
         <v>6</v>
       </c>
-      <c r="R20" s="67" t="s">
+      <c r="R20" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="67" t="s">
+      <c r="S20" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="81" t="s">
+      <c r="T20" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="67" t="s">
+      <c r="U20" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="67" t="s">
+      <c r="V20" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="77">
+      <c r="W20" s="67">
         <v>42418</v>
       </c>
-      <c r="X20" s="45" t="s">
+      <c r="X20" s="36" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="62" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="53">
         <v>19</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="63" t="s">
+      <c r="O21" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="63" t="s">
+      <c r="P21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="65">
+      <c r="Q21" s="55">
         <v>6</v>
       </c>
-      <c r="R21" s="65" t="s">
+      <c r="R21" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="65" t="s">
+      <c r="S21" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="66" t="s">
+      <c r="T21" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="65" t="s">
+      <c r="U21" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="V21" s="43" t="s">
+      <c r="V21" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="54">
+      <c r="W21" s="44">
         <v>42418</v>
       </c>
-      <c r="X21" s="47" t="s">
+      <c r="X21" s="38" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="40" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="25">
         <v>20</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34" t="s">
+      <c r="M22" s="26"/>
+      <c r="N22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="33" t="s">
+      <c r="P22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="27">
         <v>6</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="R22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="35" t="s">
+      <c r="S22" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="36" t="s">
+      <c r="T22" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="35" t="s">
+      <c r="U22" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V22" s="43" t="s">
+      <c r="V22" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="27"/>
-      <c r="X22" s="46">
+      <c r="W22" s="21"/>
+      <c r="X22" s="37">
         <v>42419</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="62" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="53">
         <v>21</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="64" t="s">
+      <c r="K23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="64" t="s">
+      <c r="L23" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64" t="s">
+      <c r="M23" s="54"/>
+      <c r="N23" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="63" t="s">
+      <c r="O23" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="63" t="s">
+      <c r="P23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="65">
+      <c r="Q23" s="55">
         <v>6</v>
       </c>
-      <c r="R23" s="65" t="s">
+      <c r="R23" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="65" t="s">
+      <c r="S23" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="66" t="s">
+      <c r="T23" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="65" t="s">
+      <c r="U23" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="43" t="s">
+      <c r="V23" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="82">
+      <c r="W23" s="72">
         <v>42419</v>
       </c>
-      <c r="X23" s="47" t="s">
+      <c r="X23" s="38" t="s">
         <v>269</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -3646,266 +3624,268 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="40" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="25">
         <v>22</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34" t="s">
+      <c r="M24" s="26"/>
+      <c r="N24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="27">
         <v>6</v>
       </c>
-      <c r="R24" s="35" t="s">
+      <c r="R24" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="S24" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="36" t="s">
+      <c r="T24" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="35" t="s">
+      <c r="U24" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V24" s="43" t="s">
+      <c r="V24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="27"/>
-      <c r="X24" s="46">
+      <c r="W24" s="21"/>
+      <c r="X24" s="37">
         <v>42423</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="25">
         <v>23</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="29" t="s">
+      <c r="N25" s="26"/>
+      <c r="O25" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="29" t="s">
+      <c r="P25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="27">
         <v>6</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="V25" s="42" t="s">
+      <c r="V25" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="42"/>
-      <c r="X25" s="47"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="112" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="68" t="s">
+      <c r="F26" s="40"/>
+      <c r="G26" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="59">
         <v>24</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70" t="s">
+      <c r="M26" s="60"/>
+      <c r="N26" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="69" t="s">
+      <c r="O26" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="69" t="s">
+      <c r="P26" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="71">
+      <c r="Q26" s="61">
         <v>6</v>
       </c>
-      <c r="R26" s="71" t="s">
+      <c r="R26" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="71" t="s">
+      <c r="S26" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="72" t="s">
+      <c r="T26" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="71" t="s">
+      <c r="U26" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="71" t="s">
+      <c r="V26" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="48"/>
-      <c r="X26" s="75">
+      <c r="W26" s="39"/>
+      <c r="X26" s="65">
         <v>42419</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="93" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="93">
+      <c r="H27" s="83">
         <v>25</v>
       </c>
-      <c r="I27" s="94" t="s">
+      <c r="I27" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="93" t="s">
+      <c r="J27" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="94" t="s">
+      <c r="K27" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="94" t="s">
+      <c r="L27" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94" t="s">
+      <c r="M27" s="84"/>
+      <c r="N27" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="93" t="s">
+      <c r="O27" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="93" t="s">
+      <c r="P27" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="95">
+      <c r="Q27" s="85">
         <v>6</v>
       </c>
-      <c r="R27" s="95" t="s">
+      <c r="R27" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="95" t="s">
+      <c r="S27" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="96" t="s">
+      <c r="T27" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="95" t="s">
+      <c r="U27" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="91" t="s">
+      <c r="V27" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="44"/>
-      <c r="X27" s="92">
+      <c r="W27" s="35"/>
+      <c r="X27" s="82">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3913,250 +3893,250 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="33" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="25">
         <v>26</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34" t="s">
+      <c r="M28" s="26"/>
+      <c r="N28" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="27">
         <v>6</v>
       </c>
-      <c r="R28" s="35" t="s">
+      <c r="R28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="36" t="s">
+      <c r="T28" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="35" t="s">
+      <c r="U28" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V28" s="43" t="s">
+      <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="42"/>
-      <c r="X28" s="83">
+      <c r="W28" s="33"/>
+      <c r="X28" s="73">
         <v>42423</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="51" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="41">
         <v>27</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51" t="s">
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="42" t="s">
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="33" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="33" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="25">
         <v>28</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34" t="s">
+      <c r="M30" s="26"/>
+      <c r="N30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="Q30" s="27">
         <v>6</v>
       </c>
-      <c r="R30" s="35" t="s">
+      <c r="R30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="35" t="s">
+      <c r="S30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="36" t="s">
+      <c r="T30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="35" t="s">
+      <c r="U30" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="43" t="s">
+      <c r="V30" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="83">
+      <c r="W30" s="21"/>
+      <c r="X30" s="73">
         <v>42420</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="33" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="25">
         <v>29</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34" t="s">
+      <c r="M31" s="26"/>
+      <c r="N31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33" t="s">
+      <c r="O31" s="25"/>
+      <c r="P31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q31" s="27">
         <v>6</v>
       </c>
-      <c r="R31" s="35" t="s">
+      <c r="R31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="35" t="s">
+      <c r="S31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="36" t="s">
+      <c r="T31" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="35" t="s">
+      <c r="U31" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="V31" s="43" t="s">
+      <c r="V31" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="82">
+      <c r="W31" s="72">
         <v>42420</v>
       </c>
-      <c r="X31" s="83">
+      <c r="X31" s="73">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4164,51 +4144,51 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
     </row>
     <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="23"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="17"/>
       <c r="W33" s="3" t="s">
         <v>272</v>
       </c>
@@ -4217,28 +4197,28 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="23" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="17" t="s">
         <v>274</v>
       </c>
       <c r="W34" s="3" t="s">
@@ -4249,28 +4229,28 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="23" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="17" t="s">
         <v>275</v>
       </c>
       <c r="W35" s="3" t="s">
@@ -4281,124 +4261,124 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="23"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="17"/>
     </row>
     <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="23"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="17"/>
     </row>
     <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="23"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="17"/>
     </row>
     <row r="39" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="23"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="17"/>
     </row>
     <row r="40" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
     </row>
     <row r="54" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -4587,12 +4567,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4607,6 +4581,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1451,9 +1451,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1520,12 +1517,66 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1544,59 +1595,14 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,9 +1910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1938,94 +1944,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="87" t="s">
+      <c r="N1" s="102"/>
+      <c r="O1" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="R1" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="T1" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="106" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="103"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="107"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2051,56 +2057,56 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="75">
         <v>1</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="76" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="76" t="s">
+      <c r="P3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="77">
         <v>6</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="T3" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="U3" s="77" t="s">
         <v>198</v>
       </c>
       <c r="V3" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="74">
+      <c r="W3" s="73">
         <v>42422</v>
       </c>
-      <c r="X3" s="80">
+      <c r="X3" s="79">
         <v>42422</v>
       </c>
     </row>
@@ -2395,7 +2401,7 @@
       <c r="I8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="65" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -2736,7 +2742,7 @@
         <v>252</v>
       </c>
       <c r="W10" s="21"/>
-      <c r="X10" s="112"/>
+      <c r="X10" s="86"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -3229,54 +3235,56 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="53">
         <v>16</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26" t="s">
+      <c r="M18" s="54"/>
+      <c r="N18" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="P18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="55">
         <v>6</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="R18" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="T18" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="27" t="s">
+      <c r="U18" s="55" t="s">
         <v>199</v>
       </c>
       <c r="V18" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="37">
+      <c r="W18" s="71">
+        <v>42447</v>
+      </c>
+      <c r="X18" s="112">
         <v>42419</v>
       </c>
     </row>
@@ -3343,10 +3351,10 @@
       <c r="V19" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="64">
+      <c r="W19" s="113">
         <v>42419</v>
       </c>
-      <c r="X19" s="65">
+      <c r="X19" s="64">
         <v>42419</v>
       </c>
     </row>
@@ -3365,32 +3373,32 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="68">
         <v>18</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70" t="s">
+      <c r="M20" s="69"/>
+      <c r="N20" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="69" t="s">
+      <c r="O20" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="69" t="s">
+      <c r="P20" s="68" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="57">
@@ -3402,7 +3410,7 @@
       <c r="S20" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="71" t="s">
+      <c r="T20" s="70" t="s">
         <v>209</v>
       </c>
       <c r="U20" s="57" t="s">
@@ -3411,7 +3419,7 @@
       <c r="V20" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="67">
+      <c r="W20" s="66">
         <v>42418</v>
       </c>
       <c r="X20" s="36" t="s">
@@ -3433,47 +3441,47 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="41">
         <v>19</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54" t="s">
+      <c r="M21" s="42"/>
+      <c r="N21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="53" t="s">
+      <c r="O21" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="55">
+      <c r="Q21" s="34">
         <v>6</v>
       </c>
-      <c r="R21" s="55" t="s">
+      <c r="R21" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="55" t="s">
+      <c r="S21" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="56" t="s">
+      <c r="T21" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="55" t="s">
+      <c r="U21" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V21" s="34" t="s">
@@ -3501,54 +3509,56 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="53">
         <v>20</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26" t="s">
+      <c r="M22" s="54"/>
+      <c r="N22" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="55">
         <v>6</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="27" t="s">
+      <c r="S22" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="28" t="s">
+      <c r="T22" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="27" t="s">
+      <c r="U22" s="55" t="s">
         <v>199</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="37">
+      <c r="W22" s="71">
+        <v>42447</v>
+      </c>
+      <c r="X22" s="112">
         <v>42419</v>
       </c>
     </row>
@@ -3567,53 +3577,53 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="41">
         <v>21</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="K23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="54" t="s">
+      <c r="L23" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54" t="s">
+      <c r="M23" s="42"/>
+      <c r="N23" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="53" t="s">
+      <c r="O23" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="53" t="s">
+      <c r="P23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="55">
+      <c r="Q23" s="34">
         <v>6</v>
       </c>
-      <c r="R23" s="55" t="s">
+      <c r="R23" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="55" t="s">
+      <c r="S23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="56" t="s">
+      <c r="T23" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="55" t="s">
+      <c r="U23" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V23" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="72">
+      <c r="W23" s="44">
         <v>42419</v>
       </c>
       <c r="X23" s="38" t="s">
@@ -3713,7 +3723,7 @@
       <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="65" t="s">
         <v>248</v>
       </c>
       <c r="K25" s="26" t="s">
@@ -3751,7 +3761,7 @@
         <v>253</v>
       </c>
       <c r="W25" s="27"/>
-      <c r="X25" s="112" t="s">
+      <c r="X25" s="86" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3819,7 +3829,7 @@
         <v>250</v>
       </c>
       <c r="W26" s="39"/>
-      <c r="X26" s="65">
+      <c r="X26" s="64">
         <v>42419</v>
       </c>
     </row>
@@ -3838,54 +3848,54 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="82">
         <v>25</v>
       </c>
-      <c r="I27" s="84" t="s">
+      <c r="I27" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="84" t="s">
+      <c r="K27" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="84" t="s">
+      <c r="L27" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84" t="s">
+      <c r="M27" s="83"/>
+      <c r="N27" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="83" t="s">
+      <c r="O27" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="83" t="s">
+      <c r="P27" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="85">
+      <c r="Q27" s="84">
         <v>6</v>
       </c>
-      <c r="R27" s="85" t="s">
+      <c r="R27" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="85" t="s">
+      <c r="S27" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="86" t="s">
+      <c r="T27" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="85" t="s">
+      <c r="U27" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="81" t="s">
+      <c r="V27" s="80" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="35"/>
-      <c r="X27" s="82">
+      <c r="X27" s="81">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3954,7 +3964,7 @@
         <v>250</v>
       </c>
       <c r="W28" s="33"/>
-      <c r="X28" s="73">
+      <c r="X28" s="72">
         <v>42423</v>
       </c>
     </row>
@@ -4070,7 +4080,7 @@
         <v>250</v>
       </c>
       <c r="W30" s="21"/>
-      <c r="X30" s="73">
+      <c r="X30" s="72">
         <v>42420</v>
       </c>
     </row>
@@ -4133,10 +4143,10 @@
       <c r="V31" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="72">
+      <c r="W31" s="44">
         <v>42420</v>
       </c>
-      <c r="X31" s="73">
+      <c r="X31" s="72">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4567,6 +4577,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4581,12 +4597,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1415,21 +1415,6 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1472,9 +1457,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1520,6 +1502,36 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1529,12 +1541,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1577,31 +1583,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1910,9 +1892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23:U23"/>
+      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1944,94 +1926,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="90" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="P1" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="110" t="s">
+      <c r="R1" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="106" t="s">
+      <c r="S1" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="108" t="s">
+      <c r="T1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="106" t="s">
+      <c r="U1" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="107"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="86"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2057,56 +2039,56 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="69">
         <v>1</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="75" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="71">
         <v>6</v>
       </c>
-      <c r="R3" s="77" t="s">
+      <c r="R3" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="T3" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="77" t="s">
+      <c r="U3" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="73">
+      <c r="W3" s="67">
         <v>42422</v>
       </c>
-      <c r="X3" s="79">
+      <c r="X3" s="73">
         <v>42422</v>
       </c>
     </row>
@@ -2401,7 +2383,7 @@
       <c r="I8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="60" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -2742,7 +2724,7 @@
         <v>252</v>
       </c>
       <c r="W10" s="21"/>
-      <c r="X10" s="86"/>
+      <c r="X10" s="80"/>
       <c r="Y10" s="3" t="s">
         <v>264</v>
       </c>
@@ -3235,56 +3217,56 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="41">
         <v>16</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="54" t="s">
+      <c r="L18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54" t="s">
+      <c r="M18" s="42"/>
+      <c r="N18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="53" t="s">
+      <c r="P18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="34">
         <v>6</v>
       </c>
-      <c r="R18" s="55" t="s">
+      <c r="R18" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="55" t="s">
+      <c r="S18" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="U18" s="55" t="s">
+      <c r="U18" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V18" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="71">
+      <c r="W18" s="44">
         <v>42447</v>
       </c>
-      <c r="X18" s="112">
+      <c r="X18" s="81">
         <v>42419</v>
       </c>
     </row>
@@ -3305,56 +3287,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="54">
         <v>17</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60" t="s">
+      <c r="M19" s="55"/>
+      <c r="N19" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="59" t="s">
+      <c r="O19" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="61">
+      <c r="Q19" s="56">
         <v>6</v>
       </c>
-      <c r="R19" s="61" t="s">
+      <c r="R19" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="61" t="s">
+      <c r="S19" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="62" t="s">
+      <c r="T19" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="61" t="s">
+      <c r="U19" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="63" t="s">
+      <c r="V19" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="113">
+      <c r="W19" s="82">
         <v>42419</v>
       </c>
-      <c r="X19" s="64">
+      <c r="X19" s="59">
         <v>42419</v>
       </c>
     </row>
@@ -3373,53 +3355,53 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="63">
         <v>18</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="69" t="s">
+      <c r="K20" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69" t="s">
+      <c r="M20" s="64"/>
+      <c r="N20" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="68" t="s">
+      <c r="O20" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="68" t="s">
+      <c r="P20" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="52">
         <v>6</v>
       </c>
-      <c r="R20" s="57" t="s">
+      <c r="R20" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="57" t="s">
+      <c r="S20" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="70" t="s">
+      <c r="T20" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="57" t="s">
+      <c r="U20" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="57" t="s">
+      <c r="V20" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="66">
+      <c r="W20" s="61">
         <v>42418</v>
       </c>
       <c r="X20" s="36" t="s">
@@ -3509,56 +3491,56 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="41">
         <v>20</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="114" t="s">
+      <c r="J22" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="54" t="s">
+      <c r="L22" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54" t="s">
+      <c r="M22" s="42"/>
+      <c r="N22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="53" t="s">
+      <c r="P22" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="55">
+      <c r="Q22" s="34">
         <v>6</v>
       </c>
-      <c r="R22" s="55" t="s">
+      <c r="R22" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="55" t="s">
+      <c r="S22" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="56" t="s">
+      <c r="T22" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="U22" s="55" t="s">
+      <c r="U22" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="71">
+      <c r="W22" s="44">
         <v>42447</v>
       </c>
-      <c r="X22" s="112">
+      <c r="X22" s="81">
         <v>42419</v>
       </c>
     </row>
@@ -3723,7 +3705,7 @@
       <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="60" t="s">
         <v>248</v>
       </c>
       <c r="K25" s="26" t="s">
@@ -3761,7 +3743,7 @@
         <v>253</v>
       </c>
       <c r="W25" s="27"/>
-      <c r="X25" s="86" t="s">
+      <c r="X25" s="80" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3782,54 +3764,54 @@
         <v>127</v>
       </c>
       <c r="F26" s="40"/>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="54">
         <v>24</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="60" t="s">
+      <c r="K26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60" t="s">
+      <c r="M26" s="55"/>
+      <c r="N26" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="59" t="s">
+      <c r="O26" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="59" t="s">
+      <c r="P26" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="61">
+      <c r="Q26" s="56">
         <v>6</v>
       </c>
-      <c r="R26" s="61" t="s">
+      <c r="R26" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="61" t="s">
+      <c r="S26" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="62" t="s">
+      <c r="T26" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="61" t="s">
+      <c r="U26" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="61" t="s">
+      <c r="V26" s="56" t="s">
         <v>250</v>
       </c>
       <c r="W26" s="39"/>
-      <c r="X26" s="64">
+      <c r="X26" s="59">
         <v>42419</v>
       </c>
     </row>
@@ -3848,54 +3830,54 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="82" t="s">
+      <c r="G27" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="H27" s="82">
+      <c r="H27" s="76">
         <v>25</v>
       </c>
-      <c r="I27" s="83" t="s">
+      <c r="I27" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="82" t="s">
+      <c r="J27" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="83" t="s">
+      <c r="K27" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="83" t="s">
+      <c r="L27" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83" t="s">
+      <c r="M27" s="77"/>
+      <c r="N27" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="82" t="s">
+      <c r="O27" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="82" t="s">
+      <c r="P27" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="84">
+      <c r="Q27" s="78">
         <v>6</v>
       </c>
-      <c r="R27" s="84" t="s">
+      <c r="R27" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="84" t="s">
+      <c r="S27" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="85" t="s">
+      <c r="T27" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="84" t="s">
+      <c r="U27" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="80" t="s">
+      <c r="V27" s="74" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="35"/>
-      <c r="X27" s="81">
+      <c r="X27" s="75">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3964,7 +3946,7 @@
         <v>250</v>
       </c>
       <c r="W28" s="33"/>
-      <c r="X28" s="72">
+      <c r="X28" s="66">
         <v>42423</v>
       </c>
     </row>
@@ -4080,7 +4062,7 @@
         <v>250</v>
       </c>
       <c r="W30" s="21"/>
-      <c r="X30" s="72">
+      <c r="X30" s="66">
         <v>42420</v>
       </c>
     </row>
@@ -4146,7 +4128,7 @@
       <c r="W31" s="44">
         <v>42420</v>
       </c>
-      <c r="X31" s="72">
+      <c r="X31" s="66">
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4577,12 +4559,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4597,6 +4573,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
   <si>
     <t>Asignatura</t>
   </si>
@@ -809,9 +809,6 @@
     <t>Reconoce las características de las líneas notables de un triángulo</t>
   </si>
   <si>
-    <t>Esperando imágenes</t>
-  </si>
-  <si>
     <t>Ordena la demostración de congruencia de triángulos</t>
   </si>
   <si>
@@ -827,9 +824,6 @@
     <t>Recurso offLine, esperando imágenes, Pedro ya lo subio a GRECO</t>
   </si>
   <si>
-    <t>Autora ya desbloqueo</t>
-  </si>
-  <si>
     <t>Listos 5</t>
   </si>
   <si>
@@ -870,6 +864,9 @@
   </si>
   <si>
     <t>14/03/2,016</t>
+  </si>
+  <si>
+    <t>Falta la imagen 3</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1460,9 +1457,6 @@
     <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1508,12 +1502,66 @@
     <xf numFmtId="14" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1532,59 +1580,23 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,9 +1904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1926,94 +1938,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="104"/>
-      <c r="O1" s="83" t="s">
+      <c r="N1" s="98"/>
+      <c r="O1" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="U1" s="102" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="99"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="93"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="103"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2039,56 +2051,56 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="68">
         <v>1</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="69" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="71">
+      <c r="Q3" s="70">
         <v>6</v>
       </c>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="71" t="s">
+      <c r="S3" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="70" t="s">
         <v>198</v>
       </c>
       <c r="V3" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="61">
         <v>42422</v>
       </c>
-      <c r="X3" s="73">
+      <c r="X3" s="72">
         <v>42422</v>
       </c>
     </row>
@@ -2173,55 +2185,60 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="109">
         <v>3</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26" t="s">
+      <c r="M5" s="110"/>
+      <c r="N5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="111">
         <v>6</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="111" t="s">
         <v>199</v>
       </c>
       <c r="V5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="21"/>
-      <c r="X5" s="37">
+      <c r="W5" s="113">
+        <v>42450</v>
+      </c>
+      <c r="X5" s="80">
         <v>42416</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2487,14 +2504,12 @@
       <c r="V9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="21" t="s">
-        <v>260</v>
-      </c>
+      <c r="W9" s="21"/>
       <c r="X9" s="37">
         <v>42417</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -2724,9 +2739,9 @@
         <v>252</v>
       </c>
       <c r="W10" s="21"/>
-      <c r="X10" s="80"/>
+      <c r="X10" s="79"/>
       <c r="Y10" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,7 +2878,7 @@
         <v>42418</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2948,7 +2963,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="29"/>
       <c r="G14" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -2998,7 +3013,7 @@
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,7 +3214,7 @@
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3266,7 +3281,7 @@
       <c r="W18" s="44">
         <v>42447</v>
       </c>
-      <c r="X18" s="81">
+      <c r="X18" s="80">
         <v>42419</v>
       </c>
     </row>
@@ -3333,7 +3348,7 @@
       <c r="V19" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="82">
+      <c r="W19" s="81">
         <v>42419</v>
       </c>
       <c r="X19" s="59">
@@ -3500,7 +3515,7 @@
       <c r="I22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="108" t="s">
+      <c r="J22" s="82" t="s">
         <v>242</v>
       </c>
       <c r="K22" s="42" t="s">
@@ -3540,7 +3555,7 @@
       <c r="W22" s="44">
         <v>42447</v>
       </c>
-      <c r="X22" s="81">
+      <c r="X22" s="80">
         <v>42419</v>
       </c>
     </row>
@@ -3609,10 +3624,7 @@
         <v>42419</v>
       </c>
       <c r="X23" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,8 +3755,8 @@
         <v>253</v>
       </c>
       <c r="W25" s="27"/>
-      <c r="X25" s="80" t="s">
-        <v>280</v>
+      <c r="X25" s="79" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3807,7 +3819,7 @@
       <c r="U26" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="56" t="s">
+      <c r="V26" s="58" t="s">
         <v>250</v>
       </c>
       <c r="W26" s="39"/>
@@ -3830,58 +3842,58 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="H27" s="76">
+      <c r="G27" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="75">
         <v>25</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="77" t="s">
+      <c r="K27" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="77" t="s">
+      <c r="L27" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77" t="s">
+      <c r="M27" s="76"/>
+      <c r="N27" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="76" t="s">
+      <c r="O27" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="76" t="s">
+      <c r="P27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="78">
+      <c r="Q27" s="77">
         <v>6</v>
       </c>
-      <c r="R27" s="78" t="s">
+      <c r="R27" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="78" t="s">
+      <c r="S27" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="79" t="s">
+      <c r="T27" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="78" t="s">
+      <c r="U27" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="74" t="s">
+      <c r="V27" s="73" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="35"/>
-      <c r="X27" s="75">
+      <c r="X27" s="74">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,7 +4144,7 @@
         <v>42420</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4182,10 +4194,10 @@
       <c r="U33" s="16"/>
       <c r="V33" s="17"/>
       <c r="W33" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4211,13 +4223,13 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4243,13 +4255,13 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="X35" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4559,6 +4571,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4573,12 +4591,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="278">
   <si>
     <t>Asignatura</t>
   </si>
@@ -815,12 +815,6 @@
     <t>Se debe cambiar motor, recurso off-line enviado a Oliver</t>
   </si>
   <si>
-    <t>En espera de solicitud gráfica.</t>
-  </si>
-  <si>
-    <t>Recurso regresado al autor</t>
-  </si>
-  <si>
     <t>Recurso offLine, esperando imágenes, Pedro ya lo subio a GRECO</t>
   </si>
   <si>
@@ -833,9 +827,6 @@
     <t>No se encesita</t>
   </si>
   <si>
-    <t>Regresado a la autora por falta de imágenes 19/02/2016</t>
-  </si>
-  <si>
     <t>Recurso off-line enviado a Pedro, esta enc arpeta de Github</t>
   </si>
   <si>
@@ -867,6 +858,9 @@
   </si>
   <si>
     <t>Falta la imagen 3</t>
+  </si>
+  <si>
+    <t>Recurso offline debe subir Pedro y enviar a corrección de estilo</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1373,9 +1367,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1415,27 +1406,9 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1505,81 +1478,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1596,6 +1494,117 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1904,9 +1913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1938,94 +1947,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="86" t="s">
+      <c r="N1" s="103"/>
+      <c r="O1" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="106" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="102" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="93"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="103"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2051,56 +2060,56 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="61">
         <v>1</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="68" t="s">
+      <c r="N3" s="62"/>
+      <c r="O3" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="70">
+      <c r="Q3" s="63">
         <v>6</v>
       </c>
-      <c r="R3" s="70" t="s">
+      <c r="R3" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="70" t="s">
+      <c r="S3" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="71" t="s">
+      <c r="T3" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="70" t="s">
+      <c r="U3" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="61">
+      <c r="W3" s="54">
         <v>42422</v>
       </c>
-      <c r="X3" s="72">
+      <c r="X3" s="65">
         <v>42422</v>
       </c>
     </row>
@@ -2185,60 +2194,60 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="77">
         <v>3</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110" t="s">
+      <c r="M5" s="78"/>
+      <c r="N5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="109" t="s">
+      <c r="O5" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="109" t="s">
+      <c r="P5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="111">
+      <c r="Q5" s="79">
         <v>6</v>
       </c>
-      <c r="R5" s="111" t="s">
+      <c r="R5" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="111" t="s">
+      <c r="S5" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="112" t="s">
+      <c r="T5" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="111" t="s">
+      <c r="U5" s="79" t="s">
         <v>199</v>
       </c>
       <c r="V5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="113">
+      <c r="W5" s="81">
         <v>42450</v>
       </c>
-      <c r="X5" s="80">
+      <c r="X5" s="73">
         <v>42416</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,51 +2334,51 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="40">
         <v>5</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="41" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="46">
         <v>9</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S7" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="46" t="s">
         <v>221</v>
       </c>
       <c r="V7" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="44">
+      <c r="W7" s="43">
         <v>42416</v>
       </c>
       <c r="X7" s="38" t="s">
@@ -2400,7 +2409,7 @@
       <c r="I8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="53" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -2509,7 +2518,7 @@
         <v>42417</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -2739,10 +2748,7 @@
         <v>252</v>
       </c>
       <c r="W10" s="21"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2759,32 +2765,32 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="40">
         <v>9</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="41" t="s">
+      <c r="P11" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="34">
@@ -2796,7 +2802,7 @@
       <c r="S11" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="49" t="s">
         <v>209</v>
       </c>
       <c r="U11" s="34" t="s">
@@ -2805,7 +2811,7 @@
       <c r="V11" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="44">
+      <c r="W11" s="43">
         <v>42416</v>
       </c>
       <c r="X11" s="38" t="s">
@@ -2877,9 +2883,6 @@
       <c r="X12" s="37">
         <v>42418</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2896,55 +2899,60 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="77">
         <v>11</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="25" t="s">
+      <c r="N13" s="78"/>
+      <c r="O13" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="79">
         <v>6</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="T13" s="28" t="s">
+      <c r="T13" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="U13" s="27" t="s">
+      <c r="U13" s="79" t="s">
         <v>205</v>
       </c>
       <c r="V13" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="37">
+      <c r="W13" s="81">
+        <v>42450</v>
+      </c>
+      <c r="X13" s="73">
         <v>42443</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,7 +3085,7 @@
       <c r="V15" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="51"/>
+      <c r="W15" s="50"/>
       <c r="X15" s="37">
         <v>42418</v>
       </c>
@@ -3214,7 +3222,7 @@
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3232,32 +3240,32 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="40">
         <v>16</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42" t="s">
+      <c r="M18" s="41"/>
+      <c r="N18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="41" t="s">
+      <c r="P18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="34">
@@ -3269,7 +3277,7 @@
       <c r="S18" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="50" t="s">
+      <c r="T18" s="49" t="s">
         <v>211</v>
       </c>
       <c r="U18" s="34" t="s">
@@ -3278,10 +3286,10 @@
       <c r="V18" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="43">
         <v>42447</v>
       </c>
-      <c r="X18" s="80">
+      <c r="X18" s="73">
         <v>42419</v>
       </c>
     </row>
@@ -3302,56 +3310,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="109">
         <v>17</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55" t="s">
+      <c r="M19" s="110"/>
+      <c r="N19" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="54" t="s">
+      <c r="O19" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="54" t="s">
+      <c r="P19" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="52">
         <v>6</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="56" t="s">
+      <c r="S19" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="57" t="s">
+      <c r="T19" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="56" t="s">
+      <c r="U19" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="81">
+      <c r="W19" s="74">
         <v>42419</v>
       </c>
-      <c r="X19" s="59">
+      <c r="X19" s="107">
         <v>42419</v>
       </c>
     </row>
@@ -3369,54 +3377,54 @@
         <v>192</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="62" t="s">
+      <c r="F20" s="39"/>
+      <c r="G20" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="56">
         <v>18</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64" t="s">
+      <c r="M20" s="57"/>
+      <c r="N20" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="63" t="s">
+      <c r="O20" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="63" t="s">
+      <c r="P20" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="52">
+      <c r="Q20" s="51">
         <v>6</v>
       </c>
-      <c r="R20" s="52" t="s">
+      <c r="R20" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="52" t="s">
+      <c r="S20" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="65" t="s">
+      <c r="T20" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="52" t="s">
+      <c r="U20" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="52" t="s">
+      <c r="V20" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="61">
+      <c r="W20" s="54">
         <v>42418</v>
       </c>
       <c r="X20" s="36" t="s">
@@ -3437,33 +3445,33 @@
         <v>192</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="40">
         <v>19</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42" t="s">
+      <c r="M21" s="41"/>
+      <c r="N21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="41" t="s">
+      <c r="P21" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="34">
@@ -3475,7 +3483,7 @@
       <c r="S21" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="50" t="s">
+      <c r="T21" s="49" t="s">
         <v>133</v>
       </c>
       <c r="U21" s="34" t="s">
@@ -3484,7 +3492,7 @@
       <c r="V21" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="44">
+      <c r="W21" s="43">
         <v>42418</v>
       </c>
       <c r="X21" s="38" t="s">
@@ -3505,33 +3513,33 @@
         <v>192</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="48" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="40">
         <v>20</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="J22" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42" t="s">
+      <c r="M22" s="41"/>
+      <c r="N22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="34">
@@ -3543,7 +3551,7 @@
       <c r="S22" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="50" t="s">
+      <c r="T22" s="49" t="s">
         <v>200</v>
       </c>
       <c r="U22" s="34" t="s">
@@ -3552,10 +3560,10 @@
       <c r="V22" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="44">
+      <c r="W22" s="43">
         <v>42447</v>
       </c>
-      <c r="X22" s="80">
+      <c r="X22" s="73">
         <v>42419</v>
       </c>
     </row>
@@ -3573,33 +3581,33 @@
         <v>192</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="48" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="40">
         <v>21</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42" t="s">
+      <c r="M23" s="41"/>
+      <c r="N23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="41" t="s">
+      <c r="P23" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="34">
@@ -3611,7 +3619,7 @@
       <c r="S23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="50" t="s">
+      <c r="T23" s="49" t="s">
         <v>213</v>
       </c>
       <c r="U23" s="34" t="s">
@@ -3620,11 +3628,11 @@
       <c r="V23" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="44">
+      <c r="W23" s="43">
         <v>42419</v>
       </c>
       <c r="X23" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3641,7 +3649,7 @@
         <v>192</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="32" t="s">
         <v>247</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>192</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="32" t="s">
         <v>155</v>
       </c>
@@ -3717,7 +3725,7 @@
       <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="53" t="s">
         <v>248</v>
       </c>
       <c r="K25" s="26" t="s">
@@ -3755,8 +3763,8 @@
         <v>253</v>
       </c>
       <c r="W25" s="27"/>
-      <c r="X25" s="79" t="s">
-        <v>278</v>
+      <c r="X25" s="72" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3775,55 +3783,57 @@
       <c r="E26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="53" t="s">
+      <c r="F26" s="39"/>
+      <c r="G26" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="114">
         <v>24</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="55" t="s">
+      <c r="L26" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55" t="s">
+      <c r="M26" s="115"/>
+      <c r="N26" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="54" t="s">
+      <c r="O26" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="54" t="s">
+      <c r="P26" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q26" s="116">
         <v>6</v>
       </c>
-      <c r="R26" s="56" t="s">
+      <c r="R26" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="56" t="s">
+      <c r="S26" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="57" t="s">
+      <c r="T26" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="56" t="s">
+      <c r="U26" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="58" t="s">
+      <c r="V26" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="39"/>
-      <c r="X26" s="59">
+      <c r="W26" s="112">
+        <v>42450</v>
+      </c>
+      <c r="X26" s="107">
         <v>42419</v>
       </c>
     </row>
@@ -3842,58 +3852,58 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="75">
+      <c r="G27" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="68">
         <v>25</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="75" t="s">
+      <c r="J27" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="76" t="s">
+      <c r="L27" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76" t="s">
+      <c r="M27" s="69"/>
+      <c r="N27" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="75" t="s">
+      <c r="O27" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="75" t="s">
+      <c r="P27" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="77">
+      <c r="Q27" s="70">
         <v>6</v>
       </c>
-      <c r="R27" s="77" t="s">
+      <c r="R27" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="77" t="s">
+      <c r="S27" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="78" t="s">
+      <c r="T27" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="77" t="s">
+      <c r="U27" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="73" t="s">
+      <c r="V27" s="66" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="35"/>
-      <c r="X27" s="74">
+      <c r="X27" s="67">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3911,55 +3921,58 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="77">
         <v>26</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26" t="s">
+      <c r="M28" s="78"/>
+      <c r="N28" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="P28" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="79">
         <v>6</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="R28" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="27" t="s">
+      <c r="S28" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="28" t="s">
+      <c r="T28" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="27" t="s">
+      <c r="U28" s="79" t="s">
         <v>199</v>
       </c>
       <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="66">
+      <c r="W28" s="118"/>
+      <c r="X28" s="43">
         <v>42423</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3977,35 +3990,35 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="40">
         <v>27</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41" t="s">
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="41"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="40"/>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
       <c r="X29" s="33" t="s">
@@ -4074,7 +4087,7 @@
         <v>250</v>
       </c>
       <c r="W30" s="21"/>
-      <c r="X30" s="66">
+      <c r="X30" s="59">
         <v>42420</v>
       </c>
     </row>
@@ -4137,14 +4150,11 @@
       <c r="V31" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="44">
+      <c r="W31" s="43">
         <v>42420</v>
       </c>
-      <c r="X31" s="66">
+      <c r="X31" s="59">
         <v>42420</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4194,10 +4204,10 @@
       <c r="U33" s="16"/>
       <c r="V33" s="17"/>
       <c r="W33" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4223,13 +4233,13 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4255,13 +4265,13 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4571,12 +4581,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4591,6 +4595,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
   <si>
     <t>Asignatura</t>
   </si>
@@ -861,6 +861,9 @@
   </si>
   <si>
     <t>Recurso offline debe subir Pedro y enviar a corrección de estilo</t>
+  </si>
+  <si>
+    <t>Me falta ubicar bien las imágenes</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1026,6 +1029,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1496,81 +1505,6 @@
     <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1605,6 +1539,96 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1913,9 +1937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1947,94 +1971,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="103"/>
-      <c r="O1" s="82" t="s">
+      <c r="N1" s="109"/>
+      <c r="O1" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="85"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="114"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -3310,32 +3334,32 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="84">
         <v>17</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="109" t="s">
+      <c r="J19" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="110" t="s">
+      <c r="K19" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="110" t="s">
+      <c r="L19" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110" t="s">
+      <c r="M19" s="85"/>
+      <c r="N19" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="109" t="s">
+      <c r="O19" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="109" t="s">
+      <c r="P19" s="84" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="52">
@@ -3347,7 +3371,7 @@
       <c r="S19" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="111" t="s">
+      <c r="T19" s="86" t="s">
         <v>212</v>
       </c>
       <c r="U19" s="52" t="s">
@@ -3359,7 +3383,7 @@
       <c r="W19" s="74">
         <v>42419</v>
       </c>
-      <c r="X19" s="107">
+      <c r="X19" s="82">
         <v>42419</v>
       </c>
     </row>
@@ -3650,54 +3674,56 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="77">
         <v>22</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26" t="s">
+      <c r="M24" s="78"/>
+      <c r="N24" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="79">
         <v>6</v>
       </c>
-      <c r="R24" s="27" t="s">
+      <c r="R24" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="27" t="s">
+      <c r="S24" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="28" t="s">
+      <c r="T24" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="27" t="s">
+      <c r="U24" s="79" t="s">
         <v>199</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="37">
+      <c r="W24" s="81">
+        <v>42450</v>
+      </c>
+      <c r="X24" s="73">
         <v>42423</v>
       </c>
     </row>
@@ -3784,56 +3810,56 @@
         <v>127</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="113" t="s">
+      <c r="G26" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="114">
+      <c r="H26" s="89">
         <v>24</v>
       </c>
-      <c r="I26" s="115" t="s">
+      <c r="I26" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="114" t="s">
+      <c r="J26" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="115" t="s">
+      <c r="K26" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="115" t="s">
+      <c r="L26" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115" t="s">
+      <c r="M26" s="90"/>
+      <c r="N26" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="114" t="s">
+      <c r="O26" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="114" t="s">
+      <c r="P26" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="116">
+      <c r="Q26" s="91">
         <v>6</v>
       </c>
-      <c r="R26" s="116" t="s">
+      <c r="R26" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="116" t="s">
+      <c r="S26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="117" t="s">
+      <c r="T26" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="116" t="s">
+      <c r="U26" s="91" t="s">
         <v>199</v>
       </c>
       <c r="V26" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="112">
+      <c r="W26" s="87">
         <v>42450</v>
       </c>
-      <c r="X26" s="107">
+      <c r="X26" s="82">
         <v>42419</v>
       </c>
     </row>
@@ -3967,7 +3993,7 @@
       <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="118"/>
+      <c r="W28" s="93"/>
       <c r="X28" s="43">
         <v>42423</v>
       </c>
@@ -4040,55 +4066,60 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="119">
         <v>28</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26" t="s">
+      <c r="M30" s="120"/>
+      <c r="N30" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="25" t="s">
+      <c r="P30" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q30" s="121">
         <v>6</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="27" t="s">
+      <c r="S30" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="28" t="s">
+      <c r="T30" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="27" t="s">
+      <c r="U30" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="34" t="s">
+      <c r="V30" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="21"/>
-      <c r="X30" s="59">
+      <c r="W30" s="123">
+        <v>42450</v>
+      </c>
+      <c r="X30" s="43">
         <v>42420</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4581,6 +4612,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4595,12 +4632,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="279">
   <si>
     <t>Asignatura</t>
   </si>
@@ -815,9 +815,6 @@
     <t>Se debe cambiar motor, recurso off-line enviado a Oliver</t>
   </si>
   <si>
-    <t>Recurso offLine, esperando imágenes, Pedro ya lo subio a GRECO</t>
-  </si>
-  <si>
     <t>Listos 5</t>
   </si>
   <si>
@@ -860,10 +857,13 @@
     <t>Falta la imagen 3</t>
   </si>
   <si>
-    <t>Recurso offline debe subir Pedro y enviar a corrección de estilo</t>
-  </si>
-  <si>
     <t>Me falta ubicar bien las imágenes</t>
+  </si>
+  <si>
+    <t>Recurso offline en carpeta github</t>
+  </si>
+  <si>
+    <t>Recurso offline, falta la imagen 4, sin no la entregan quitar ultima pestaña</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1538,84 +1538,6 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1630,6 +1552,81 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,9 +1934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1971,94 +1968,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="97" t="s">
+      <c r="N1" s="119"/>
+      <c r="O1" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="113" t="s">
+      <c r="S1" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="115" t="s">
+      <c r="T1" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="113" t="s">
+      <c r="U1" s="100" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="104"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="114"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="114"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="101"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>42416</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,58 +2488,60 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="77">
         <v>7</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26" t="s">
+      <c r="M9" s="78"/>
+      <c r="N9" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="79">
         <v>6</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="79" t="s">
         <v>199</v>
       </c>
       <c r="V9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="37">
+      <c r="W9" s="81">
+        <v>42451</v>
+      </c>
+      <c r="X9" s="73">
         <v>42417</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -2976,7 +2975,7 @@
         <v>42443</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3246,7 +3245,7 @@
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3656,7 +3655,7 @@
         <v>42419</v>
       </c>
       <c r="X23" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,7 +3789,7 @@
       </c>
       <c r="W25" s="27"/>
       <c r="X25" s="72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3879,7 +3878,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H27" s="68">
         <v>25</v>
@@ -3929,7 +3928,7 @@
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3993,7 +3992,9 @@
       <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="93"/>
+      <c r="W28" s="81">
+        <v>42451</v>
+      </c>
       <c r="X28" s="43">
         <v>42423</v>
       </c>
@@ -4066,60 +4067,60 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="119" t="s">
+      <c r="G30" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="119">
+      <c r="H30" s="93">
         <v>28</v>
       </c>
-      <c r="I30" s="120" t="s">
+      <c r="I30" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="119" t="s">
+      <c r="J30" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="120" t="s">
+      <c r="K30" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="120" t="s">
+      <c r="L30" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120" t="s">
+      <c r="M30" s="94"/>
+      <c r="N30" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="119" t="s">
+      <c r="O30" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="119" t="s">
+      <c r="P30" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="121">
+      <c r="Q30" s="95">
         <v>6</v>
       </c>
-      <c r="R30" s="121" t="s">
+      <c r="R30" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="121" t="s">
+      <c r="S30" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="122" t="s">
+      <c r="T30" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="121" t="s">
+      <c r="U30" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="121" t="s">
+      <c r="V30" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="123">
+      <c r="W30" s="97">
         <v>42450</v>
       </c>
       <c r="X30" s="43">
         <v>42420</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,10 +4236,10 @@
       <c r="U33" s="16"/>
       <c r="V33" s="17"/>
       <c r="W33" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4264,13 +4265,13 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4296,13 +4297,13 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4612,12 +4613,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4632,6 +4627,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="281">
   <si>
     <t>Asignatura</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>Recurso offline, falta la imagen 4, sin no la entregan quitar ultima pestaña</t>
+  </si>
+  <si>
+    <t>Imágenes no tienen tamaño y se superponen sobre texto</t>
+  </si>
+  <si>
+    <t>Tamaño de imágenes</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,12 +1029,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1409,223 +1409,226 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1934,9 +1937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,81 +1971,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="119" t="s">
+      <c r="M1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="119"/>
+      <c r="N1" s="110"/>
       <c r="O1" s="98" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="102" t="s">
+      <c r="T1" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="100" t="s">
+      <c r="U1" s="114" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="114"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="O2" s="99"/>
       <c r="P2" s="99"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="101"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="115"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2081,56 +2084,56 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="59">
         <v>1</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="61" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="63">
+      <c r="Q3" s="61">
         <v>6</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="T3" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="54">
+      <c r="W3" s="53">
         <v>42422</v>
       </c>
-      <c r="X3" s="65">
+      <c r="X3" s="63">
         <v>42422</v>
       </c>
     </row>
@@ -2215,56 +2218,56 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="74">
         <v>3</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78" t="s">
+      <c r="M5" s="75"/>
+      <c r="N5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="77" t="s">
+      <c r="P5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="76">
         <v>6</v>
       </c>
-      <c r="R5" s="79" t="s">
+      <c r="R5" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="79" t="s">
+      <c r="S5" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="79" t="s">
+      <c r="U5" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="81">
+      <c r="W5" s="78">
         <v>42450</v>
       </c>
-      <c r="X5" s="73">
+      <c r="X5" s="70">
         <v>42416</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -2430,7 +2433,7 @@
       <c r="I8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -2488,56 +2491,56 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="74">
         <v>7</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78" t="s">
+      <c r="M9" s="75"/>
+      <c r="N9" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="77" t="s">
+      <c r="O9" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="77" t="s">
+      <c r="P9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="79">
+      <c r="Q9" s="76">
         <v>6</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="R9" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="80" t="s">
+      <c r="T9" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="79" t="s">
+      <c r="U9" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="81">
+      <c r="W9" s="78">
         <v>42451</v>
       </c>
-      <c r="X9" s="73">
+      <c r="X9" s="70">
         <v>42417</v>
       </c>
       <c r="Y9" s="5" t="s">
@@ -2724,7 +2727,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="122" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="25">
@@ -2770,8 +2773,13 @@
       <c r="V10" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="72"/>
+      <c r="W10" s="120">
+        <v>42451</v>
+      </c>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2856,54 +2864,56 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="74">
         <v>10</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26" t="s">
+      <c r="M12" s="75"/>
+      <c r="N12" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="76">
         <v>6</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="28" t="s">
+      <c r="T12" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V12" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="37">
+      <c r="W12" s="78">
+        <v>42451</v>
+      </c>
+      <c r="X12" s="70">
         <v>42418</v>
       </c>
     </row>
@@ -2922,56 +2932,56 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="74">
         <v>11</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="78" t="s">
+      <c r="M13" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="77" t="s">
+      <c r="N13" s="75"/>
+      <c r="O13" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="77" t="s">
+      <c r="P13" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="Q13" s="76">
         <v>6</v>
       </c>
-      <c r="R13" s="79" t="s">
+      <c r="R13" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="79" t="s">
+      <c r="S13" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="U13" s="79" t="s">
+      <c r="U13" s="76" t="s">
         <v>205</v>
       </c>
       <c r="V13" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="81">
+      <c r="W13" s="78">
         <v>42450</v>
       </c>
-      <c r="X13" s="73">
+      <c r="X13" s="70">
         <v>42443</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3062,54 +3072,56 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="74">
         <v>13</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26" t="s">
+      <c r="M15" s="75"/>
+      <c r="N15" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="76">
         <v>6</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="28" t="s">
+      <c r="T15" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="27" t="s">
+      <c r="U15" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V15" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="50"/>
-      <c r="X15" s="37">
+      <c r="W15" s="78">
+        <v>42451</v>
+      </c>
+      <c r="X15" s="70">
         <v>42418</v>
       </c>
     </row>
@@ -3312,7 +3324,7 @@
       <c r="W18" s="43">
         <v>42447</v>
       </c>
-      <c r="X18" s="73">
+      <c r="X18" s="70">
         <v>42419</v>
       </c>
     </row>
@@ -3333,56 +3345,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="81">
         <v>17</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="84" t="s">
+      <c r="J19" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="85" t="s">
+      <c r="K19" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85" t="s">
+      <c r="M19" s="82"/>
+      <c r="N19" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="84" t="s">
+      <c r="O19" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="84" t="s">
+      <c r="P19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="52">
+      <c r="Q19" s="51">
         <v>6</v>
       </c>
-      <c r="R19" s="52" t="s">
+      <c r="R19" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="52" t="s">
+      <c r="S19" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="86" t="s">
+      <c r="T19" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="52" t="s">
+      <c r="U19" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="52" t="s">
+      <c r="V19" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="74">
+      <c r="W19" s="71">
         <v>42419</v>
       </c>
-      <c r="X19" s="82">
+      <c r="X19" s="79">
         <v>42419</v>
       </c>
     </row>
@@ -3401,53 +3413,53 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="55">
         <v>18</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="57" t="s">
+      <c r="L20" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57" t="s">
+      <c r="M20" s="56"/>
+      <c r="N20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="56" t="s">
+      <c r="P20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="50">
         <v>6</v>
       </c>
-      <c r="R20" s="51" t="s">
+      <c r="R20" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="51" t="s">
+      <c r="S20" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="58" t="s">
+      <c r="T20" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="51" t="s">
+      <c r="U20" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="51" t="s">
+      <c r="V20" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="54">
+      <c r="W20" s="53">
         <v>42418</v>
       </c>
       <c r="X20" s="36" t="s">
@@ -3546,7 +3558,7 @@
       <c r="I22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="72" t="s">
         <v>242</v>
       </c>
       <c r="K22" s="41" t="s">
@@ -3586,7 +3598,7 @@
       <c r="W22" s="43">
         <v>42447</v>
       </c>
-      <c r="X22" s="73">
+      <c r="X22" s="70">
         <v>42419</v>
       </c>
     </row>
@@ -3673,56 +3685,56 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="74">
         <v>22</v>
       </c>
-      <c r="I24" s="78" t="s">
+      <c r="I24" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="77" t="s">
+      <c r="J24" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="78" t="s">
+      <c r="L24" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78" t="s">
+      <c r="M24" s="75"/>
+      <c r="N24" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="77" t="s">
+      <c r="O24" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="79">
+      <c r="Q24" s="76">
         <v>6</v>
       </c>
-      <c r="R24" s="79" t="s">
+      <c r="R24" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="79" t="s">
+      <c r="S24" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="80" t="s">
+      <c r="T24" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="79" t="s">
+      <c r="U24" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="81">
+      <c r="W24" s="78">
         <v>42450</v>
       </c>
-      <c r="X24" s="73">
+      <c r="X24" s="70">
         <v>42423</v>
       </c>
     </row>
@@ -3741,55 +3753,60 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="74">
         <v>23</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="25" t="s">
+      <c r="N25" s="75"/>
+      <c r="O25" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="76">
         <v>6</v>
       </c>
-      <c r="R25" s="27" t="s">
+      <c r="R25" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="27" t="s">
+      <c r="S25" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="28" t="s">
+      <c r="T25" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="U25" s="27" t="s">
+      <c r="U25" s="76" t="s">
         <v>205</v>
       </c>
       <c r="V25" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="27"/>
-      <c r="X25" s="72" t="s">
+      <c r="W25" s="78">
+        <v>42451</v>
+      </c>
+      <c r="X25" s="121" t="s">
         <v>274</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3809,56 +3826,56 @@
         <v>127</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="88" t="s">
+      <c r="G26" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="86">
         <v>24</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="89" t="s">
+      <c r="J26" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="90" t="s">
+      <c r="L26" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90" t="s">
+      <c r="M26" s="87"/>
+      <c r="N26" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="89" t="s">
+      <c r="O26" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="89" t="s">
+      <c r="P26" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="91">
+      <c r="Q26" s="88">
         <v>6</v>
       </c>
-      <c r="R26" s="91" t="s">
+      <c r="R26" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="91" t="s">
+      <c r="S26" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="92" t="s">
+      <c r="T26" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="91" t="s">
+      <c r="U26" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="52" t="s">
+      <c r="V26" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="87">
+      <c r="W26" s="84">
         <v>42450</v>
       </c>
-      <c r="X26" s="82">
+      <c r="X26" s="79">
         <v>42419</v>
       </c>
     </row>
@@ -3877,54 +3894,54 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="66">
         <v>25</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="69" t="s">
+      <c r="K27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69" t="s">
+      <c r="M27" s="67"/>
+      <c r="N27" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="68" t="s">
+      <c r="O27" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="68" t="s">
+      <c r="P27" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="70">
+      <c r="Q27" s="68">
         <v>6</v>
       </c>
-      <c r="R27" s="70" t="s">
+      <c r="R27" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="70" t="s">
+      <c r="S27" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="71" t="s">
+      <c r="T27" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="70" t="s">
+      <c r="U27" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="66" t="s">
+      <c r="V27" s="64" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="35"/>
-      <c r="X27" s="67">
+      <c r="X27" s="65">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -3946,53 +3963,53 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="74">
         <v>26</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="77" t="s">
+      <c r="J28" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="78" t="s">
+      <c r="K28" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="78" t="s">
+      <c r="L28" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78" t="s">
+      <c r="M28" s="75"/>
+      <c r="N28" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="77" t="s">
+      <c r="O28" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="77" t="s">
+      <c r="P28" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="79">
+      <c r="Q28" s="76">
         <v>6</v>
       </c>
-      <c r="R28" s="79" t="s">
+      <c r="R28" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="79" t="s">
+      <c r="S28" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="80" t="s">
+      <c r="T28" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="79" t="s">
+      <c r="U28" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="81">
+      <c r="W28" s="78">
         <v>42451</v>
       </c>
       <c r="X28" s="43">
@@ -4067,53 +4084,53 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="93">
+      <c r="H30" s="90">
         <v>28</v>
       </c>
-      <c r="I30" s="94" t="s">
+      <c r="I30" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="93" t="s">
+      <c r="J30" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="94" t="s">
+      <c r="K30" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="94" t="s">
+      <c r="L30" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94" t="s">
+      <c r="M30" s="91"/>
+      <c r="N30" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="93" t="s">
+      <c r="O30" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="93" t="s">
+      <c r="P30" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="95">
+      <c r="Q30" s="92">
         <v>6</v>
       </c>
-      <c r="R30" s="95" t="s">
+      <c r="R30" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="95" t="s">
+      <c r="S30" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="96" t="s">
+      <c r="T30" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="95" t="s">
+      <c r="U30" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="95" t="s">
+      <c r="V30" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="97">
+      <c r="W30" s="94">
         <v>42450</v>
       </c>
       <c r="X30" s="43">
@@ -4138,45 +4155,45 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="40">
         <v>29</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26" t="s">
+      <c r="M31" s="41"/>
+      <c r="N31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25" t="s">
+      <c r="O31" s="40"/>
+      <c r="P31" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="34">
         <v>6</v>
       </c>
-      <c r="R31" s="27" t="s">
+      <c r="R31" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="27" t="s">
+      <c r="S31" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="28" t="s">
+      <c r="T31" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="U31" s="27" t="s">
+      <c r="U31" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V31" s="34" t="s">
@@ -4185,7 +4202,7 @@
       <c r="W31" s="43">
         <v>42420</v>
       </c>
-      <c r="X31" s="59">
+      <c r="X31" s="43">
         <v>42420</v>
       </c>
     </row>
@@ -4613,6 +4630,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4627,12 +4650,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -863,13 +863,13 @@
     <t>Recurso offline en carpeta github</t>
   </si>
   <si>
-    <t>Recurso offline, falta la imagen 4, sin no la entregan quitar ultima pestaña</t>
-  </si>
-  <si>
     <t>Imágenes no tienen tamaño y se superponen sobre texto</t>
   </si>
   <si>
     <t>Tamaño de imágenes</t>
+  </si>
+  <si>
+    <t>Falta una imagen, recurso en carpeta de github</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,12 +1029,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1478,24 +1472,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1511,38 +1487,32 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1553,12 +1523,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1601,35 +1565,20 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1939,7 +1888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1971,94 +1920,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="98" t="s">
+      <c r="N1" s="100"/>
+      <c r="O1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="P1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="118" t="s">
+      <c r="R1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="116" t="s">
+      <c r="T1" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="U1" s="81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="105"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="115"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="82"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2218,53 +2167,53 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="40">
         <v>3</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="74" t="s">
+      <c r="P5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="34">
         <v>6</v>
       </c>
-      <c r="R5" s="76" t="s">
+      <c r="R5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="76" t="s">
+      <c r="S5" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="77" t="s">
+      <c r="T5" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="78">
+      <c r="W5" s="43">
         <v>42450</v>
       </c>
       <c r="X5" s="70">
@@ -2491,60 +2440,60 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="106">
         <v>7</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75" t="s">
+      <c r="M9" s="78"/>
+      <c r="N9" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="74" t="s">
+      <c r="P9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="107">
         <v>6</v>
       </c>
-      <c r="R9" s="76" t="s">
+      <c r="R9" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="77" t="s">
+      <c r="T9" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="76" t="s">
+      <c r="U9" s="107" t="s">
         <v>199</v>
       </c>
       <c r="V9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="78">
+      <c r="W9" s="43">
         <v>42451</v>
       </c>
       <c r="X9" s="70">
         <v>42417</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -2727,58 +2676,58 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="40">
         <v>8</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="25" t="s">
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="34">
         <v>6</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="34" t="s">
         <v>205</v>
       </c>
       <c r="V10" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="120">
+      <c r="W10" s="43">
         <v>42451</v>
       </c>
-      <c r="X10" s="121"/>
+      <c r="X10" s="104"/>
       <c r="Y10" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,53 +2813,53 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="40">
         <v>10</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="75" t="s">
+      <c r="K12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75" t="s">
+      <c r="M12" s="41"/>
+      <c r="N12" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="74" t="s">
+      <c r="O12" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="74" t="s">
+      <c r="P12" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="34">
         <v>6</v>
       </c>
-      <c r="R12" s="76" t="s">
+      <c r="R12" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="S12" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="77" t="s">
+      <c r="T12" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V12" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="78">
+      <c r="W12" s="43">
         <v>42451</v>
       </c>
       <c r="X12" s="70">
@@ -2932,53 +2881,53 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="40">
         <v>11</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="75"/>
-      <c r="O13" s="74" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="74" t="s">
+      <c r="P13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="34">
         <v>6</v>
       </c>
-      <c r="R13" s="76" t="s">
+      <c r="R13" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="76" t="s">
+      <c r="S13" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="T13" s="77" t="s">
+      <c r="T13" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="U13" s="76" t="s">
+      <c r="U13" s="34" t="s">
         <v>205</v>
       </c>
       <c r="V13" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="78">
+      <c r="W13" s="43">
         <v>42450</v>
       </c>
       <c r="X13" s="70">
@@ -3072,53 +3021,53 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="40">
         <v>13</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="75" t="s">
+      <c r="K15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="74" t="s">
+      <c r="O15" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="74" t="s">
+      <c r="P15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="34">
         <v>6</v>
       </c>
-      <c r="R15" s="76" t="s">
+      <c r="R15" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="76" t="s">
+      <c r="S15" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="77" t="s">
+      <c r="T15" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="U15" s="76" t="s">
+      <c r="U15" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V15" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="78">
+      <c r="W15" s="43">
         <v>42451</v>
       </c>
       <c r="X15" s="70">
@@ -3345,32 +3294,32 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="75">
         <v>17</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82" t="s">
+      <c r="M19" s="76"/>
+      <c r="N19" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="81" t="s">
+      <c r="O19" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="81" t="s">
+      <c r="P19" s="75" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="51">
@@ -3382,7 +3331,7 @@
       <c r="S19" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="83" t="s">
+      <c r="T19" s="77" t="s">
         <v>212</v>
       </c>
       <c r="U19" s="51" t="s">
@@ -3394,7 +3343,7 @@
       <c r="W19" s="71">
         <v>42419</v>
       </c>
-      <c r="X19" s="79">
+      <c r="X19" s="73">
         <v>42419</v>
       </c>
     </row>
@@ -3685,53 +3634,53 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="40">
         <v>22</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="74" t="s">
+      <c r="J24" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75" t="s">
+      <c r="M24" s="41"/>
+      <c r="N24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="74" t="s">
+      <c r="O24" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="74" t="s">
+      <c r="P24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="34">
         <v>6</v>
       </c>
-      <c r="R24" s="76" t="s">
+      <c r="R24" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="76" t="s">
+      <c r="S24" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="77" t="s">
+      <c r="T24" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="76" t="s">
+      <c r="U24" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="78">
+      <c r="W24" s="43">
         <v>42450</v>
       </c>
       <c r="X24" s="70">
@@ -3753,60 +3702,60 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="122" t="s">
+      <c r="G25" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="40">
         <v>23</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="123" t="s">
+      <c r="J25" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="75"/>
-      <c r="O25" s="74" t="s">
+      <c r="N25" s="41"/>
+      <c r="O25" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="74" t="s">
+      <c r="P25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="34">
         <v>6</v>
       </c>
-      <c r="R25" s="76" t="s">
+      <c r="R25" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="76" t="s">
+      <c r="S25" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="77" t="s">
+      <c r="T25" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="U25" s="76" t="s">
+      <c r="U25" s="34" t="s">
         <v>205</v>
       </c>
       <c r="V25" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="78">
+      <c r="W25" s="43">
         <v>42451</v>
       </c>
-      <c r="X25" s="121" t="s">
+      <c r="X25" s="104" t="s">
         <v>274</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3826,56 +3775,56 @@
         <v>127</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="75">
         <v>24</v>
       </c>
-      <c r="I26" s="87" t="s">
+      <c r="I26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="87" t="s">
+      <c r="K26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="87" t="s">
+      <c r="L26" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87" t="s">
+      <c r="M26" s="76"/>
+      <c r="N26" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="86" t="s">
+      <c r="O26" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="86" t="s">
+      <c r="P26" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="88">
+      <c r="Q26" s="51">
         <v>6</v>
       </c>
-      <c r="R26" s="88" t="s">
+      <c r="R26" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="88" t="s">
+      <c r="S26" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="89" t="s">
+      <c r="T26" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="88" t="s">
+      <c r="U26" s="51" t="s">
         <v>199</v>
       </c>
       <c r="V26" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="84">
+      <c r="W26" s="71">
         <v>42450</v>
       </c>
-      <c r="X26" s="79">
+      <c r="X26" s="73">
         <v>42419</v>
       </c>
     </row>
@@ -3963,53 +3912,53 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="40">
         <v>26</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75" t="s">
+      <c r="M28" s="41"/>
+      <c r="N28" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="74" t="s">
+      <c r="O28" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="74" t="s">
+      <c r="P28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="76">
+      <c r="Q28" s="34">
         <v>6</v>
       </c>
-      <c r="R28" s="76" t="s">
+      <c r="R28" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="76" t="s">
+      <c r="S28" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="77" t="s">
+      <c r="T28" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="76" t="s">
+      <c r="U28" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="78">
+      <c r="W28" s="43">
         <v>42451</v>
       </c>
       <c r="X28" s="43">
@@ -4084,54 +4033,54 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="90" t="s">
+      <c r="G30" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="40">
         <v>28</v>
       </c>
-      <c r="I30" s="91" t="s">
+      <c r="I30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="90" t="s">
+      <c r="J30" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="91" t="s">
+      <c r="K30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="91" t="s">
+      <c r="L30" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91" t="s">
+      <c r="M30" s="41"/>
+      <c r="N30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="90" t="s">
+      <c r="O30" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="90" t="s">
+      <c r="P30" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="92">
+      <c r="Q30" s="34">
         <v>6</v>
       </c>
-      <c r="R30" s="92" t="s">
+      <c r="R30" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S30" s="92" t="s">
+      <c r="S30" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="93" t="s">
+      <c r="T30" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="92" t="s">
+      <c r="U30" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="V30" s="92" t="s">
+      <c r="V30" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="94">
-        <v>42450</v>
+      <c r="W30" s="43">
+        <v>42452</v>
       </c>
       <c r="X30" s="43">
         <v>42420</v>
@@ -4630,12 +4579,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4650,6 +4593,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
   <si>
     <t>Asignatura</t>
   </si>
@@ -857,19 +857,10 @@
     <t>Falta la imagen 3</t>
   </si>
   <si>
-    <t>Me falta ubicar bien las imágenes</t>
-  </si>
-  <si>
     <t>Recurso offline en carpeta github</t>
   </si>
   <si>
     <t>Imágenes no tienen tamaño y se superponen sobre texto</t>
-  </si>
-  <si>
-    <t>Tamaño de imágenes</t>
-  </si>
-  <si>
-    <t>Falta una imagen, recurso en carpeta de github</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1487,13 +1478,64 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,72 +1555,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1888,7 +1864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1920,94 +1896,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="79" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="98" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="95"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="99"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2219,9 +2195,6 @@
       <c r="X5" s="70">
         <v>42416</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="6" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2440,47 +2413,47 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="106">
+      <c r="H9" s="40">
         <v>7</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="106" t="s">
+      <c r="O9" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="P9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="107">
+      <c r="Q9" s="34">
         <v>6</v>
       </c>
-      <c r="R9" s="107" t="s">
+      <c r="R9" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="107" t="s">
+      <c r="S9" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="108" t="s">
+      <c r="T9" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V9" s="34" t="s">
@@ -2492,9 +2465,7 @@
       <c r="X9" s="70">
         <v>42417</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>280</v>
-      </c>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
@@ -2725,9 +2696,9 @@
       <c r="W10" s="43">
         <v>42451</v>
       </c>
-      <c r="X10" s="104"/>
+      <c r="X10" s="78"/>
       <c r="Y10" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3751,11 +3722,8 @@
       <c r="W25" s="43">
         <v>42451</v>
       </c>
-      <c r="X25" s="104" t="s">
+      <c r="X25" s="78" t="s">
         <v>274</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3965,7 +3933,7 @@
         <v>42423</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4084,9 +4052,6 @@
       </c>
       <c r="X30" s="43">
         <v>42420</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4579,6 +4544,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4593,12 +4564,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1481,6 +1481,30 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1490,12 +1514,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1536,24 +1554,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1864,7 +1864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,94 +1896,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="82" t="s">
+      <c r="N1" s="100"/>
+      <c r="O1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="82"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>249</v>
       </c>
       <c r="W17" s="21"/>
-      <c r="X17" s="37">
+      <c r="X17" s="70">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -4544,12 +4544,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4564,6 +4558,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="279">
   <si>
     <t>Asignatura</t>
   </si>
@@ -824,9 +824,6 @@
     <t>No se encesita</t>
   </si>
   <si>
-    <t>Recurso off-line enviado a Pedro, esta enc arpeta de Github</t>
-  </si>
-  <si>
     <t>En proceso 3</t>
   </si>
   <si>
@@ -861,6 +858,12 @@
   </si>
   <si>
     <t>Imágenes no tienen tamaño y se superponen sobre texto</t>
+  </si>
+  <si>
+    <t>Recurso off-line enviado a Pedro, debo enviar a corrección de estilo</t>
+  </si>
+  <si>
+    <t>¿?</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1023,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1481,12 +1490,63 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1505,56 +1565,23 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,9 +1889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,94 +1923,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="79" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="98" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="95"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="99"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2698,7 +2725,7 @@
       </c>
       <c r="X10" s="78"/>
       <c r="Y10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,7 +2932,7 @@
         <v>42443</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3126,58 +3153,60 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="105">
         <v>15</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
+      <c r="M17" s="106"/>
+      <c r="N17" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="107">
         <v>6</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="R17" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="28" t="s">
+      <c r="T17" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="27" t="s">
+      <c r="U17" s="107" t="s">
         <v>199</v>
       </c>
       <c r="V17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="21"/>
+      <c r="W17" s="109" t="s">
+        <v>278</v>
+      </c>
       <c r="X17" s="70">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3723,7 +3752,7 @@
         <v>42451</v>
       </c>
       <c r="X25" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3812,7 +3841,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H27" s="66">
         <v>25</v>
@@ -3862,7 +3891,7 @@
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3933,7 +3962,7 @@
         <v>42423</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,10 +4196,10 @@
       <c r="U33" s="16"/>
       <c r="V33" s="17"/>
       <c r="W33" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4196,7 +4225,7 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>263</v>
@@ -4228,13 +4257,13 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4544,6 +4573,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4558,12 +4593,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
   <si>
     <t>Asignatura</t>
   </si>
@@ -861,9 +861,6 @@
   </si>
   <si>
     <t>Recurso off-line enviado a Pedro, debo enviar a corrección de estilo</t>
-  </si>
-  <si>
-    <t>¿?</t>
   </si>
 </sst>
 </file>
@@ -923,7 +920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,12 +1020,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,81 +1481,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1580,7 +1496,82 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1891,7 +1882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1923,94 +1914,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="82" t="s">
+      <c r="N1" s="105"/>
+      <c r="O1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="86" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="100"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="87"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -3153,54 +3144,54 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="80">
         <v>15</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="106" t="s">
+      <c r="K17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106" t="s">
+      <c r="M17" s="81"/>
+      <c r="N17" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="105" t="s">
+      <c r="O17" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="105" t="s">
+      <c r="P17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="107">
+      <c r="Q17" s="82">
         <v>6</v>
       </c>
-      <c r="R17" s="107" t="s">
+      <c r="R17" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="107" t="s">
+      <c r="S17" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="108" t="s">
+      <c r="T17" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="107" t="s">
+      <c r="U17" s="82" t="s">
         <v>199</v>
       </c>
       <c r="V17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="109" t="s">
-        <v>278</v>
+      <c r="W17" s="109">
+        <v>42423</v>
       </c>
       <c r="X17" s="70">
         <v>42419</v>
@@ -4573,12 +4564,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4593,6 +4578,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1880,9 +1880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -1249,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1418,24 +1418,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1496,12 +1478,66 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1520,58 +1556,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1882,7 +1870,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1914,94 +1902,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="84" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="98" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="100"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="87"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="99"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2027,47 +2015,47 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="55">
         <v>1</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="56"/>
+      <c r="O3" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="Q3" s="50">
         <v>6</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="50" t="s">
         <v>198</v>
       </c>
       <c r="V3" s="50" t="s">
@@ -2076,7 +2064,7 @@
       <c r="W3" s="53">
         <v>42422</v>
       </c>
-      <c r="X3" s="63">
+      <c r="X3" s="105">
         <v>42422</v>
       </c>
     </row>
@@ -2095,54 +2083,54 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="40">
         <v>2</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="34">
         <v>6</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="34" t="s">
         <v>199</v>
       </c>
       <c r="V4" s="34" t="s">
         <v>249</v>
       </c>
       <c r="W4" s="33"/>
-      <c r="X4" s="37">
+      <c r="X4" s="64">
         <v>42416</v>
       </c>
     </row>
@@ -2210,7 +2198,7 @@
       <c r="W5" s="43">
         <v>42450</v>
       </c>
-      <c r="X5" s="70">
+      <c r="X5" s="64">
         <v>42416</v>
       </c>
     </row>
@@ -2480,7 +2468,7 @@
       <c r="W9" s="43">
         <v>42451</v>
       </c>
-      <c r="X9" s="70">
+      <c r="X9" s="64">
         <v>42417</v>
       </c>
       <c r="Y9" s="5"/>
@@ -2714,7 +2702,7 @@
       <c r="W10" s="43">
         <v>42451</v>
       </c>
-      <c r="X10" s="78"/>
+      <c r="X10" s="72"/>
       <c r="Y10" s="3" t="s">
         <v>276</v>
       </c>
@@ -2851,7 +2839,7 @@
       <c r="W12" s="43">
         <v>42451</v>
       </c>
-      <c r="X12" s="70">
+      <c r="X12" s="64">
         <v>42418</v>
       </c>
     </row>
@@ -2919,7 +2907,7 @@
       <c r="W13" s="43">
         <v>42450</v>
       </c>
-      <c r="X13" s="70">
+      <c r="X13" s="64">
         <v>42443</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3059,7 +3047,7 @@
       <c r="W15" s="43">
         <v>42451</v>
       </c>
-      <c r="X15" s="70">
+      <c r="X15" s="64">
         <v>42418</v>
       </c>
     </row>
@@ -3144,56 +3132,56 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="74">
         <v>15</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81" t="s">
+      <c r="M17" s="75"/>
+      <c r="N17" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="80" t="s">
+      <c r="O17" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="80" t="s">
+      <c r="P17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="76">
         <v>6</v>
       </c>
-      <c r="R17" s="82" t="s">
+      <c r="R17" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="82" t="s">
+      <c r="S17" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="83" t="s">
+      <c r="T17" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="82" t="s">
+      <c r="U17" s="76" t="s">
         <v>199</v>
       </c>
       <c r="V17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="109">
+      <c r="W17" s="78">
         <v>42423</v>
       </c>
-      <c r="X17" s="70">
+      <c r="X17" s="64">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3264,7 +3252,7 @@
       <c r="W18" s="43">
         <v>42447</v>
       </c>
-      <c r="X18" s="70">
+      <c r="X18" s="64">
         <v>42419</v>
       </c>
     </row>
@@ -3285,32 +3273,32 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="69">
         <v>17</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76" t="s">
+      <c r="M19" s="70"/>
+      <c r="N19" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="75" t="s">
+      <c r="O19" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="69" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="51">
@@ -3322,7 +3310,7 @@
       <c r="S19" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="77" t="s">
+      <c r="T19" s="71" t="s">
         <v>212</v>
       </c>
       <c r="U19" s="51" t="s">
@@ -3331,10 +3319,10 @@
       <c r="V19" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="71">
+      <c r="W19" s="65">
         <v>42419</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="67">
         <v>42419</v>
       </c>
     </row>
@@ -3498,7 +3486,7 @@
       <c r="I22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="66" t="s">
         <v>242</v>
       </c>
       <c r="K22" s="41" t="s">
@@ -3538,7 +3526,7 @@
       <c r="W22" s="43">
         <v>42447</v>
       </c>
-      <c r="X22" s="70">
+      <c r="X22" s="64">
         <v>42419</v>
       </c>
     </row>
@@ -3674,7 +3662,7 @@
       <c r="W24" s="43">
         <v>42450</v>
       </c>
-      <c r="X24" s="70">
+      <c r="X24" s="64">
         <v>42423</v>
       </c>
     </row>
@@ -3702,7 +3690,7 @@
       <c r="I25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="66" t="s">
         <v>248</v>
       </c>
       <c r="K25" s="41" t="s">
@@ -3742,7 +3730,7 @@
       <c r="W25" s="43">
         <v>42451</v>
       </c>
-      <c r="X25" s="78" t="s">
+      <c r="X25" s="72" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3763,32 +3751,32 @@
         <v>127</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="69">
         <v>24</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="76" t="s">
+      <c r="L26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76" t="s">
+      <c r="M26" s="70"/>
+      <c r="N26" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="75" t="s">
+      <c r="O26" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="75" t="s">
+      <c r="P26" s="69" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="51">
@@ -3800,7 +3788,7 @@
       <c r="S26" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="77" t="s">
+      <c r="T26" s="71" t="s">
         <v>136</v>
       </c>
       <c r="U26" s="51" t="s">
@@ -3809,10 +3797,10 @@
       <c r="V26" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="71">
+      <c r="W26" s="65">
         <v>42450</v>
       </c>
-      <c r="X26" s="73">
+      <c r="X26" s="67">
         <v>42419</v>
       </c>
     </row>
@@ -3831,54 +3819,54 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="60">
         <v>25</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="67" t="s">
+      <c r="K27" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="L27" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67" t="s">
+      <c r="M27" s="61"/>
+      <c r="N27" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="66" t="s">
+      <c r="O27" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="66" t="s">
+      <c r="P27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="62">
         <v>6</v>
       </c>
-      <c r="R27" s="68" t="s">
+      <c r="R27" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="68" t="s">
+      <c r="S27" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="69" t="s">
+      <c r="T27" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="68" t="s">
+      <c r="U27" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="64" t="s">
+      <c r="V27" s="58" t="s">
         <v>250</v>
       </c>
       <c r="W27" s="35"/>
-      <c r="X27" s="65">
+      <c r="X27" s="59">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -4564,6 +4552,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4578,12 +4572,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="279">
   <si>
     <t>Asignatura</t>
   </si>
@@ -845,9 +845,6 @@
     <t>Competencias: Las líneas notables de un triángulo</t>
   </si>
   <si>
-    <t>Recurso offline en la carpeta de github</t>
-  </si>
-  <si>
     <t>14/03/2,016</t>
   </si>
   <si>
@@ -861,6 +858,12 @@
   </si>
   <si>
     <t>Recurso off-line enviado a Pedro, debo enviar a corrección de estilo</t>
+  </si>
+  <si>
+    <t>Recurso offline en la carpeta de github, faltan dos imágenes</t>
+  </si>
+  <si>
+    <t>no envíe</t>
   </si>
 </sst>
 </file>
@@ -1349,9 +1352,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1481,6 +1481,36 @@
     <xf numFmtId="14" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1490,12 +1520,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1538,28 +1562,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1868,9 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1902,94 +1905,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="82" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="82" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="83"/>
       <c r="V2" s="24" t="s">
         <v>254</v>
       </c>
@@ -2015,56 +2018,56 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="54">
         <v>1</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="55" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="49">
         <v>6</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="53">
+      <c r="W3" s="52">
         <v>42422</v>
       </c>
-      <c r="X3" s="105">
+      <c r="X3" s="79">
         <v>42422</v>
       </c>
     </row>
@@ -2083,32 +2086,32 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>2</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41" t="s">
+      <c r="M4" s="40"/>
+      <c r="N4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="34">
@@ -2120,7 +2123,7 @@
       <c r="S4" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="48" t="s">
         <v>134</v>
       </c>
       <c r="U4" s="34" t="s">
@@ -2129,8 +2132,10 @@
       <c r="V4" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="33"/>
-      <c r="X4" s="64">
+      <c r="W4" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X4" s="63">
         <v>42416</v>
       </c>
     </row>
@@ -2149,32 +2154,32 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>3</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="34">
@@ -2186,7 +2191,7 @@
       <c r="S5" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="48" t="s">
         <v>202</v>
       </c>
       <c r="U5" s="34" t="s">
@@ -2195,10 +2200,10 @@
       <c r="V5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="43">
+      <c r="W5" s="42">
         <v>42450</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="63">
         <v>42416</v>
       </c>
     </row>
@@ -2264,7 +2269,7 @@
         <v>249</v>
       </c>
       <c r="W6" s="21"/>
-      <c r="X6" s="37">
+      <c r="X6" s="36">
         <v>42416</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2286,54 +2291,54 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="39">
         <v>5</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="45">
         <v>9</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="R7" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="T7" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="46" t="s">
+      <c r="U7" s="45" t="s">
         <v>221</v>
       </c>
       <c r="V7" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="43">
+      <c r="W7" s="42">
         <v>42416</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="37" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2361,7 +2366,7 @@
       <c r="I8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -2399,7 +2404,7 @@
         <v>251</v>
       </c>
       <c r="W8" s="21"/>
-      <c r="X8" s="37">
+      <c r="X8" s="36">
         <v>42429</v>
       </c>
       <c r="Y8" s="5"/>
@@ -2419,32 +2424,32 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <v>7</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="34">
@@ -2456,7 +2461,7 @@
       <c r="S9" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="48" t="s">
         <v>125</v>
       </c>
       <c r="U9" s="34" t="s">
@@ -2465,10 +2470,10 @@
       <c r="V9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="42">
         <v>42451</v>
       </c>
-      <c r="X9" s="64">
+      <c r="X9" s="63">
         <v>42417</v>
       </c>
       <c r="Y9" s="5"/>
@@ -2653,32 +2658,32 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="39">
         <v>8</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40" t="s">
+      <c r="N10" s="40"/>
+      <c r="O10" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="34">
@@ -2690,7 +2695,7 @@
       <c r="S10" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="48" t="s">
         <v>204</v>
       </c>
       <c r="U10" s="34" t="s">
@@ -2699,12 +2704,12 @@
       <c r="V10" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="42">
         <v>42451</v>
       </c>
-      <c r="X10" s="72"/>
+      <c r="X10" s="71"/>
       <c r="Y10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,32 +2727,32 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <v>9</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="40"/>
+      <c r="N11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="48" t="s">
+      <c r="O11" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="34">
@@ -2759,7 +2764,7 @@
       <c r="S11" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="49" t="s">
+      <c r="T11" s="48" t="s">
         <v>209</v>
       </c>
       <c r="U11" s="34" t="s">
@@ -2768,10 +2773,10 @@
       <c r="V11" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W11" s="43">
+      <c r="W11" s="42">
         <v>42416</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="37" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2790,32 +2795,32 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <v>10</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41" t="s">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="34">
@@ -2827,7 +2832,7 @@
       <c r="S12" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="48" t="s">
         <v>126</v>
       </c>
       <c r="U12" s="34" t="s">
@@ -2836,10 +2841,10 @@
       <c r="V12" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="43">
+      <c r="W12" s="42">
         <v>42451</v>
       </c>
-      <c r="X12" s="64">
+      <c r="X12" s="63">
         <v>42418</v>
       </c>
     </row>
@@ -2858,32 +2863,32 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <v>11</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="40" t="s">
+      <c r="N13" s="40"/>
+      <c r="O13" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="34">
@@ -2895,7 +2900,7 @@
       <c r="S13" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="T13" s="49" t="s">
+      <c r="T13" s="48" t="s">
         <v>206</v>
       </c>
       <c r="U13" s="34" t="s">
@@ -2904,14 +2909,14 @@
       <c r="V13" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="43">
+      <c r="W13" s="42">
         <v>42450</v>
       </c>
-      <c r="X13" s="64">
+      <c r="X13" s="63">
         <v>42443</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2976,7 +2981,7 @@
         <v>249</v>
       </c>
       <c r="W14" s="33"/>
-      <c r="X14" s="37">
+      <c r="X14" s="36">
         <v>42417</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -2998,32 +3003,32 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>13</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41" t="s">
+      <c r="M15" s="40"/>
+      <c r="N15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="34">
@@ -3035,7 +3040,7 @@
       <c r="S15" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="49" t="s">
+      <c r="T15" s="48" t="s">
         <v>210</v>
       </c>
       <c r="U15" s="34" t="s">
@@ -3044,10 +3049,10 @@
       <c r="V15" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="42">
         <v>42451</v>
       </c>
-      <c r="X15" s="64">
+      <c r="X15" s="63">
         <v>42418</v>
       </c>
     </row>
@@ -3113,7 +3118,7 @@
         <v>249</v>
       </c>
       <c r="W16" s="21"/>
-      <c r="X16" s="37">
+      <c r="X16" s="36">
         <v>42431</v>
       </c>
     </row>
@@ -3132,60 +3137,60 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="73">
         <v>15</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75" t="s">
+      <c r="M17" s="74"/>
+      <c r="N17" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="74" t="s">
+      <c r="O17" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="74" t="s">
+      <c r="P17" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="75">
         <v>6</v>
       </c>
-      <c r="R17" s="76" t="s">
+      <c r="R17" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="76" t="s">
+      <c r="S17" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="77" t="s">
+      <c r="T17" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="U17" s="76" t="s">
+      <c r="U17" s="75" t="s">
         <v>199</v>
       </c>
       <c r="V17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W17" s="78">
+      <c r="W17" s="77">
         <v>42423</v>
       </c>
-      <c r="X17" s="64">
+      <c r="X17" s="63">
         <v>42419</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3203,32 +3208,32 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <v>16</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41" t="s">
+      <c r="M18" s="40"/>
+      <c r="N18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="O18" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="34">
@@ -3240,7 +3245,7 @@
       <c r="S18" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="49" t="s">
+      <c r="T18" s="48" t="s">
         <v>211</v>
       </c>
       <c r="U18" s="34" t="s">
@@ -3249,10 +3254,10 @@
       <c r="V18" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W18" s="43">
+      <c r="W18" s="42">
         <v>42447</v>
       </c>
-      <c r="X18" s="64">
+      <c r="X18" s="63">
         <v>42419</v>
       </c>
     </row>
@@ -3273,56 +3278,56 @@
         <v>127</v>
       </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="68">
         <v>17</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="70" t="s">
+      <c r="L19" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70" t="s">
+      <c r="M19" s="69"/>
+      <c r="N19" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="69" t="s">
+      <c r="O19" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P19" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="50">
         <v>6</v>
       </c>
-      <c r="R19" s="51" t="s">
+      <c r="R19" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="51" t="s">
+      <c r="S19" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="71" t="s">
+      <c r="T19" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="51" t="s">
+      <c r="U19" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="51" t="s">
+      <c r="V19" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="65">
+      <c r="W19" s="64">
         <v>42419</v>
       </c>
-      <c r="X19" s="67">
+      <c r="X19" s="66">
         <v>42419</v>
       </c>
     </row>
@@ -3340,57 +3345,57 @@
         <v>192</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="54" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="54">
         <v>18</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="56" t="s">
+      <c r="L20" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56" t="s">
+      <c r="M20" s="55"/>
+      <c r="N20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="49">
         <v>6</v>
       </c>
-      <c r="R20" s="50" t="s">
+      <c r="R20" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="50" t="s">
+      <c r="S20" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="57" t="s">
+      <c r="T20" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="50" t="s">
+      <c r="U20" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="50" t="s">
+      <c r="V20" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="W20" s="53">
+      <c r="W20" s="52">
         <v>42418</v>
       </c>
-      <c r="X20" s="36" t="s">
+      <c r="X20" s="35" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3408,33 +3413,33 @@
         <v>192</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="47" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <v>19</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41" t="s">
+      <c r="M21" s="40"/>
+      <c r="N21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="34">
@@ -3446,7 +3451,7 @@
       <c r="S21" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="49" t="s">
+      <c r="T21" s="48" t="s">
         <v>133</v>
       </c>
       <c r="U21" s="34" t="s">
@@ -3455,10 +3460,10 @@
       <c r="V21" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W21" s="43">
+      <c r="W21" s="42">
         <v>42418</v>
       </c>
-      <c r="X21" s="38" t="s">
+      <c r="X21" s="37" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3476,33 +3481,33 @@
         <v>192</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="47" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <v>20</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41" t="s">
+      <c r="M22" s="40"/>
+      <c r="N22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="34">
@@ -3514,7 +3519,7 @@
       <c r="S22" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="49" t="s">
+      <c r="T22" s="48" t="s">
         <v>200</v>
       </c>
       <c r="U22" s="34" t="s">
@@ -3523,10 +3528,10 @@
       <c r="V22" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W22" s="43">
+      <c r="W22" s="42">
         <v>42447</v>
       </c>
-      <c r="X22" s="64">
+      <c r="X22" s="63">
         <v>42419</v>
       </c>
     </row>
@@ -3544,33 +3549,33 @@
         <v>192</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="47" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <v>21</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41" t="s">
+      <c r="M23" s="40"/>
+      <c r="N23" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="40" t="s">
+      <c r="O23" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="34">
@@ -3582,7 +3587,7 @@
       <c r="S23" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="49" t="s">
+      <c r="T23" s="48" t="s">
         <v>213</v>
       </c>
       <c r="U23" s="34" t="s">
@@ -3591,10 +3596,10 @@
       <c r="V23" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W23" s="43">
+      <c r="W23" s="42">
         <v>42419</v>
       </c>
-      <c r="X23" s="38" t="s">
+      <c r="X23" s="37" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3612,33 +3617,33 @@
         <v>192</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="47" t="s">
+      <c r="F24" s="38"/>
+      <c r="G24" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="39">
         <v>22</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41" t="s">
+      <c r="M24" s="40"/>
+      <c r="N24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="34">
@@ -3650,7 +3655,7 @@
       <c r="S24" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="49" t="s">
+      <c r="T24" s="48" t="s">
         <v>201</v>
       </c>
       <c r="U24" s="34" t="s">
@@ -3659,10 +3664,10 @@
       <c r="V24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="W24" s="43">
+      <c r="W24" s="42">
         <v>42450</v>
       </c>
-      <c r="X24" s="64">
+      <c r="X24" s="63">
         <v>42423</v>
       </c>
     </row>
@@ -3680,33 +3685,33 @@
         <v>192</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="s">
+      <c r="F25" s="38"/>
+      <c r="G25" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <v>23</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="41" t="s">
+      <c r="M25" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="40" t="s">
+      <c r="N25" s="40"/>
+      <c r="O25" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="P25" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="34">
@@ -3718,7 +3723,7 @@
       <c r="S25" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="49" t="s">
+      <c r="T25" s="48" t="s">
         <v>207</v>
       </c>
       <c r="U25" s="34" t="s">
@@ -3727,11 +3732,11 @@
       <c r="V25" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="W25" s="43">
+      <c r="W25" s="42">
         <v>42451</v>
       </c>
-      <c r="X25" s="72" t="s">
-        <v>273</v>
+      <c r="X25" s="71" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3750,57 +3755,57 @@
       <c r="E26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="68" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="68">
         <v>24</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70" t="s">
+      <c r="M26" s="69"/>
+      <c r="N26" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="69" t="s">
+      <c r="O26" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="69" t="s">
+      <c r="P26" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="50">
         <v>6</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="R26" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="51" t="s">
+      <c r="S26" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="T26" s="71" t="s">
+      <c r="T26" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="U26" s="51" t="s">
+      <c r="U26" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="V26" s="51" t="s">
+      <c r="V26" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="W26" s="65">
+      <c r="W26" s="64">
         <v>42450</v>
       </c>
-      <c r="X26" s="67">
+      <c r="X26" s="66">
         <v>42419</v>
       </c>
     </row>
@@ -3819,58 +3824,60 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>25</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J27" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="61" t="s">
+      <c r="K27" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="61" t="s">
+      <c r="L27" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61" t="s">
+      <c r="M27" s="60"/>
+      <c r="N27" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="60" t="s">
+      <c r="O27" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="60" t="s">
+      <c r="P27" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="62">
+      <c r="Q27" s="61">
         <v>6</v>
       </c>
-      <c r="R27" s="62" t="s">
+      <c r="R27" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="62" t="s">
+      <c r="S27" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="T27" s="63" t="s">
+      <c r="T27" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="U27" s="62" t="s">
+      <c r="U27" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="58" t="s">
+      <c r="V27" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="35"/>
-      <c r="X27" s="59">
+      <c r="W27" s="105">
+        <v>42453</v>
+      </c>
+      <c r="X27" s="58">
         <v>42422</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3888,32 +3895,32 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="39">
         <v>26</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41" t="s">
+      <c r="M28" s="40"/>
+      <c r="N28" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="P28" s="40" t="s">
+      <c r="P28" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="34">
@@ -3925,7 +3932,7 @@
       <c r="S28" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="49" t="s">
+      <c r="T28" s="48" t="s">
         <v>215</v>
       </c>
       <c r="U28" s="34" t="s">
@@ -3934,14 +3941,14 @@
       <c r="V28" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W28" s="43">
+      <c r="W28" s="42">
         <v>42451</v>
       </c>
-      <c r="X28" s="43">
+      <c r="X28" s="42">
         <v>42423</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3959,35 +3966,35 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <v>27</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40" t="s">
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="40"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="39"/>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
       <c r="X29" s="33" t="s">
@@ -4009,32 +4016,32 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="39">
         <v>28</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="40" t="s">
+      <c r="J30" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41" t="s">
+      <c r="M30" s="40"/>
+      <c r="N30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="40" t="s">
+      <c r="P30" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="34">
@@ -4046,7 +4053,7 @@
       <c r="S30" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T30" s="49" t="s">
+      <c r="T30" s="48" t="s">
         <v>137</v>
       </c>
       <c r="U30" s="34" t="s">
@@ -4055,10 +4062,10 @@
       <c r="V30" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="43">
+      <c r="W30" s="42">
         <v>42452</v>
       </c>
-      <c r="X30" s="43">
+      <c r="X30" s="42">
         <v>42420</v>
       </c>
     </row>
@@ -4077,30 +4084,30 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="39">
         <v>29</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="J31" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41" t="s">
+      <c r="M31" s="40"/>
+      <c r="N31" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40" t="s">
+      <c r="O31" s="39"/>
+      <c r="P31" s="39" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="34">
@@ -4112,7 +4119,7 @@
       <c r="S31" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="49" t="s">
+      <c r="T31" s="48" t="s">
         <v>216</v>
       </c>
       <c r="U31" s="34" t="s">
@@ -4121,10 +4128,10 @@
       <c r="V31" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="43">
+      <c r="W31" s="42">
         <v>42420</v>
       </c>
-      <c r="X31" s="43">
+      <c r="X31" s="42">
         <v>42420</v>
       </c>
     </row>
@@ -4552,12 +4559,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4572,6 +4573,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/ESCALETA_MA_08_09_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="278">
   <si>
     <t>Asignatura</t>
   </si>
@@ -861,9 +861,6 @@
   </si>
   <si>
     <t>Recurso offline en la carpeta de github, faltan dos imágenes</t>
-  </si>
-  <si>
-    <t>no envíe</t>
   </si>
 </sst>
 </file>
@@ -1487,12 +1484,66 @@
     <xf numFmtId="14" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1510,60 +1561,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <a